--- a/牛客面试题.xlsx
+++ b/牛客面试题.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11265" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11265" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA" sheetId="3" r:id="rId1"/>
     <sheet name="JVM" sheetId="6" r:id="rId2"/>
-    <sheet name="网络" sheetId="2" r:id="rId3"/>
-    <sheet name="MYSQL" sheetId="1" r:id="rId4"/>
-    <sheet name="REDIS" sheetId="4" r:id="rId5"/>
-    <sheet name="SPRING" sheetId="5" r:id="rId6"/>
-    <sheet name="Mybatis" sheetId="7" r:id="rId7"/>
+    <sheet name="JUC" sheetId="8" r:id="rId3"/>
+    <sheet name="NIO" sheetId="9" r:id="rId4"/>
+    <sheet name="网络" sheetId="2" r:id="rId5"/>
+    <sheet name="MYSQL" sheetId="1" r:id="rId6"/>
+    <sheet name="REDIS" sheetId="4" r:id="rId7"/>
+    <sheet name="SPRING" sheetId="5" r:id="rId8"/>
+    <sheet name="Mybatis" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="323">
   <si>
     <t>group by 可以建立索引么</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -989,10 +991,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一章 体系结构和存储引擎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第二章 InnoDB存储引擎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1143,6 +1141,44 @@
   </si>
   <si>
     <t>为什么单线程还那么快？（非阻塞多路IO复用）</t>
+  </si>
+  <si>
+    <t>Mysql的ACID实现方法</t>
+  </si>
+  <si>
+    <t>一致性的分类</t>
+  </si>
+  <si>
+    <t>mybatis解决了mysql的什么问题</t>
+  </si>
+  <si>
+    <t>回表</t>
+  </si>
+  <si>
+    <t>mySQL中的几种日志</t>
+  </si>
+  <si>
+    <t>第一章 体系结构和存储引擎及其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL 语句执行的过程</t>
+  </si>
+  <si>
+    <t>MySQL 的缓存会失效吗</t>
+  </si>
+  <si>
+    <t>MySQL 前缀索引</t>
+  </si>
+  <si>
+    <t>MySQL 有哪些索引？什么情况下采取什么样的索引？和 Redis 的索引和 MongoDB 的索引相对比 ？</t>
+  </si>
+  <si>
+    <t>MySQL 事务隔离界别有哪些？哪些情况下分别采取什么样的隔离级别</t>
+  </si>
+  <si>
+    <t>如何分表，分库？如何保证分完之后的全局ID保证不重复和顺序性，说说自己与网上解决方案不同的思路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1276,6 +1312,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1295,7 +1399,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1576,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A2:A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2437,10 +2541,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2580,12 +2715,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2596,13 +2731,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -2669,241 +2804,293 @@
         <v>119</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>311</v>
+      </c>
+    </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="2"/>
+      <c r="B15" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B16" s="2"/>
+      <c r="B16" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>260</v>
-      </c>
-      <c r="B23" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>274</v>
+      <c r="B22" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>275</v>
+        <v>260</v>
+      </c>
+      <c r="B28" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="2"/>
+      <c r="A29" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
-        <v>266</v>
+      <c r="A30" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="2"/>
+      <c r="A32" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B45" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B46" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="2" t="s">
-        <v>162</v>
+      <c r="A47" s="2" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
-        <v>2</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B50" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B51" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B52" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B53" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B54" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B51" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
-        <v>287</v>
-      </c>
-    </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="2" t="s">
-        <v>269</v>
+      <c r="B57" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B58" s="2" t="s">
-        <v>8</v>
+      <c r="B58" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B59" s="2" t="s">
-        <v>13</v>
+      <c r="B59" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B60" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="2" t="s">
-        <v>36</v>
+      <c r="B60" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B62" s="2" t="s">
-        <v>11</v>
+      <c r="A62" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B64" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B65" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B66" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B67" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B68" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B64" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B65" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B66" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B71" s="2" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B76" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B72" s="2" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B77" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B73" s="2" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B78" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B74" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B75" s="2" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B80" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B76" s="2" t="s">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B81" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B77" s="2" t="s">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B82" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C82" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B78" t="s">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
         <v>20</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C83" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -2913,12 +3100,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3063,132 +3250,132 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3198,7 +3385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -3216,7 +3403,7 @@
         <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -3224,7 +3411,7 @@
         <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -3233,7 +3420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1"/>
   <sheetViews>
@@ -3248,7 +3435,7 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/牛客面试题.xlsx
+++ b/牛客面试题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11265" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11265" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA" sheetId="3" r:id="rId1"/>
@@ -1312,74 +1312,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1399,7 +1331,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1680,7 +1612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2719,8 +2651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/牛客面试题.xlsx
+++ b/牛客面试题.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="342">
   <si>
     <t>group by 可以建立索引么</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1152,9 +1152,6 @@
     <t>mybatis解决了mysql的什么问题</t>
   </si>
   <si>
-    <t>回表</t>
-  </si>
-  <si>
     <t>mySQL中的几种日志</t>
   </si>
   <si>
@@ -1179,13 +1176,85 @@
   <si>
     <t>如何分表，分库？如何保证分完之后的全局ID保证不重复和顺序性，说说自己与网上解决方案不同的思路</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL有哪些常见的优化手段？</t>
+  </si>
+  <si>
+    <t>如果两条select语句，一条走主键索引，另一条走普通索引，分别怎么执行？</t>
+  </si>
+  <si>
+    <t>数据库innodb,myisam区别</t>
+  </si>
+  <si>
+    <t>最左匹配</t>
+  </si>
+  <si>
+    <t>数据库有哪些锁</t>
+  </si>
+  <si>
+    <t>mysql的索引种类4种</t>
+  </si>
+  <si>
+    <t>Innodb的索引结构</t>
+  </si>
+  <si>
+    <t>B+树的优缺点</t>
+  </si>
+  <si>
+    <t>海量数据的索引有什么影响</t>
+  </si>
+  <si>
+    <t>选择联合索引还是多索引，最左前缀的规则</t>
+  </si>
+  <si>
+    <t> CAP理论的关系</t>
+  </si>
+  <si>
+    <t>见过哪些系统，保证两个牺牲一个的</t>
+  </si>
+  <si>
+    <t>了解回表吗，回表一定会发生吗</t>
+  </si>
+  <si>
+    <t>MySQL事务、默认隔离级别，可重复度隔离级别下普通select有加锁么？</t>
+  </si>
+  <si>
+    <t>发现慢查询以后如何做？</t>
+  </si>
+  <si>
+    <r>
+      <t>Explain中的关键字有哪些？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（id、table、type、key、rows）</t>
+    </r>
+  </si>
+  <si>
+    <t>Hbase和MySQL的区别？</t>
+  </si>
+  <si>
+    <t>讲跳表，如果插入这个怎么做的，比如插入第一个数据，存到第几层</t>
+  </si>
+  <si>
+    <t>mysql主从复制的同步方式有几种？</t>
+  </si>
+  <si>
+    <t>mysql哪些字段适合做索引，哪些字段不适合做索引，为什么</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1206,6 +1275,29 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1286,10 +1378,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1306,9 +1399,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2649,10 +2746,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2663,7 +2760,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -2753,282 +2850,380 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
+      <c r="B21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>259</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>260</v>
-      </c>
-      <c r="B28" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>271</v>
-      </c>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>259</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B32" s="12"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>260</v>
+      </c>
+      <c r="B37" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>262</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="2" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B57" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="2" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B58" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B50" s="2" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B59" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B51" s="2" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B60" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="2" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B61" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B53" s="2" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B62" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B54" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B56" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B57" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" s="2" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B64" s="2" t="s">
-        <v>13</v>
+      <c r="B64" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="2" t="s">
-        <v>3</v>
+      <c r="B65" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="2" t="s">
-        <v>36</v>
+      <c r="B66" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="2" t="s">
-        <v>11</v>
+      <c r="B67" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B68" s="2" t="s">
-        <v>1</v>
+      <c r="B68" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>106</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B71" t="s">
-        <v>287</v>
+      <c r="B71" s="12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B72" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B73" s="12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B74" s="13" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="2" t="s">
-        <v>269</v>
+      <c r="B75" s="12" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B76" s="2" t="s">
-        <v>158</v>
+      <c r="B76" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B77" s="2" t="s">
-        <v>9</v>
+      <c r="A77" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B78" s="2" t="s">
-        <v>164</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B79" t="s">
-        <v>10</v>
+      <c r="B79" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B81" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B82" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B83" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B91" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B92" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B93" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B95" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B81" s="2" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B96" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B82" s="2" t="s">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B97" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C97" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B83" t="s">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B98" t="s">
         <v>20</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C98" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B84" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B85" t="s">
-        <v>321</v>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B99" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B74" r:id="rId1" display="https://www.nowcoder.com/jump/super-jump/word?word=%E6%B5%B7%E9%87%8F%E6%95%B0%E6%8D%AE"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/牛客面试题.xlsx
+++ b/牛客面试题.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="343">
   <si>
     <t>group by 可以建立索引么</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1187,67 +1187,66 @@
     <t>数据库innodb,myisam区别</t>
   </si>
   <si>
+    <t>数据库有哪些锁</t>
+  </si>
+  <si>
+    <t> CAP理论的关系</t>
+  </si>
+  <si>
+    <t>见过哪些系统，保证两个牺牲一个的</t>
+  </si>
+  <si>
+    <t>了解回表吗，回表一定会发生吗</t>
+  </si>
+  <si>
+    <t>MySQL事务、默认隔离级别，可重复度隔离级别下普通select有加锁么？</t>
+  </si>
+  <si>
+    <t>发现慢查询以后如何做？</t>
+  </si>
+  <si>
+    <t>Hbase和MySQL的区别？</t>
+  </si>
+  <si>
+    <t>讲跳表，如果插入这个怎么做的，比如插入第一个数据，存到第几层</t>
+  </si>
+  <si>
+    <t>mysql主从复制的同步方式有几种？</t>
+  </si>
+  <si>
+    <t>Explain中的关键字有哪些？（id、table、type、key、rows）</t>
+  </si>
+  <si>
     <t>最左匹配</t>
-  </si>
-  <si>
-    <t>数据库有哪些锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mysql的索引种类4种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Innodb的索引结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B+树的优缺点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>海量数据的索引有什么影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>选择联合索引还是多索引，最左前缀的规则</t>
-  </si>
-  <si>
-    <t> CAP理论的关系</t>
-  </si>
-  <si>
-    <t>见过哪些系统，保证两个牺牲一个的</t>
-  </si>
-  <si>
-    <t>了解回表吗，回表一定会发生吗</t>
-  </si>
-  <si>
-    <t>MySQL事务、默认隔离级别，可重复度隔离级别下普通select有加锁么？</t>
-  </si>
-  <si>
-    <t>发现慢查询以后如何做？</t>
-  </si>
-  <si>
-    <r>
-      <t>Explain中的关键字有哪些？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（id、table、type、key、rows）</t>
-    </r>
-  </si>
-  <si>
-    <t>Hbase和MySQL的区别？</t>
-  </si>
-  <si>
-    <t>讲跳表，如果插入这个怎么做的，比如插入第一个数据，存到第几层</t>
-  </si>
-  <si>
-    <t>mysql主从复制的同步方式有几种？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mysql哪些字段适合做索引，哪些字段不适合做索引，为什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读写分离、故障转移。通过复制和执行binlog实现，使用binlog_format参数设置binlog记录格式为ROW，可以避免主从不一致问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1286,18 +1285,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF333333"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1378,9 +1377,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1400,12 +1398,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2748,13 +2745,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="34.75" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="68.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2765,12 +2762,12 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+      <c r="B3" s="13" t="s">
         <v>128</v>
       </c>
       <c r="C3" t="s">
@@ -2784,128 +2781,131 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="13" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+      <c r="B5" s="13" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
+      <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+      <c r="B8" s="13" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+      <c r="B9" s="13" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
+      <c r="B11" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="13" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
+      <c r="B13" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+      <c r="B14" s="13" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
+      <c r="B15" s="13" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
+      <c r="B16" s="13" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
+      <c r="B17" s="13" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
+      <c r="B18" s="13" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
+      <c r="B19" s="13" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
+      <c r="B20" s="13" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
+      <c r="B21" s="13" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
+      <c r="B22" s="13" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B27" s="13" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="12" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B28" s="13" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="14" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -2918,7 +2918,7 @@
       <c r="A31" t="s">
         <v>259</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="13" t="s">
         <v>281</v>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
@@ -2997,37 +2997,37 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="13" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="13" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="13" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="13" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
@@ -3062,37 +3062,37 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B70" t="s">
-        <v>325</v>
+      <c r="B70" s="13" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B71" s="12" t="s">
-        <v>327</v>
+      <c r="B71" s="13" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B72" s="12" t="s">
-        <v>328</v>
+      <c r="B72" s="13" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B73" s="12" t="s">
-        <v>329</v>
+      <c r="B73" s="13" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B74" s="13" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B75" s="12" t="s">
-        <v>331</v>
+      <c r="B75" s="13" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B76" t="s">
+      <c r="B76" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3102,32 +3102,32 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3148,12 +3148,12 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
@@ -3162,37 +3162,37 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="13" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="13" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B94" t="s">
+      <c r="B94" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="13" t="s">
         <v>130</v>
       </c>
       <c r="C97" t="s">

--- a/牛客面试题.xlsx
+++ b/牛客面试题.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="354">
   <si>
     <t>group by 可以建立索引么</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,10 +402,6 @@
     <t>三级封锁协议</t>
   </si>
   <si>
-    <t xml:space="preserve">全文索引，索引什么时候会失效 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AOP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -959,10 +955,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MYSQL范式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二阶段提交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1053,9 +1045,6 @@
     <t>Redis的应用场景 （从Redis的数据结构入手）zset底层的数据结构，zset的查询和插入的时间复杂度是多少</t>
   </si>
   <si>
-    <t>MySQL 存储结构？</t>
-  </si>
-  <si>
     <t>MySQL索引的设计方案</t>
   </si>
   <si>
@@ -1074,178 +1063,244 @@
     <t>可重复读的原理讲一下（用mvcc和next-lock保证的）</t>
   </si>
   <si>
+    <t>讲一下Redis咋实现的分布式锁，Redisson是啥原理</t>
+  </si>
+  <si>
+    <t>讲一下Spring AOP</t>
+  </si>
+  <si>
+    <t>Spring动态代理用了几个？用AOP实现过功能吗</t>
+  </si>
+  <si>
+    <t>Mybatis分页是怎么做的？</t>
+  </si>
+  <si>
+    <t>Redis相比memcached有哪些优势？</t>
+  </si>
+  <si>
+    <t>什么是Redis？简述它的优缺点？</t>
+  </si>
+  <si>
+    <t>为什么要用 redis /为什么要用缓存</t>
+  </si>
+  <si>
+    <t>Redis主要消耗什么物理资源？</t>
+  </si>
+  <si>
+    <t>Redis的全称是什么？</t>
+  </si>
+  <si>
+    <t>Redis官方为什么不提供Windows版本？</t>
+  </si>
+  <si>
+    <t>Redis集群方案应该怎么做？都有哪些方案？</t>
+  </si>
+  <si>
+    <t>为什么Redis需要把所有数据放到内存中？</t>
+  </si>
+  <si>
+    <t>Redis有哪些适合的场景？</t>
+  </si>
+  <si>
+    <t>redis 常见数据结构以及使用场景分析</t>
+  </si>
+  <si>
+    <t>redis 内存淘汰机制（MySQL里有2000w数据，Redis中只存20w的数据，如何保证Redis中的数据都是热点数据？）</t>
+  </si>
+  <si>
+    <t>redis 持久化机制（怎么保证 redis 挂掉之后再重启数据可以进行恢复）</t>
+  </si>
+  <si>
+    <t>并发竞争key问题</t>
+  </si>
+  <si>
+    <t>select、poll、epoll区别</t>
+  </si>
+  <si>
+    <t>五种IO模型</t>
+  </si>
+  <si>
+    <t>redis集群、哨兵机制</t>
+  </si>
+  <si>
+    <t>分布式锁</t>
+  </si>
+  <si>
+    <t>为什么单线程还那么快？（非阻塞多路IO复用）</t>
+  </si>
+  <si>
+    <t>Mysql的ACID实现方法</t>
+  </si>
+  <si>
+    <t>mySQL中的几种日志</t>
+  </si>
+  <si>
+    <t>第一章 体系结构和存储引擎及其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL 前缀索引</t>
+  </si>
+  <si>
+    <t>MySQL 有哪些索引？什么情况下采取什么样的索引？和 Redis 的索引和 MongoDB 的索引相对比 ？</t>
+  </si>
+  <si>
+    <t>MySQL 事务隔离界别有哪些？哪些情况下分别采取什么样的隔离级别</t>
+  </si>
+  <si>
+    <t>如何分表，分库？如何保证分完之后的全局ID保证不重复和顺序性，说说自己与网上解决方案不同的思路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果两条select语句，一条走主键索引，另一条走普通索引，分别怎么执行？</t>
+  </si>
+  <si>
+    <t>数据库有哪些锁</t>
+  </si>
+  <si>
+    <t>了解回表吗，回表一定会发生吗</t>
+  </si>
+  <si>
+    <t>MySQL事务、默认隔离级别，可重复度隔离级别下普通select有加锁么？</t>
+  </si>
+  <si>
+    <t>发现慢查询以后如何做？</t>
+  </si>
+  <si>
+    <t>Hbase和MySQL的区别？</t>
+  </si>
+  <si>
+    <t>讲跳表，如果插入这个怎么做的，比如插入第一个数据，存到第几层</t>
+  </si>
+  <si>
+    <t>mysql主从复制的同步方式有几种？</t>
+  </si>
+  <si>
+    <t>最左匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql的索引种类4种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Innodb的索引结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B+树的优缺点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海量数据的索引有什么影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择联合索引还是多索引，最左前缀的规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql哪些字段适合做索引，哪些字段不适合做索引，为什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>用sql实现悲观锁和乐观锁</t>
-  </si>
-  <si>
-    <t>讲一下Redis咋实现的分布式锁，Redisson是啥原理</t>
-  </si>
-  <si>
-    <t>讲一下Spring AOP</t>
-  </si>
-  <si>
-    <t>Spring动态代理用了几个？用AOP实现过功能吗</t>
-  </si>
-  <si>
-    <t>Mybatis分页是怎么做的？</t>
-  </si>
-  <si>
-    <t>Redis相比memcached有哪些优势？</t>
-  </si>
-  <si>
-    <t>什么是Redis？简述它的优缺点？</t>
-  </si>
-  <si>
-    <t>为什么要用 redis /为什么要用缓存</t>
-  </si>
-  <si>
-    <t>Redis主要消耗什么物理资源？</t>
-  </si>
-  <si>
-    <t>Redis的全称是什么？</t>
-  </si>
-  <si>
-    <t>Redis官方为什么不提供Windows版本？</t>
-  </si>
-  <si>
-    <t>Redis集群方案应该怎么做？都有哪些方案？</t>
-  </si>
-  <si>
-    <t>为什么Redis需要把所有数据放到内存中？</t>
-  </si>
-  <si>
-    <t>Redis有哪些适合的场景？</t>
-  </si>
-  <si>
-    <t>redis 常见数据结构以及使用场景分析</t>
-  </si>
-  <si>
-    <t>redis 内存淘汰机制（MySQL里有2000w数据，Redis中只存20w的数据，如何保证Redis中的数据都是热点数据？）</t>
-  </si>
-  <si>
-    <t>redis 持久化机制（怎么保证 redis 挂掉之后再重启数据可以进行恢复）</t>
-  </si>
-  <si>
-    <t>并发竞争key问题</t>
-  </si>
-  <si>
-    <t>select、poll、epoll区别</t>
-  </si>
-  <si>
-    <t>五种IO模型</t>
-  </si>
-  <si>
-    <t>redis集群、哨兵机制</t>
-  </si>
-  <si>
-    <t>分布式锁</t>
-  </si>
-  <si>
-    <t>为什么单线程还那么快？（非阻塞多路IO复用）</t>
-  </si>
-  <si>
-    <t>Mysql的ACID实现方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InnoDB支持事务、行锁、MVCC、外键，是索引组织表，面向OLTP型应用。MyISAM不支持事务，表锁、全文索引，更倾向于OLAP型应用。Memory数据存放在内存。中，采用HASH索引，适用与临时表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主从复制实现读写分离、故障转移，通过复制和执行binlog实现。使用binlog_format参数设置binlog记录格式为ROW，可以避免主从不一致问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少不必要的索引，避免大量写入带来的索引更新开销。通过分库、分表、分区来分散压力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show processlist查看MySQL服务器中正在运行的操作信息，如SQL查询。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一范式要求列不可分割；二范式要求所有非主键字段完全依赖于任意组候选键，消除了对候选键的部分依赖；三范式消除了传递依赖，不存在非关键字段依赖于另一非关键字段。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库的写入速率低于读取速率，一般系统中读取频率高于写入频率，单个数据库实例在写入的时候会影响读取的性能。这是进行读写分离的原因。读写分离实现主要基于MySQL的主从复制，通过路由方式使写请求只在Master上，读请求在slave上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#号会使用预编译处理；$是字符串替换，有SQL注入的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一致性的分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子性是通过undo日志实现的，持久性是通过redo日志实现的，隔离性是通过锁和MVCC实现的，一致性在数据库层面是由以上三种特性、数据类型、完整性约束等实现的，在应用层面，通过判断数据库数据是否有效和正确，然后决定回滚还是提交数据，从而保证一致性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一致性分为强一致性、弱一致性和最终一致性。强一致性指在任意时刻，所有节点中的数据都是一样的。弱一致性是指在数据写入后，不承诺立即可以读到写入的值，也不承诺多久可以读到写入的值，但会尽可能保证到某个时间级别后，数据能够达到一致性状态。最终一致性是弱一致性的一种特例，它保证在一段时间内数据可以达到一致性状态，常用在分布式系统中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mybatis解决了mysql的什么问题</t>
-  </si>
-  <si>
-    <t>mySQL中的几种日志</t>
-  </si>
-  <si>
-    <t>第一章 体系结构和存储引擎及其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MySQL 语句执行的过程</t>
-  </si>
-  <si>
-    <t>MySQL 的缓存会失效吗</t>
-  </si>
-  <si>
-    <t>MySQL 前缀索引</t>
-  </si>
-  <si>
-    <t>MySQL 有哪些索引？什么情况下采取什么样的索引？和 Redis 的索引和 MongoDB 的索引相对比 ？</t>
-  </si>
-  <si>
-    <t>MySQL 事务隔离界别有哪些？哪些情况下分别采取什么样的隔离级别</t>
-  </si>
-  <si>
-    <t>如何分表，分库？如何保证分完之后的全局ID保证不重复和顺序性，说说自己与网上解决方案不同的思路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1客户端发送请求给服务器；2 服务器先检查查询缓存，如果命中，直接返回缓存结果，否则进入下一阶段；3 服务器进行SQL解析、预处理，使用优化器生成对应的执行计划；4 服务器依据执行计划调用存储引擎的API完成查询；5 最终将结果返回给客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL的缓存会失效吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会。当数据更新后，缓存会失效。当查询的语句中包含now()/rand()等不确定执行结果的函数时,不会进行缓存。查询的SQL语句不一致时，不能使用缓存。查询information_schema等系统架构下的表时不会进行缓存。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MySQL有哪些常见的优化手段？</t>
-  </si>
-  <si>
-    <t>如果两条select语句，一条走主键索引，另一条走普通索引，分别怎么执行？</t>
-  </si>
-  <si>
-    <t>数据库innodb,myisam区别</t>
-  </si>
-  <si>
-    <t>数据库有哪些锁</t>
-  </si>
-  <si>
-    <t> CAP理论的关系</t>
-  </si>
-  <si>
-    <t>见过哪些系统，保证两个牺牲一个的</t>
-  </si>
-  <si>
-    <t>了解回表吗，回表一定会发生吗</t>
-  </si>
-  <si>
-    <t>MySQL事务、默认隔离级别，可重复度隔离级别下普通select有加锁么？</t>
-  </si>
-  <si>
-    <t>发现慢查询以后如何做？</t>
-  </si>
-  <si>
-    <t>Hbase和MySQL的区别？</t>
-  </si>
-  <si>
-    <t>讲跳表，如果插入这个怎么做的，比如插入第一个数据，存到第几层</t>
-  </si>
-  <si>
-    <t>mysql主从复制的同步方式有几种？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP理论的关系，见过哪些系统，保证两个牺牲一个的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Explain中的关键字有哪些？（id、table、type、key、rows）</t>
-  </si>
-  <si>
-    <t>最左匹配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql的索引种类4种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Innodb的索引结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B+树的优缺点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海量数据的索引有什么影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择联合索引还是多索引，最左前缀的规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql哪些字段适合做索引，哪些字段不适合做索引，为什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读写分离、故障转移。通过复制和执行binlog实现，使用binlog_format参数设置binlog记录格式为ROW，可以避免主从不一致问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL存储结构？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按数据结构分有B+树索引、哈希索引、全文索引。从物理存储角度可分为聚集索引和非聚集索引。从逻辑角度可以分为主键索引、唯一索引、普通索引、联合索引、覆盖索引。B+树索引内容全存于叶子节点，非叶子节点中不存实际信息。Hash索引根据哈希算法决定数据位置。聚集索引在叶子节点存放行数据，也称为索引组织表。非聚集索引也是B+树索引，也称为辅助索引，可以是唯一索引或非唯一索引，非唯一索引也被称为普通索引，辅助索引也可以是联合索引，辅助索引的叶子节点存储的是键值和对应的主键，需要通过回表进行查询。自适应哈希索引由存储引擎自身管理，用户无法干预。InnoDB中全文检索通过倒排索引实现，它在辅助表中存储了单词和单词对应的文档和其在文档中的位置关系。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚集索引将行数据存放在叶子节点中，非聚集索引叶子节点存放该行对应的聚集索引键。对非聚集索引的查询需要先获取对应聚集索引键，再回表查询。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高选择性列适合创建索引。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多列组合而成的全文索引索引列必须有相同的字符集与排序规则。不支持没有单词界定符的语言，如中文、日文、韩文。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全文索引什么时候会失效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1406,6 +1461,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1425,7 +1548,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1776,7 +1899,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>93</v>
@@ -1799,7 +1922,7 @@
         <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -1880,7 +2003,7 @@
         <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>90</v>
@@ -1894,7 +2017,7 @@
         <v>72</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>97</v>
@@ -1908,10 +2031,10 @@
         <v>79</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -1922,7 +2045,7 @@
         <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -1933,7 +2056,7 @@
         <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -1970,7 +2093,7 @@
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>94</v>
@@ -1978,27 +2101,27 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2025,19 +2148,19 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2046,7 +2169,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2055,7 +2178,7 @@
         <v>84</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2063,15 +2186,15 @@
         <v>87</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2080,13 +2203,13 @@
         <v>44</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2096,28 +2219,28 @@
     <row r="10" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2131,46 +2254,46 @@
     <row r="15" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2179,27 +2302,27 @@
     </row>
     <row r="21" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>47</v>
@@ -2208,72 +2331,72 @@
     <row r="24" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>229</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2287,10 +2410,10 @@
     <row r="34" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2307,13 +2430,13 @@
     </row>
     <row r="38" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2322,114 +2445,114 @@
     </row>
     <row r="40" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="9"/>
       <c r="B52" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2438,37 +2561,37 @@
     </row>
     <row r="54" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B54" s="6"/>
     </row>
     <row r="55" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2477,7 +2600,7 @@
     </row>
     <row r="59" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>45</v>
@@ -2486,10 +2609,10 @@
     <row r="60" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2498,21 +2621,21 @@
         <v>91</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>46</v>
@@ -2524,7 +2647,7 @@
     </row>
     <row r="65" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B65" s="6"/>
     </row>
@@ -2743,10 +2866,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2757,32 +2880,35 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="13" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" t="s">
         <v>159</v>
       </c>
-      <c r="D3" t="s">
-        <v>160</v>
-      </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2790,437 +2916,455 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="13" t="s">
-        <v>256</v>
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="13" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" s="13" t="s">
-        <v>117</v>
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="13" t="s">
-        <v>126</v>
+        <v>307</v>
+      </c>
+      <c r="C12" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" s="13" t="s">
-        <v>119</v>
+        <v>337</v>
+      </c>
+      <c r="C13" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" s="13" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" s="13" t="s">
-        <v>312</v>
+        <v>341</v>
+      </c>
+      <c r="C15" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" s="13" t="s">
-        <v>313</v>
+        <v>343</v>
+      </c>
+      <c r="C16" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B17" s="13" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B18" s="13" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B19" s="13" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="13" t="s">
-        <v>322</v>
+      <c r="B20" s="14" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B21" s="13" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B22" s="13" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="14" t="s">
-        <v>326</v>
+      <c r="B23" s="13" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="14" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="13" t="s">
-        <v>334</v>
+      <c r="B24" s="13" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="13" t="s">
-        <v>331</v>
-      </c>
+      <c r="A26" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>257</v>
+      </c>
       <c r="B27" s="13" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B28" s="13" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>259</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="12"/>
+      <c r="B28" s="12"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>260</v>
-      </c>
-      <c r="B37" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>271</v>
-      </c>
+      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>272</v>
+      <c r="A40" s="2" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
+      <c r="B42" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B53" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B54" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B55" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B56" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="C56" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B57" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B58" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B59" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B60" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B62" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B66" t="s">
-        <v>286</v>
+      <c r="B66" s="13" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B67" t="s">
-        <v>328</v>
+      <c r="B67" s="13" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B68" t="s">
-        <v>318</v>
+      <c r="B68" s="13" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B69" t="s">
-        <v>319</v>
+      <c r="B69" s="13" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B70" s="13" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B71" s="13" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B72" s="13" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B73" s="13" t="s">
-        <v>338</v>
+      <c r="A73" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B74" s="13" t="s">
-        <v>339</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B75" s="13" t="s">
-        <v>340</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B76" s="13" t="s">
-        <v>341</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="2" t="s">
-        <v>268</v>
+      <c r="B77" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B78" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B79" s="13" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B80" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B81" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B82" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B83" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B85" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B86" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B87" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B88" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B87" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B88" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B89" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B90" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B91" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B92" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B93" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B94" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B95" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B96" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B97" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C97" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B98" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
         <v>20</v>
       </c>
-      <c r="C98" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B99" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B100" t="s">
-        <v>320</v>
+      <c r="C94" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B74" r:id="rId1" display="https://www.nowcoder.com/jump/super-jump/word?word=%E6%B5%B7%E9%87%8F%E6%95%B0%E6%8D%AE"/>
+    <hyperlink ref="B70" r:id="rId1" display="https://www.nowcoder.com/jump/super-jump/word?word=%E6%B5%B7%E9%87%8F%E6%95%B0%E6%8D%AE"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -3231,8 +3375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3242,267 +3386,267 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3527,18 +3671,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3549,10 +3693,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1"/>
+  <dimension ref="B1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3560,9 +3704,17 @@
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>292</v>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/牛客面试题.xlsx
+++ b/牛客面试题.xlsx
@@ -883,10 +883,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.方法区中静态变量的对象引用、常亮的对象引用。2.本地方法引用对象。3.虚拟机栈局部变量表引用对象。4.JVM内部对象引用，有基本数据类型的Class对象、常驻异常对象、系统/应用程序类加载器。5.被同步锁持有的对象。6.反应jvm内部状态的JMXBean等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Serial、ParNew、Parallel Scavenge、Serial Old、Parallel Old、CMS、G1；Serial单线程，标记复制，新生代，客户端；ParNew在Serial上加多线程，标记复制，新生代，CMS共用；Parallel Scavenge多线程，吞吐量，自适应，标记复制；Serial Old，标记整理，老年代；CMS，标记清除，老年代，并发，延时；Parallel Old多线程，标记整理，老年代；G1全堆收集，Region，停顿预测，动态回收集。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -927,10 +923,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在解析阶段的方法解析过程中，方法对应的当前类信息中无简单名称及描述符匹配的方法后，在父类信息中找亦无匹配，再于实现接口类信息中也没找到则跑出NoSuchMethodError。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在类加载验证阶段通过Class文件格式验证、类的元数据验证、方法的字节码验证及符号引用验证判断是否符合标准Class文件。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1301,6 +1293,14 @@
   </si>
   <si>
     <t>全文索引什么时候会失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.方法区中静态变量的对象引用、常亮的对象引用。2.本地方法引用对象。3.虚拟机栈局部变量表引用对象。4.JVM内部对象引用，有基本数据类型的Class对象、常驻异常对象、系统/应用程序类加载器。5.被同步锁持有的对象。6.反映jvm内部状态的JMXBean等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在解析阶段的方法解析过程中，方法对应的当前类信息中无简单名称及描述符匹配的方法后，在父类信息中找亦无匹配，再于实现接口类信息中也没找到则抛出NoSuchMethodError。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1461,74 +1461,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1548,7 +1480,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1830,7 +1762,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2135,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B22"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2413,7 +2345,7 @@
         <v>206</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2471,7 +2403,7 @@
         <v>205</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>237</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2482,7 +2414,7 @@
         <v>100</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2491,18 +2423,18 @@
         <v>120</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>126</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2511,7 +2443,7 @@
         <v>194</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2522,19 +2454,19 @@
     </row>
     <row r="48" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="11" t="s">
         <v>244</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2573,7 +2505,7 @@
         <v>37</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2582,16 +2514,16 @@
         <v>202</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>248</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>247</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2612,7 +2544,7 @@
         <v>196</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2621,7 +2553,7 @@
         <v>91</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2630,7 +2562,7 @@
         <v>197</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2880,13 +2812,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -2908,7 +2840,7 @@
         <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2916,7 +2848,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -2924,7 +2856,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -2932,7 +2864,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -2940,12 +2872,12 @@
         <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -2958,98 +2890,98 @@
         <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C13" t="s">
         <v>337</v>
-      </c>
-      <c r="C13" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B17" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B18" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B19" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B21" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B22" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B23" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B24" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -3057,32 +2989,32 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -3090,37 +3022,37 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -3128,7 +3060,7 @@
         <v>165</v>
       </c>
       <c r="C53" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -3136,7 +3068,7 @@
         <v>164</v>
       </c>
       <c r="C54" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -3144,15 +3076,15 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B56" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C56" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -3172,72 +3104,72 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B66" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B67" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B68" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B69" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B70" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B71" s="13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B72" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
@@ -3277,27 +3209,27 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -3348,17 +3280,17 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3376,7 +3308,7 @@
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3521,132 +3453,132 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -3674,7 +3606,7 @@
         <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -3682,7 +3614,7 @@
         <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3706,7 +3638,7 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
@@ -3714,7 +3646,7 @@
         <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/牛客面试题.xlsx
+++ b/牛客面试题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11265" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11265" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA" sheetId="3" r:id="rId1"/>
@@ -13,16 +13,17 @@
     <sheet name="NIO" sheetId="9" r:id="rId4"/>
     <sheet name="网络" sheetId="2" r:id="rId5"/>
     <sheet name="MYSQL" sheetId="1" r:id="rId6"/>
-    <sheet name="REDIS" sheetId="4" r:id="rId7"/>
-    <sheet name="SPRING" sheetId="5" r:id="rId8"/>
-    <sheet name="Mybatis" sheetId="7" r:id="rId9"/>
+    <sheet name="设计" sheetId="10" r:id="rId7"/>
+    <sheet name="REDIS" sheetId="4" r:id="rId8"/>
+    <sheet name="SPRING" sheetId="5" r:id="rId9"/>
+    <sheet name="Mybatis" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="365">
   <si>
     <t>group by 可以建立索引么</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1302,6 +1303,39 @@
   <si>
     <t>在解析阶段的方法解析过程中，方法对应的当前类信息中无简单名称及描述符匹配的方法后，在父类信息中找亦无匹配，再于实现接口类信息中也没找到则抛出NoSuchMethodError。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务发现是怎么实现的</t>
+  </si>
+  <si>
+    <t>id生成器怎么实现的，如何实现全局递增</t>
+  </si>
+  <si>
+    <t>熔断是怎么实现的</t>
+  </si>
+  <si>
+    <t>如果用户量上涨怎么优化</t>
+  </si>
+  <si>
+    <t>负载均衡的加权轮询算法怎么实现</t>
+  </si>
+  <si>
+    <t>分库分表，不借助中间件怎么实现</t>
+  </si>
+  <si>
+    <t>设计长短地址转换</t>
+  </si>
+  <si>
+    <t>设计热榜，动态展示top K</t>
+  </si>
+  <si>
+    <t>N个线程交替打印，怎么实现</t>
+  </si>
+  <si>
+    <t>上亿主数据，有什么好的设计方案；</t>
+  </si>
+  <si>
+    <t>从系统层面考虑，分布式从哪些纬度考虑？</t>
   </si>
 </sst>
 </file>
@@ -2063,6 +2097,38 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C86"/>
@@ -2800,7 +2866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
@@ -3304,6 +3370,78 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A53"/>
   <sheetViews>
@@ -3588,7 +3726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -3621,36 +3759,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B2" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/牛客面试题.xlsx
+++ b/牛客面试题.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="384">
   <si>
     <t>group by 可以建立索引么</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1336,6 +1336,63 @@
   </si>
   <si>
     <t>从系统层面考虑，分布式从哪些纬度考虑？</t>
+  </si>
+  <si>
+    <t>A系统和B系统需要交互，A系统需要更新B系统的大量数据，但是更新失败了，有什么解决方法。</t>
+  </si>
+  <si>
+    <t>设计一个系统，每天有100亿条数据，需要在后台做实时展示和查找</t>
+  </si>
+  <si>
+    <t>如果现在有一台服务器突然变得很慢，怎么去定位问题？</t>
+  </si>
+  <si>
+    <t>秒杀系统的架构设计</t>
+  </si>
+  <si>
+    <t>对于大表的常见优化手段说一下？</t>
+  </si>
+  <si>
+    <t>client调用A服务，A服务依赖于B服务，在不知道B是否高可用的情况下，怎么保证A的高可用？</t>
+  </si>
+  <si>
+    <t>假设有 10-100 万的词条。每天定时更新。要求系统高可用，更新完成时间尽量快。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">假设客户端有一个大文件与服务端同步。已知文件中某处被修改，请设计一个算法更新被修改的部分。 </t>
+  </si>
+  <si>
+    <t>设计一个定时触发的生产者消费者</t>
+  </si>
+  <si>
+    <t>给定 log 日志，每行代表用户进入的开始时间和离开时间。统计当天最高的同时在线人数。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每天 100 万微博的存储系统设计 </t>
+  </si>
+  <si>
+    <t>准备一批文本，收集用户的录音。用户获取待读文本，然后提交。要求每个文本只能被读一次，以及统计每个用户读了多少条。</t>
+  </si>
+  <si>
+    <t>假设数据库分散在全国国内，如何处理请求分布到不同地点的数据库中</t>
+  </si>
+  <si>
+    <t>假设在北京下订单，但是跑到广州还款，如果就近原则的话， 连的数据库就不一样了，怎么处理？</t>
+  </si>
+  <si>
+    <t>能不能用一个策略，某个用户的数据指定到一个库去执行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">假设客户端断开连接，服务器不停发数据不断开，这是允许的吗 </t>
+  </si>
+  <si>
+    <t>付款过程中的一致性怎么保证的？</t>
+  </si>
+  <si>
+    <t>如何设计 HTTP 长连接</t>
+  </si>
+  <si>
+    <t>并发更新同一条记录如何解决事务死锁？</t>
   </si>
 </sst>
 </file>
@@ -3371,10 +3428,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B11"/>
+  <dimension ref="B1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3432,6 +3489,101 @@
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/牛客面试题.xlsx
+++ b/牛客面试题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11265" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="11268" windowHeight="8016" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="401">
   <si>
     <t>group by 可以建立索引么</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1393,6 +1393,62 @@
   </si>
   <si>
     <t>并发更新同一条记录如何解决事务死锁？</t>
+  </si>
+  <si>
+    <t>支付没有通知会怎么处理？</t>
+  </si>
+  <si>
+    <t>如何实现一个分布式的栈</t>
+  </si>
+  <si>
+    <t>订单的数据/付款过程一致性如何实现的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链路追踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL 如何平滑扩展/平滑迁库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsafe 方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100W 的数据，需要定时更新，失败需要重试，需要尽快执行完成。现在机器数量不固定，如何用最少的代码实现</t>
+  </si>
+  <si>
+    <t>一个任务在平时只需要 5 个线程就可以处理好，忙的时候需要 100 个线程才能处理完成， 如何设计才能合理利用资源？</t>
+  </si>
+  <si>
+    <t>有一个 HTTP 请求，现在返回值和原来不一致，影响了业务，如何排查？</t>
+  </si>
+  <si>
+    <t>一致性hash 算法的原理？如果有数据倾斜怎么解决？带有虚拟节点的一致性 hash</t>
+  </si>
+  <si>
+    <t>中台券的设计</t>
+  </si>
+  <si>
+    <t>如何削峰</t>
+  </si>
+  <si>
+    <t>如何监控券超发</t>
+  </si>
+  <si>
+    <t>大并发场景下的最终一致性解决方案</t>
+  </si>
+  <si>
+    <t>同时给10万个人发工资，怎么样设计并发方案，能确保在1分钟内全部发完。打个比方会提出类似的场景。</t>
+  </si>
+  <si>
+    <t>有n个客户接入，如何固定等概率分配10个机器人客服中的三个机器人，不能使用额外的内存空间。</t>
   </si>
 </sst>
 </file>
@@ -1853,16 +1909,16 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="32.625" style="1" customWidth="1"/>
+    <col min="1" max="7" width="32.6640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1885,7 +1941,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -1908,7 +1964,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -1931,7 +1987,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -1948,7 +2004,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1962,7 +2018,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -1976,7 +2032,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -1990,7 +2046,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
@@ -2004,7 +2060,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -2018,7 +2074,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -2032,7 +2088,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>84</v>
       </c>
@@ -2046,7 +2102,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>87</v>
       </c>
@@ -2060,7 +2116,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>91</v>
       </c>
@@ -2071,7 +2127,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>92</v>
       </c>
@@ -2082,7 +2138,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>95</v>
       </c>
@@ -2090,7 +2146,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>96</v>
       </c>
@@ -2098,7 +2154,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>100</v>
       </c>
@@ -2106,7 +2162,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
@@ -2114,7 +2170,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>119</v>
       </c>
@@ -2122,27 +2178,27 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>126</v>
       </c>
@@ -2162,17 +2218,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>118</v>
       </c>
@@ -2190,24 +2246,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.625" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="11"/>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>168</v>
       </c>
@@ -2218,7 +2274,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="7" t="s">
         <v>50</v>
@@ -2227,7 +2283,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="7" t="s">
         <v>84</v>
@@ -2236,7 +2292,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>87</v>
       </c>
@@ -2244,7 +2300,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>119</v>
       </c>
@@ -2252,7 +2308,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>44</v>
@@ -2261,17 +2317,17 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>185</v>
@@ -2280,7 +2336,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>186</v>
@@ -2289,7 +2345,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>189</v>
@@ -2298,15 +2354,15 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>188</v>
@@ -2315,7 +2371,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>190</v>
@@ -2324,7 +2380,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
         <v>191</v>
@@ -2333,7 +2389,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
         <v>204</v>
@@ -2342,7 +2398,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
         <v>207</v>
@@ -2351,11 +2407,11 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>170</v>
       </c>
@@ -2366,7 +2422,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
         <v>225</v>
@@ -2375,7 +2431,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>171</v>
       </c>
@@ -2383,13 +2439,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="7" t="s">
         <v>199</v>
@@ -2398,7 +2454,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>175</v>
       </c>
@@ -2409,7 +2465,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
         <v>192</v>
@@ -2418,7 +2474,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
         <v>228</v>
@@ -2427,7 +2483,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
         <v>193</v>
@@ -2436,7 +2492,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
         <v>200</v>
@@ -2445,7 +2501,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
         <v>201</v>
@@ -2454,15 +2510,15 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="7"/>
     </row>
-    <row r="34" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="6" t="s">
         <v>206</v>
@@ -2471,19 +2527,19 @@
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>173</v>
       </c>
@@ -2494,11 +2550,11 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>172</v>
       </c>
@@ -2509,7 +2565,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="6" t="s">
         <v>203</v>
@@ -2518,7 +2574,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>167</v>
       </c>
@@ -2529,7 +2585,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>174</v>
       </c>
@@ -2540,7 +2596,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="7" t="s">
         <v>120</v>
@@ -2549,7 +2605,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>240</v>
       </c>
@@ -2560,7 +2616,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="6" t="s">
         <v>194</v>
@@ -2569,19 +2625,19 @@
         <v>238</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B48" s="6"/>
     </row>
-    <row r="49" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>242</v>
       </c>
@@ -2592,35 +2648,35 @@
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B50" s="6"/>
     </row>
-    <row r="51" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B51" s="6"/>
     </row>
-    <row r="52" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>179</v>
       </c>
       <c r="B54" s="6"/>
     </row>
-    <row r="55" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>180</v>
       </c>
@@ -2631,7 +2687,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="7" t="s">
         <v>202</v>
@@ -2640,7 +2696,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="6" t="s">
         <v>246</v>
@@ -2649,11 +2705,11 @@
         <v>247</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="7"/>
     </row>
-    <row r="59" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>181</v>
       </c>
@@ -2661,7 +2717,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="7" t="s">
         <v>196</v>
@@ -2670,7 +2726,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="7" t="s">
         <v>91</v>
@@ -2679,7 +2735,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="7" t="s">
         <v>197</v>
@@ -2688,7 +2744,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>182</v>
       </c>
@@ -2696,44 +2752,52 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="6"/>
     </row>
-    <row r="65" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B65" s="6"/>
     </row>
-    <row r="66" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="6"/>
     </row>
-    <row r="68" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="6"/>
     </row>
-    <row r="69" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="6"/>
     </row>
-    <row r="80" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
     </row>
-    <row r="85" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
     </row>
   </sheetData>
@@ -2751,7 +2815,7 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2767,7 +2831,7 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2782,132 +2846,132 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.125" customWidth="1"/>
+    <col min="1" max="1" width="56.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -2923,28 +2987,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="68.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>307</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>127</v>
       </c>
@@ -2958,7 +3022,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>160</v>
       </c>
@@ -2966,7 +3030,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>5</v>
       </c>
@@ -2974,7 +3038,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
@@ -2982,7 +3046,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
@@ -2990,7 +3054,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>110</v>
       </c>
@@ -2998,17 +3062,17 @@
         <v>332</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>125</v>
       </c>
@@ -3016,7 +3080,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>305</v>
       </c>
@@ -3024,7 +3088,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>335</v>
       </c>
@@ -3032,12 +3096,12 @@
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>339</v>
       </c>
@@ -3045,7 +3109,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>341</v>
       </c>
@@ -3053,53 +3117,53 @@
         <v>342</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>255</v>
       </c>
@@ -3107,78 +3171,78 @@
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" s="13" t="s">
         <v>165</v>
       </c>
@@ -3186,7 +3250,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" s="13" t="s">
         <v>164</v>
       </c>
@@ -3194,7 +3258,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" s="13" t="s">
         <v>4</v>
       </c>
@@ -3202,7 +3266,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="13" t="s">
         <v>351</v>
       </c>
@@ -3210,182 +3274,182 @@
         <v>350</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" s="13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" s="13" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" s="13" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B71" s="13" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B74" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B75" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B76" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B77" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B78" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B79" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B87" s="13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B88" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B89" s="13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B90" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B91" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B92" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B93" s="13" t="s">
         <v>129</v>
       </c>
@@ -3393,7 +3457,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>20</v>
       </c>
@@ -3401,17 +3465,17 @@
         <v>162</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>253</v>
       </c>
@@ -3428,162 +3492,250 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B30"/>
+  <dimension ref="B1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="123.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>383</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -3601,272 +3753,272 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.125" customWidth="1"/>
+    <col min="1" max="1" width="89.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>304</v>
       </c>
@@ -3886,12 +4038,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>107</v>
       </c>
@@ -3899,7 +4051,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>108</v>
       </c>

--- a/牛客面试题.xlsx
+++ b/牛客面试题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="11268" windowHeight="8016" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11265" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA" sheetId="3" r:id="rId1"/>
@@ -1038,417 +1038,418 @@
     <t>Redis的应用场景 （从Redis的数据结构入手）zset底层的数据结构，zset的查询和插入的时间复杂度是多少</t>
   </si>
   <si>
+    <t>索引失效的场景有哪些？</t>
+  </si>
+  <si>
+    <t>不可重复读其实我们可以通过代码和逻辑来避免，那隔离级别就可以选读已提交，这样效率不是会更高吗？</t>
+  </si>
+  <si>
+    <t>内存泄漏跟内存溢出区别？</t>
+  </si>
+  <si>
+    <t>mysql索引的数据结构讲一下</t>
+  </si>
+  <si>
+    <t>可重复读的原理讲一下（用mvcc和next-lock保证的）</t>
+  </si>
+  <si>
+    <t>讲一下Redis咋实现的分布式锁，Redisson是啥原理</t>
+  </si>
+  <si>
+    <t>讲一下Spring AOP</t>
+  </si>
+  <si>
+    <t>Spring动态代理用了几个？用AOP实现过功能吗</t>
+  </si>
+  <si>
+    <t>Mybatis分页是怎么做的？</t>
+  </si>
+  <si>
+    <t>Redis相比memcached有哪些优势？</t>
+  </si>
+  <si>
+    <t>什么是Redis？简述它的优缺点？</t>
+  </si>
+  <si>
+    <t>为什么要用 redis /为什么要用缓存</t>
+  </si>
+  <si>
+    <t>Redis主要消耗什么物理资源？</t>
+  </si>
+  <si>
+    <t>Redis的全称是什么？</t>
+  </si>
+  <si>
+    <t>Redis官方为什么不提供Windows版本？</t>
+  </si>
+  <si>
+    <t>Redis集群方案应该怎么做？都有哪些方案？</t>
+  </si>
+  <si>
+    <t>为什么Redis需要把所有数据放到内存中？</t>
+  </si>
+  <si>
+    <t>Redis有哪些适合的场景？</t>
+  </si>
+  <si>
+    <t>redis 常见数据结构以及使用场景分析</t>
+  </si>
+  <si>
+    <t>redis 内存淘汰机制（MySQL里有2000w数据，Redis中只存20w的数据，如何保证Redis中的数据都是热点数据？）</t>
+  </si>
+  <si>
+    <t>redis 持久化机制（怎么保证 redis 挂掉之后再重启数据可以进行恢复）</t>
+  </si>
+  <si>
+    <t>并发竞争key问题</t>
+  </si>
+  <si>
+    <t>select、poll、epoll区别</t>
+  </si>
+  <si>
+    <t>五种IO模型</t>
+  </si>
+  <si>
+    <t>redis集群、哨兵机制</t>
+  </si>
+  <si>
+    <t>分布式锁</t>
+  </si>
+  <si>
+    <t>为什么单线程还那么快？（非阻塞多路IO复用）</t>
+  </si>
+  <si>
+    <t>Mysql的ACID实现方法</t>
+  </si>
+  <si>
+    <t>mySQL中的几种日志</t>
+  </si>
+  <si>
+    <t>第一章 体系结构和存储引擎及其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL 前缀索引</t>
+  </si>
+  <si>
+    <t>MySQL 有哪些索引？什么情况下采取什么样的索引？和 Redis 的索引和 MongoDB 的索引相对比 ？</t>
+  </si>
+  <si>
+    <t>MySQL 事务隔离界别有哪些？哪些情况下分别采取什么样的隔离级别</t>
+  </si>
+  <si>
+    <t>如何分表，分库？如何保证分完之后的全局ID保证不重复和顺序性，说说自己与网上解决方案不同的思路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果两条select语句，一条走主键索引，另一条走普通索引，分别怎么执行？</t>
+  </si>
+  <si>
+    <t>数据库有哪些锁</t>
+  </si>
+  <si>
+    <t>了解回表吗，回表一定会发生吗</t>
+  </si>
+  <si>
+    <t>MySQL事务、默认隔离级别，可重复度隔离级别下普通select有加锁么？</t>
+  </si>
+  <si>
+    <t>发现慢查询以后如何做？</t>
+  </si>
+  <si>
+    <t>Hbase和MySQL的区别？</t>
+  </si>
+  <si>
+    <t>讲跳表，如果插入这个怎么做的，比如插入第一个数据，存到第几层</t>
+  </si>
+  <si>
+    <t>mysql主从复制的同步方式有几种？</t>
+  </si>
+  <si>
+    <t>最左匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql的索引种类4种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Innodb的索引结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B+树的优缺点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海量数据的索引有什么影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择联合索引还是多索引，最左前缀的规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql哪些字段适合做索引，哪些字段不适合做索引，为什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用sql实现悲观锁和乐观锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InnoDB支持事务、行锁、MVCC、外键，是索引组织表，面向OLTP型应用。MyISAM不支持事务，表锁、全文索引，更倾向于OLAP型应用。Memory数据存放在内存。中，采用HASH索引，适用与临时表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主从复制实现读写分离、故障转移，通过复制和执行binlog实现。使用binlog_format参数设置binlog记录格式为ROW，可以避免主从不一致问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少不必要的索引，避免大量写入带来的索引更新开销。通过分库、分表、分区来分散压力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show processlist查看MySQL服务器中正在运行的操作信息，如SQL查询。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一范式要求列不可分割；二范式要求所有非主键字段完全依赖于任意组候选键，消除了对候选键的部分依赖；三范式消除了传递依赖，不存在非关键字段依赖于另一非关键字段。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库的写入速率低于读取速率，一般系统中读取频率高于写入频率，单个数据库实例在写入的时候会影响读取的性能。这是进行读写分离的原因。读写分离实现主要基于MySQL的主从复制，通过路由方式使写请求只在Master上，读请求在slave上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#号会使用预编译处理；$是字符串替换，有SQL注入的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一致性的分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子性是通过undo日志实现的，持久性是通过redo日志实现的，隔离性是通过锁和MVCC实现的，一致性在数据库层面是由以上三种特性、数据类型、完整性约束等实现的，在应用层面，通过判断数据库数据是否有效和正确，然后决定回滚还是提交数据，从而保证一致性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一致性分为强一致性、弱一致性和最终一致性。强一致性指在任意时刻，所有节点中的数据都是一样的。弱一致性是指在数据写入后，不承诺立即可以读到写入的值，也不承诺多久可以读到写入的值，但会尽可能保证到某个时间级别后，数据能够达到一致性状态。最终一致性是弱一致性的一种特例，它保证在一段时间内数据可以达到一致性状态，常用在分布式系统中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mybatis解决了mysql的什么问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL 语句执行的过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1客户端发送请求给服务器；2 服务器先检查查询缓存，如果命中，直接返回缓存结果，否则进入下一阶段；3 服务器进行SQL解析、预处理，使用优化器生成对应的执行计划；4 服务器依据执行计划调用存储引擎的API完成查询；5 最终将结果返回给客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL的缓存会失效吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会。当数据更新后，缓存会失效。当查询的语句中包含now()/rand()等不确定执行结果的函数时,不会进行缓存。查询的SQL语句不一致时，不能使用缓存。查询information_schema等系统架构下的表时不会进行缓存。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL有哪些常见的优化手段？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAP理论的关系，见过哪些系统，保证两个牺牲一个的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explain中的关键字有哪些？（id、table、type、key、rows）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL存储结构？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按数据结构分有B+树索引、哈希索引、全文索引。从物理存储角度可分为聚集索引和非聚集索引。从逻辑角度可以分为主键索引、唯一索引、普通索引、联合索引、覆盖索引。B+树索引内容全存于叶子节点，非叶子节点中不存实际信息。Hash索引根据哈希算法决定数据位置。聚集索引在叶子节点存放行数据，也称为索引组织表。非聚集索引也是B+树索引，也称为辅助索引，可以是唯一索引或非唯一索引，非唯一索引也被称为普通索引，辅助索引也可以是联合索引，辅助索引的叶子节点存储的是键值和对应的主键，需要通过回表进行查询。自适应哈希索引由存储引擎自身管理，用户无法干预。InnoDB中全文检索通过倒排索引实现，它在辅助表中存储了单词和单词对应的文档和其在文档中的位置关系。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚集索引将行数据存放在叶子节点中，非聚集索引叶子节点存放该行对应的聚集索引键。对非聚集索引的查询需要先获取对应聚集索引键，再回表查询。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高选择性列适合创建索引。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多列组合而成的全文索引索引列必须有相同的字符集与排序规则。不支持没有单词界定符的语言，如中文、日文、韩文。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全文索引什么时候会失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.方法区中静态变量的对象引用、常亮的对象引用。2.本地方法引用对象。3.虚拟机栈局部变量表引用对象。4.JVM内部对象引用，有基本数据类型的Class对象、常驻异常对象、系统/应用程序类加载器。5.被同步锁持有的对象。6.反映jvm内部状态的JMXBean等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在解析阶段的方法解析过程中，方法对应的当前类信息中无简单名称及描述符匹配的方法后，在父类信息中找亦无匹配，再于实现接口类信息中也没找到则抛出NoSuchMethodError。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务发现是怎么实现的</t>
+  </si>
+  <si>
+    <t>id生成器怎么实现的，如何实现全局递增</t>
+  </si>
+  <si>
+    <t>熔断是怎么实现的</t>
+  </si>
+  <si>
+    <t>如果用户量上涨怎么优化</t>
+  </si>
+  <si>
+    <t>负载均衡的加权轮询算法怎么实现</t>
+  </si>
+  <si>
+    <t>分库分表，不借助中间件怎么实现</t>
+  </si>
+  <si>
+    <t>设计长短地址转换</t>
+  </si>
+  <si>
+    <t>设计热榜，动态展示top K</t>
+  </si>
+  <si>
+    <t>N个线程交替打印，怎么实现</t>
+  </si>
+  <si>
+    <t>上亿主数据，有什么好的设计方案；</t>
+  </si>
+  <si>
+    <t>从系统层面考虑，分布式从哪些纬度考虑？</t>
+  </si>
+  <si>
+    <t>A系统和B系统需要交互，A系统需要更新B系统的大量数据，但是更新失败了，有什么解决方法。</t>
+  </si>
+  <si>
+    <t>设计一个系统，每天有100亿条数据，需要在后台做实时展示和查找</t>
+  </si>
+  <si>
+    <t>如果现在有一台服务器突然变得很慢，怎么去定位问题？</t>
+  </si>
+  <si>
+    <t>秒杀系统的架构设计</t>
+  </si>
+  <si>
+    <t>对于大表的常见优化手段说一下？</t>
+  </si>
+  <si>
+    <t>client调用A服务，A服务依赖于B服务，在不知道B是否高可用的情况下，怎么保证A的高可用？</t>
+  </si>
+  <si>
+    <t>假设有 10-100 万的词条。每天定时更新。要求系统高可用，更新完成时间尽量快。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">假设客户端有一个大文件与服务端同步。已知文件中某处被修改，请设计一个算法更新被修改的部分。 </t>
+  </si>
+  <si>
+    <t>设计一个定时触发的生产者消费者</t>
+  </si>
+  <si>
+    <t>给定 log 日志，每行代表用户进入的开始时间和离开时间。统计当天最高的同时在线人数。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每天 100 万微博的存储系统设计 </t>
+  </si>
+  <si>
+    <t>准备一批文本，收集用户的录音。用户获取待读文本，然后提交。要求每个文本只能被读一次，以及统计每个用户读了多少条。</t>
+  </si>
+  <si>
+    <t>假设数据库分散在全国国内，如何处理请求分布到不同地点的数据库中</t>
+  </si>
+  <si>
+    <t>假设在北京下订单，但是跑到广州还款，如果就近原则的话， 连的数据库就不一样了，怎么处理？</t>
+  </si>
+  <si>
+    <t>能不能用一个策略，某个用户的数据指定到一个库去执行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">假设客户端断开连接，服务器不停发数据不断开，这是允许的吗 </t>
+  </si>
+  <si>
+    <t>付款过程中的一致性怎么保证的？</t>
+  </si>
+  <si>
+    <t>如何设计 HTTP 长连接</t>
+  </si>
+  <si>
+    <t>并发更新同一条记录如何解决事务死锁？</t>
+  </si>
+  <si>
+    <t>支付没有通知会怎么处理？</t>
+  </si>
+  <si>
+    <t>如何实现一个分布式的栈</t>
+  </si>
+  <si>
+    <t>订单的数据/付款过程一致性如何实现的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链路追踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL 如何平滑扩展/平滑迁库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsafe 方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100W 的数据，需要定时更新，失败需要重试，需要尽快执行完成。现在机器数量不固定，如何用最少的代码实现</t>
+  </si>
+  <si>
+    <t>一个任务在平时只需要 5 个线程就可以处理好，忙的时候需要 100 个线程才能处理完成， 如何设计才能合理利用资源？</t>
+  </si>
+  <si>
+    <t>有一个 HTTP 请求，现在返回值和原来不一致，影响了业务，如何排查？</t>
+  </si>
+  <si>
+    <t>一致性hash 算法的原理？如果有数据倾斜怎么解决？带有虚拟节点的一致性 hash</t>
+  </si>
+  <si>
+    <t>中台券的设计</t>
+  </si>
+  <si>
+    <t>如何削峰</t>
+  </si>
+  <si>
+    <t>如何监控券超发</t>
+  </si>
+  <si>
+    <t>大并发场景下的最终一致性解决方案</t>
+  </si>
+  <si>
+    <t>同时给10万个人发工资，怎么样设计并发方案，能确保在1分钟内全部发完。打个比方会提出类似的场景。</t>
+  </si>
+  <si>
+    <t>有n个客户接入，如何固定等概率分配10个机器人客服中的三个机器人，不能使用额外的内存空间。</t>
+  </si>
+  <si>
     <t>MySQL索引的设计方案</t>
-  </si>
-  <si>
-    <t>索引失效的场景有哪些？</t>
-  </si>
-  <si>
-    <t>不可重复读其实我们可以通过代码和逻辑来避免，那隔离级别就可以选读已提交，这样效率不是会更高吗？</t>
-  </si>
-  <si>
-    <t>内存泄漏跟内存溢出区别？</t>
-  </si>
-  <si>
-    <t>mysql索引的数据结构讲一下</t>
-  </si>
-  <si>
-    <t>可重复读的原理讲一下（用mvcc和next-lock保证的）</t>
-  </si>
-  <si>
-    <t>讲一下Redis咋实现的分布式锁，Redisson是啥原理</t>
-  </si>
-  <si>
-    <t>讲一下Spring AOP</t>
-  </si>
-  <si>
-    <t>Spring动态代理用了几个？用AOP实现过功能吗</t>
-  </si>
-  <si>
-    <t>Mybatis分页是怎么做的？</t>
-  </si>
-  <si>
-    <t>Redis相比memcached有哪些优势？</t>
-  </si>
-  <si>
-    <t>什么是Redis？简述它的优缺点？</t>
-  </si>
-  <si>
-    <t>为什么要用 redis /为什么要用缓存</t>
-  </si>
-  <si>
-    <t>Redis主要消耗什么物理资源？</t>
-  </si>
-  <si>
-    <t>Redis的全称是什么？</t>
-  </si>
-  <si>
-    <t>Redis官方为什么不提供Windows版本？</t>
-  </si>
-  <si>
-    <t>Redis集群方案应该怎么做？都有哪些方案？</t>
-  </si>
-  <si>
-    <t>为什么Redis需要把所有数据放到内存中？</t>
-  </si>
-  <si>
-    <t>Redis有哪些适合的场景？</t>
-  </si>
-  <si>
-    <t>redis 常见数据结构以及使用场景分析</t>
-  </si>
-  <si>
-    <t>redis 内存淘汰机制（MySQL里有2000w数据，Redis中只存20w的数据，如何保证Redis中的数据都是热点数据？）</t>
-  </si>
-  <si>
-    <t>redis 持久化机制（怎么保证 redis 挂掉之后再重启数据可以进行恢复）</t>
-  </si>
-  <si>
-    <t>并发竞争key问题</t>
-  </si>
-  <si>
-    <t>select、poll、epoll区别</t>
-  </si>
-  <si>
-    <t>五种IO模型</t>
-  </si>
-  <si>
-    <t>redis集群、哨兵机制</t>
-  </si>
-  <si>
-    <t>分布式锁</t>
-  </si>
-  <si>
-    <t>为什么单线程还那么快？（非阻塞多路IO复用）</t>
-  </si>
-  <si>
-    <t>Mysql的ACID实现方法</t>
-  </si>
-  <si>
-    <t>mySQL中的几种日志</t>
-  </si>
-  <si>
-    <t>第一章 体系结构和存储引擎及其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySQL 前缀索引</t>
-  </si>
-  <si>
-    <t>MySQL 有哪些索引？什么情况下采取什么样的索引？和 Redis 的索引和 MongoDB 的索引相对比 ？</t>
-  </si>
-  <si>
-    <t>MySQL 事务隔离界别有哪些？哪些情况下分别采取什么样的隔离级别</t>
-  </si>
-  <si>
-    <t>如何分表，分库？如何保证分完之后的全局ID保证不重复和顺序性，说说自己与网上解决方案不同的思路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果两条select语句，一条走主键索引，另一条走普通索引，分别怎么执行？</t>
-  </si>
-  <si>
-    <t>数据库有哪些锁</t>
-  </si>
-  <si>
-    <t>了解回表吗，回表一定会发生吗</t>
-  </si>
-  <si>
-    <t>MySQL事务、默认隔离级别，可重复度隔离级别下普通select有加锁么？</t>
-  </si>
-  <si>
-    <t>发现慢查询以后如何做？</t>
-  </si>
-  <si>
-    <t>Hbase和MySQL的区别？</t>
-  </si>
-  <si>
-    <t>讲跳表，如果插入这个怎么做的，比如插入第一个数据，存到第几层</t>
-  </si>
-  <si>
-    <t>mysql主从复制的同步方式有几种？</t>
-  </si>
-  <si>
-    <t>最左匹配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql的索引种类4种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Innodb的索引结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B+树的优缺点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海量数据的索引有什么影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择联合索引还是多索引，最左前缀的规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql哪些字段适合做索引，哪些字段不适合做索引，为什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用sql实现悲观锁和乐观锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InnoDB支持事务、行锁、MVCC、外键，是索引组织表，面向OLTP型应用。MyISAM不支持事务，表锁、全文索引，更倾向于OLAP型应用。Memory数据存放在内存。中，采用HASH索引，适用与临时表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主从复制实现读写分离、故障转移，通过复制和执行binlog实现。使用binlog_format参数设置binlog记录格式为ROW，可以避免主从不一致问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减少不必要的索引，避免大量写入带来的索引更新开销。通过分库、分表、分区来分散压力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show processlist查看MySQL服务器中正在运行的操作信息，如SQL查询。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一范式要求列不可分割；二范式要求所有非主键字段完全依赖于任意组候选键，消除了对候选键的部分依赖；三范式消除了传递依赖，不存在非关键字段依赖于另一非关键字段。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库的写入速率低于读取速率，一般系统中读取频率高于写入频率，单个数据库实例在写入的时候会影响读取的性能。这是进行读写分离的原因。读写分离实现主要基于MySQL的主从复制，通过路由方式使写请求只在Master上，读请求在slave上。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#号会使用预编译处理；$是字符串替换，有SQL注入的问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一致性的分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原子性是通过undo日志实现的，持久性是通过redo日志实现的，隔离性是通过锁和MVCC实现的，一致性在数据库层面是由以上三种特性、数据类型、完整性约束等实现的，在应用层面，通过判断数据库数据是否有效和正确，然后决定回滚还是提交数据，从而保证一致性。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一致性分为强一致性、弱一致性和最终一致性。强一致性指在任意时刻，所有节点中的数据都是一样的。弱一致性是指在数据写入后，不承诺立即可以读到写入的值，也不承诺多久可以读到写入的值，但会尽可能保证到某个时间级别后，数据能够达到一致性状态。最终一致性是弱一致性的一种特例，它保证在一段时间内数据可以达到一致性状态，常用在分布式系统中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mybatis解决了mysql的什么问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySQL 语句执行的过程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1客户端发送请求给服务器；2 服务器先检查查询缓存，如果命中，直接返回缓存结果，否则进入下一阶段；3 服务器进行SQL解析、预处理，使用优化器生成对应的执行计划；4 服务器依据执行计划调用存储引擎的API完成查询；5 最终将结果返回给客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySQL的缓存会失效吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会。当数据更新后，缓存会失效。当查询的语句中包含now()/rand()等不确定执行结果的函数时,不会进行缓存。查询的SQL语句不一致时，不能使用缓存。查询information_schema等系统架构下的表时不会进行缓存。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySQL有哪些常见的优化手段？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAP理论的关系，见过哪些系统，保证两个牺牲一个的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Explain中的关键字有哪些？（id、table、type、key、rows）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySQL存储结构？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按数据结构分有B+树索引、哈希索引、全文索引。从物理存储角度可分为聚集索引和非聚集索引。从逻辑角度可以分为主键索引、唯一索引、普通索引、联合索引、覆盖索引。B+树索引内容全存于叶子节点，非叶子节点中不存实际信息。Hash索引根据哈希算法决定数据位置。聚集索引在叶子节点存放行数据，也称为索引组织表。非聚集索引也是B+树索引，也称为辅助索引，可以是唯一索引或非唯一索引，非唯一索引也被称为普通索引，辅助索引也可以是联合索引，辅助索引的叶子节点存储的是键值和对应的主键，需要通过回表进行查询。自适应哈希索引由存储引擎自身管理，用户无法干预。InnoDB中全文检索通过倒排索引实现，它在辅助表中存储了单词和单词对应的文档和其在文档中的位置关系。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚集索引将行数据存放在叶子节点中，非聚集索引叶子节点存放该行对应的聚集索引键。对非聚集索引的查询需要先获取对应聚集索引键，再回表查询。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高选择性列适合创建索引。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多列组合而成的全文索引索引列必须有相同的字符集与排序规则。不支持没有单词界定符的语言，如中文、日文、韩文。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全文索引什么时候会失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.方法区中静态变量的对象引用、常亮的对象引用。2.本地方法引用对象。3.虚拟机栈局部变量表引用对象。4.JVM内部对象引用，有基本数据类型的Class对象、常驻异常对象、系统/应用程序类加载器。5.被同步锁持有的对象。6.反映jvm内部状态的JMXBean等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在解析阶段的方法解析过程中，方法对应的当前类信息中无简单名称及描述符匹配的方法后，在父类信息中找亦无匹配，再于实现接口类信息中也没找到则抛出NoSuchMethodError。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务发现是怎么实现的</t>
-  </si>
-  <si>
-    <t>id生成器怎么实现的，如何实现全局递增</t>
-  </si>
-  <si>
-    <t>熔断是怎么实现的</t>
-  </si>
-  <si>
-    <t>如果用户量上涨怎么优化</t>
-  </si>
-  <si>
-    <t>负载均衡的加权轮询算法怎么实现</t>
-  </si>
-  <si>
-    <t>分库分表，不借助中间件怎么实现</t>
-  </si>
-  <si>
-    <t>设计长短地址转换</t>
-  </si>
-  <si>
-    <t>设计热榜，动态展示top K</t>
-  </si>
-  <si>
-    <t>N个线程交替打印，怎么实现</t>
-  </si>
-  <si>
-    <t>上亿主数据，有什么好的设计方案；</t>
-  </si>
-  <si>
-    <t>从系统层面考虑，分布式从哪些纬度考虑？</t>
-  </si>
-  <si>
-    <t>A系统和B系统需要交互，A系统需要更新B系统的大量数据，但是更新失败了，有什么解决方法。</t>
-  </si>
-  <si>
-    <t>设计一个系统，每天有100亿条数据，需要在后台做实时展示和查找</t>
-  </si>
-  <si>
-    <t>如果现在有一台服务器突然变得很慢，怎么去定位问题？</t>
-  </si>
-  <si>
-    <t>秒杀系统的架构设计</t>
-  </si>
-  <si>
-    <t>对于大表的常见优化手段说一下？</t>
-  </si>
-  <si>
-    <t>client调用A服务，A服务依赖于B服务，在不知道B是否高可用的情况下，怎么保证A的高可用？</t>
-  </si>
-  <si>
-    <t>假设有 10-100 万的词条。每天定时更新。要求系统高可用，更新完成时间尽量快。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">假设客户端有一个大文件与服务端同步。已知文件中某处被修改，请设计一个算法更新被修改的部分。 </t>
-  </si>
-  <si>
-    <t>设计一个定时触发的生产者消费者</t>
-  </si>
-  <si>
-    <t>给定 log 日志，每行代表用户进入的开始时间和离开时间。统计当天最高的同时在线人数。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每天 100 万微博的存储系统设计 </t>
-  </si>
-  <si>
-    <t>准备一批文本，收集用户的录音。用户获取待读文本，然后提交。要求每个文本只能被读一次，以及统计每个用户读了多少条。</t>
-  </si>
-  <si>
-    <t>假设数据库分散在全国国内，如何处理请求分布到不同地点的数据库中</t>
-  </si>
-  <si>
-    <t>假设在北京下订单，但是跑到广州还款，如果就近原则的话， 连的数据库就不一样了，怎么处理？</t>
-  </si>
-  <si>
-    <t>能不能用一个策略，某个用户的数据指定到一个库去执行</t>
-  </si>
-  <si>
-    <t xml:space="preserve">假设客户端断开连接，服务器不停发数据不断开，这是允许的吗 </t>
-  </si>
-  <si>
-    <t>付款过程中的一致性怎么保证的？</t>
-  </si>
-  <si>
-    <t>如何设计 HTTP 长连接</t>
-  </si>
-  <si>
-    <t>并发更新同一条记录如何解决事务死锁？</t>
-  </si>
-  <si>
-    <t>支付没有通知会怎么处理？</t>
-  </si>
-  <si>
-    <t>如何实现一个分布式的栈</t>
-  </si>
-  <si>
-    <t>订单的数据/付款过程一致性如何实现的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链路追踪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySQL 如何平滑扩展/平滑迁库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Other</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsafe 方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100W 的数据，需要定时更新，失败需要重试，需要尽快执行完成。现在机器数量不固定，如何用最少的代码实现</t>
-  </si>
-  <si>
-    <t>一个任务在平时只需要 5 个线程就可以处理好，忙的时候需要 100 个线程才能处理完成， 如何设计才能合理利用资源？</t>
-  </si>
-  <si>
-    <t>有一个 HTTP 请求，现在返回值和原来不一致，影响了业务，如何排查？</t>
-  </si>
-  <si>
-    <t>一致性hash 算法的原理？如果有数据倾斜怎么解决？带有虚拟节点的一致性 hash</t>
-  </si>
-  <si>
-    <t>中台券的设计</t>
-  </si>
-  <si>
-    <t>如何削峰</t>
-  </si>
-  <si>
-    <t>如何监控券超发</t>
-  </si>
-  <si>
-    <t>大并发场景下的最终一致性解决方案</t>
-  </si>
-  <si>
-    <t>同时给10万个人发工资，怎么样设计并发方案，能确保在1分钟内全部发完。打个比方会提出类似的场景。</t>
-  </si>
-  <si>
-    <t>有n个客户接入，如何固定等概率分配10个机器人客服中的三个机器人，不能使用额外的内存空间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1608,6 +1609,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1627,7 +1696,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1912,13 +1981,13 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="32.6640625" style="1" customWidth="1"/>
+    <col min="1" max="7" width="32.625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1941,7 +2010,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -1964,7 +2033,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -1987,7 +2056,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,7 +2073,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -2018,7 +2087,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -2032,7 +2101,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -2046,7 +2115,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
@@ -2060,7 +2129,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -2074,7 +2143,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -2088,7 +2157,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>84</v>
       </c>
@@ -2102,7 +2171,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>87</v>
       </c>
@@ -2116,7 +2185,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>91</v>
       </c>
@@ -2127,7 +2196,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>92</v>
       </c>
@@ -2138,7 +2207,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>95</v>
       </c>
@@ -2146,7 +2215,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>96</v>
       </c>
@@ -2154,7 +2223,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>100</v>
       </c>
@@ -2162,7 +2231,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
@@ -2170,7 +2239,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>119</v>
       </c>
@@ -2178,27 +2247,27 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>126</v>
       </c>
@@ -2218,22 +2287,22 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" s="13" t="s">
         <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2246,24 +2315,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="11"/>
+    <col min="1" max="1" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.625" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>168</v>
       </c>
@@ -2274,7 +2343,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="7" t="s">
         <v>50</v>
@@ -2283,7 +2352,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="7" t="s">
         <v>84</v>
@@ -2292,7 +2361,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>87</v>
       </c>
@@ -2300,7 +2369,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
         <v>119</v>
       </c>
@@ -2308,7 +2377,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>44</v>
@@ -2317,17 +2386,17 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>185</v>
@@ -2336,7 +2405,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>186</v>
@@ -2345,7 +2414,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>189</v>
@@ -2354,15 +2423,15 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>188</v>
@@ -2371,7 +2440,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>190</v>
@@ -2380,7 +2449,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
         <v>191</v>
@@ -2389,7 +2458,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
         <v>204</v>
@@ -2398,7 +2467,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
         <v>207</v>
@@ -2407,11 +2476,11 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>170</v>
       </c>
@@ -2422,7 +2491,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
         <v>225</v>
@@ -2431,7 +2500,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>171</v>
       </c>
@@ -2439,13 +2508,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="7" t="s">
         <v>199</v>
@@ -2454,7 +2523,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>175</v>
       </c>
@@ -2465,7 +2534,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
         <v>192</v>
@@ -2474,7 +2543,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
         <v>228</v>
@@ -2483,7 +2552,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
         <v>193</v>
@@ -2492,7 +2561,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
         <v>200</v>
@@ -2501,7 +2570,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
         <v>201</v>
@@ -2510,15 +2579,15 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="7"/>
     </row>
-    <row r="34" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="6" t="s">
         <v>206</v>
@@ -2527,19 +2596,19 @@
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>173</v>
       </c>
@@ -2550,11 +2619,11 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>172</v>
       </c>
@@ -2565,7 +2634,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="6" t="s">
         <v>203</v>
@@ -2574,7 +2643,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>167</v>
       </c>
@@ -2582,10 +2651,10 @@
         <v>205</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>174</v>
       </c>
@@ -2596,7 +2665,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="7" t="s">
         <v>120</v>
@@ -2605,7 +2674,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>240</v>
       </c>
@@ -2616,7 +2685,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="6" t="s">
         <v>194</v>
@@ -2625,19 +2694,19 @@
         <v>238</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B48" s="6"/>
     </row>
-    <row r="49" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>242</v>
       </c>
@@ -2648,35 +2717,35 @@
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B50" s="6"/>
     </row>
-    <row r="51" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B51" s="6"/>
     </row>
-    <row r="52" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="9"/>
       <c r="B52" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="9"/>
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
         <v>179</v>
       </c>
       <c r="B54" s="6"/>
     </row>
-    <row r="55" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
         <v>180</v>
       </c>
@@ -2687,16 +2756,16 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="7" t="s">
         <v>202</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="6" t="s">
         <v>246</v>
@@ -2705,11 +2774,11 @@
         <v>247</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="7"/>
     </row>
-    <row r="59" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
         <v>181</v>
       </c>
@@ -2717,7 +2786,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="7" t="s">
         <v>196</v>
@@ -2726,7 +2795,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="7" t="s">
         <v>91</v>
@@ -2735,7 +2804,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="7" t="s">
         <v>197</v>
@@ -2744,7 +2813,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
         <v>182</v>
       </c>
@@ -2752,52 +2821,52 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="9"/>
       <c r="B64" s="6"/>
     </row>
-    <row r="65" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B65" s="6"/>
     </row>
-    <row r="66" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="6"/>
     </row>
-    <row r="68" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="6"/>
     </row>
-    <row r="69" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="9"/>
       <c r="B69" s="6"/>
     </row>
-    <row r="70" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="1"/>
     </row>
-    <row r="85" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="1"/>
     </row>
   </sheetData>
@@ -2811,11 +2880,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2831,7 +2900,7 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2843,135 +2912,135 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="56.109375" customWidth="1"/>
+    <col min="1" max="1" width="56.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -2987,28 +3056,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="68.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="13" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" s="13" t="s">
         <v>127</v>
       </c>
@@ -3022,434 +3091,434 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="13" t="s">
         <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="13" t="s">
         <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" s="13" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" s="13" t="s">
         <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="C13" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="13" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="13" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="C15" t="s">
         <v>339</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="13" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="C16" t="s">
         <v>341</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="13" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="13" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="14" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="13" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B22" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="13" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="13" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>255</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B28" s="12"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B53" s="13" t="s">
         <v>165</v>
       </c>
       <c r="C53" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B54" s="13" t="s">
         <v>164</v>
       </c>
       <c r="C54" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B55" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C55" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B56" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C56" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="C56" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B57" s="13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B58" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B59" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B66" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B67" s="13" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="13" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B68" s="13" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="13" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B69" s="13" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="13" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B70" s="13" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="13" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B71" s="13" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="13" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B72" s="13" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B74" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B75" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B76" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B77" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B78" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B79" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B87" s="13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B88" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B89" s="13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B90" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B91" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B92" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B93" s="13" t="s">
         <v>129</v>
       </c>
@@ -3457,7 +3526,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
         <v>20</v>
       </c>
@@ -3465,17 +3534,17 @@
         <v>162</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
         <v>253</v>
       </c>
@@ -3494,248 +3563,248 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="123.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -3753,274 +3822,274 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="89.109375" customWidth="1"/>
+    <col min="1" max="1" width="89.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -4038,25 +4107,25 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/牛客面试题.xlsx
+++ b/牛客面试题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11265" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="11268" windowHeight="8016" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA" sheetId="3" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="REDIS" sheetId="4" r:id="rId8"/>
     <sheet name="SPRING" sheetId="5" r:id="rId9"/>
     <sheet name="Mybatis" sheetId="7" r:id="rId10"/>
+    <sheet name="Flink" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="414">
   <si>
     <t>group by 可以建立索引么</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1449,6 +1450,58 @@
   </si>
   <si>
     <t>MySQL索引的设计方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flink如何实现精准一次的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flink的反压机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flink与storm、Spark Streaming对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flink的Checkpoint原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flink部署方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flink的Checkpoint与savepoint之间区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flink状态编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flink pipeline间算子并行度设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flink消费kafka分区时与任务并行度间关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费kafka数据使用flink-client还是flink-connector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spark与flink的容错机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flink几种时间语义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flink watermark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1609,74 +1662,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1696,7 +1681,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1981,13 +1966,13 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="32.625" style="1" customWidth="1"/>
+    <col min="1" max="7" width="32.6640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -2010,7 +1995,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -2033,7 +2018,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -2056,7 +2041,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -2073,7 +2058,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -2087,7 +2072,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -2101,7 +2086,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -2115,7 +2100,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
@@ -2129,7 +2114,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -2143,7 +2128,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -2157,7 +2142,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>84</v>
       </c>
@@ -2171,7 +2156,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>87</v>
       </c>
@@ -2185,7 +2170,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>91</v>
       </c>
@@ -2196,7 +2181,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>92</v>
       </c>
@@ -2207,7 +2192,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>95</v>
       </c>
@@ -2215,7 +2200,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>96</v>
       </c>
@@ -2223,7 +2208,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>100</v>
       </c>
@@ -2231,7 +2216,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
@@ -2239,7 +2224,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>119</v>
       </c>
@@ -2247,27 +2232,27 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>126</v>
       </c>
@@ -2287,17 +2272,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>118</v>
       </c>
@@ -2308,6 +2293,88 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2319,20 +2386,20 @@
       <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.625" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="11"/>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>168</v>
       </c>
@@ -2343,7 +2410,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="7" t="s">
         <v>50</v>
@@ -2352,7 +2419,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="7" t="s">
         <v>84</v>
@@ -2361,7 +2428,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>87</v>
       </c>
@@ -2369,7 +2436,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>119</v>
       </c>
@@ -2377,7 +2444,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>44</v>
@@ -2386,17 +2453,17 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>185</v>
@@ -2405,7 +2472,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>186</v>
@@ -2414,7 +2481,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>189</v>
@@ -2423,15 +2490,15 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>188</v>
@@ -2440,7 +2507,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>190</v>
@@ -2449,7 +2516,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
         <v>191</v>
@@ -2458,7 +2525,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
         <v>204</v>
@@ -2467,7 +2534,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
         <v>207</v>
@@ -2476,11 +2543,11 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>170</v>
       </c>
@@ -2491,7 +2558,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
         <v>225</v>
@@ -2500,7 +2567,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>171</v>
       </c>
@@ -2508,13 +2575,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="7" t="s">
         <v>199</v>
@@ -2523,7 +2590,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>175</v>
       </c>
@@ -2534,7 +2601,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
         <v>192</v>
@@ -2543,7 +2610,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
         <v>228</v>
@@ -2552,7 +2619,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
         <v>193</v>
@@ -2561,7 +2628,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
         <v>200</v>
@@ -2570,7 +2637,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
         <v>201</v>
@@ -2579,15 +2646,15 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="7"/>
     </row>
-    <row r="34" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="6" t="s">
         <v>206</v>
@@ -2596,19 +2663,19 @@
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>173</v>
       </c>
@@ -2619,11 +2686,11 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>172</v>
       </c>
@@ -2634,7 +2701,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="6" t="s">
         <v>203</v>
@@ -2643,7 +2710,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>167</v>
       </c>
@@ -2654,7 +2721,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>174</v>
       </c>
@@ -2665,7 +2732,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="7" t="s">
         <v>120</v>
@@ -2674,7 +2741,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>240</v>
       </c>
@@ -2685,7 +2752,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="6" t="s">
         <v>194</v>
@@ -2694,19 +2761,19 @@
         <v>238</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B48" s="6"/>
     </row>
-    <row r="49" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>242</v>
       </c>
@@ -2717,35 +2784,35 @@
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B50" s="6"/>
     </row>
-    <row r="51" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B51" s="6"/>
     </row>
-    <row r="52" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>179</v>
       </c>
       <c r="B54" s="6"/>
     </row>
-    <row r="55" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>180</v>
       </c>
@@ -2756,7 +2823,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="7" t="s">
         <v>202</v>
@@ -2765,7 +2832,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="6" t="s">
         <v>246</v>
@@ -2774,11 +2841,11 @@
         <v>247</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="7"/>
     </row>
-    <row r="59" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>181</v>
       </c>
@@ -2786,7 +2853,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="7" t="s">
         <v>196</v>
@@ -2795,7 +2862,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="7" t="s">
         <v>91</v>
@@ -2804,7 +2871,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="7" t="s">
         <v>197</v>
@@ -2813,7 +2880,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>182</v>
       </c>
@@ -2821,35 +2888,35 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="6"/>
     </row>
-    <row r="65" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B65" s="6"/>
     </row>
-    <row r="66" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="6"/>
     </row>
-    <row r="68" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="6"/>
     </row>
-    <row r="69" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="6"/>
     </row>
-    <row r="70" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>388</v>
       </c>
@@ -2857,16 +2924,16 @@
         <v>389</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
     </row>
-    <row r="85" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
     </row>
   </sheetData>
@@ -2884,7 +2951,7 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2900,7 +2967,7 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2915,132 +2982,132 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.125" customWidth="1"/>
+    <col min="1" max="1" width="56.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -3056,28 +3123,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="68.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>306</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>127</v>
       </c>
@@ -3091,7 +3158,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>160</v>
       </c>
@@ -3099,7 +3166,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>5</v>
       </c>
@@ -3107,7 +3174,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
@@ -3115,7 +3182,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
@@ -3123,7 +3190,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>110</v>
       </c>
@@ -3131,17 +3198,17 @@
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>125</v>
       </c>
@@ -3149,7 +3216,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>304</v>
       </c>
@@ -3157,7 +3224,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>334</v>
       </c>
@@ -3165,12 +3232,12 @@
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>338</v>
       </c>
@@ -3178,7 +3245,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>340</v>
       </c>
@@ -3186,53 +3253,53 @@
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>255</v>
       </c>
@@ -3240,78 +3307,78 @@
         <v>345</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" s="13" t="s">
         <v>165</v>
       </c>
@@ -3319,7 +3386,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" s="13" t="s">
         <v>164</v>
       </c>
@@ -3327,7 +3394,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" s="13" t="s">
         <v>4</v>
       </c>
@@ -3335,7 +3402,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="13" t="s">
         <v>350</v>
       </c>
@@ -3343,182 +3410,182 @@
         <v>349</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" s="13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" s="13" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" s="13" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B71" s="13" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" s="13" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B74" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B75" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B76" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B77" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B78" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B79" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B87" s="13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B88" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B89" s="13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B90" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B91" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B92" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B93" s="13" t="s">
         <v>129</v>
       </c>
@@ -3526,7 +3593,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>20</v>
       </c>
@@ -3534,17 +3601,17 @@
         <v>162</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>253</v>
       </c>
@@ -3567,242 +3634,242 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="123.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>399</v>
       </c>
@@ -3822,272 +3889,272 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.125" customWidth="1"/>
+    <col min="1" max="1" width="89.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>303</v>
       </c>
@@ -4107,12 +4174,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>107</v>
       </c>
@@ -4120,7 +4187,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>108</v>
       </c>

--- a/牛客面试题.xlsx
+++ b/牛客面试题.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="445">
   <si>
     <t>group by 可以建立索引么</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1502,6 +1502,115 @@
   </si>
   <si>
     <t>flink watermark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">100亿数据全排序，怎么排？ </t>
+  </si>
+  <si>
+    <t>Flink消费kafka数据时，如果kafka充分区，Fiink会不会受到影响</t>
+  </si>
+  <si>
+    <t>Flink挂掉之后重新启动会做什么</t>
+  </si>
+  <si>
+    <t>flink任务提交过程</t>
+  </si>
+  <si>
+    <t>flink底层window的实现</t>
+  </si>
+  <si>
+    <t>flink有个未合并的开发列表，建议我跟进一下合并到自己的本地试试。</t>
+  </si>
+  <si>
+    <t>flink的timestamp、窗口计算和状态管理以及一致性语义实现原理</t>
+  </si>
+  <si>
+    <t>dau的计算，我说使用kafka+flink做窗口运算，然后使用bitmap或者布隆过滤器去重，然后问我布隆过滤器的原理，我说不知道，但是阐述了基本的特性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个线上服务器cpu过载怎么排查</t>
+  </si>
+  <si>
+    <t>Flink的窗口了解哪些，都有什么区别，有哪几种时间？如何定义？watermark需要实现哪个实现类，在何处定义？</t>
+  </si>
+  <si>
+    <t>Flink的CEP了解吗？Checkpoint底层如何实现的？savepoint和checkpoint有什么区别？有哪些实现类可以用来保存中间计算结果？分别有什么区别？</t>
+  </si>
+  <si>
+    <t>Flink有没有遇到过OOM？如何排查？</t>
+  </si>
+  <si>
+    <t>flink的任务调度过程？如何处理乱序数据？水印怎么定义怎么实现？最终迟到的数据要怎么处理？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100万条数据，内存很小只有1.5MB，要排序怎么办？能使用哪些排序方法？用哪种好？ </t>
+  </si>
+  <si>
+    <t>如何查询IP地址是否在国内网段</t>
+  </si>
+  <si>
+    <t>事件发生事件event time；进入Flink事件ingestion time；每个算子处理时间processing time；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API分层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL-Table API-DataStream API（streams、window）-ProcessFunction（events、state、time）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datadriven      实时风控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">datapipeline    实时数仓    阿里实时构建索引（淘宝商品搜索）   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analytic        实时报表实时大屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态容错：阶段性的状态快照及对应事件位置日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>状态是计算过程中的数据信息，在容错恢复和Checkpoint中有重要作用，流计算的本质是增量处理，因此需要不断查询保持状态；另外，为确保精确一次语义，需要数据能够写入到状态中；而持久化存储能保证在分布式系统失败或宕机情况下坐到精准一次，这是状态的另一个价值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flink具备统一的有界无界数据处理能力、相对storm将状态语义完全抽象到框架中，支持本地状态读取，避免大量网络IO、引入event time支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint是增量做，每次时间短、数据量小，自动触发，无需用户感知。Checkpoint在作业故障时自动调用无需用户指定；savepoint全量做，每次时间长、数据量大，用户主动触发。一般用于程序班恩更新、BUG修复、AB测试等场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Window基于时间，Count Window基于数据。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用window实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tumbling window（窗口间元素无重复），sliding window（窗口间元素可能重复），global window。自定义数据分发策略集成实现WindowAssigner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2298,77 +2407,196 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B13"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="144.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="15" spans="2:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C15" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>430</v>
+      </c>
+      <c r="C26" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>437</v>
+      </c>
+      <c r="B30" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>441</v>
+      </c>
+      <c r="B31" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>443</v>
+      </c>
+      <c r="B32" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -3628,10 +3856,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B47"/>
+  <dimension ref="B1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3872,6 +4100,31 @@
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>399</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/牛客面试题.xlsx
+++ b/牛客面试题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="11268" windowHeight="8016" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="11268" windowHeight="8016" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA" sheetId="3" r:id="rId1"/>
@@ -1453,10 +1453,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Flink如何实现精准一次的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Flink的反压机制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1611,6 +1607,10 @@
   </si>
   <si>
     <t>tumbling window（窗口间元素无重复），sliding window（窗口间元素可能重复），global window。自定义数据分发策略集成实现WindowAssigner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flink如何实现精准一次的 exactly once</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2409,7 +2409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2422,181 +2422,181 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="C1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>429</v>
+      </c>
+      <c r="C26" t="s">
         <v>430</v>
-      </c>
-      <c r="C26" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>436</v>
+      </c>
+      <c r="B30" t="s">
         <v>437</v>
-      </c>
-      <c r="B30" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>440</v>
+      </c>
+      <c r="B31" t="s">
         <v>441</v>
-      </c>
-      <c r="B31" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>442</v>
+      </c>
+      <c r="B32" t="s">
         <v>443</v>
-      </c>
-      <c r="B32" t="s">
-        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -4104,27 +4104,27 @@
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -4423,7 +4423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/牛客面试题.xlsx
+++ b/牛客面试题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="11268" windowHeight="8016" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="11268" windowHeight="8016" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA" sheetId="3" r:id="rId1"/>
@@ -20,11 +20,12 @@
     <sheet name="Flink" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="447">
   <si>
     <t>group by 可以建立索引么</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1612,6 +1613,12 @@
   <si>
     <t>Flink如何实现精准一次的 exactly once</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.quora.com/What-are-the-differences-between-Apache-Spark-and-Apache-Flink</t>
+  </si>
+  <si>
+    <t>https://data-flair.training/blogs/comparison-apache-flink-vs-apache-spark/</t>
   </si>
 </sst>
 </file>
@@ -2407,20 +2414,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="144.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.44140625" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>444</v>
       </c>
@@ -2428,35 +2435,41 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>402</v>
       </c>
       <c r="C3" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>405</v>
       </c>
@@ -2464,42 +2477,42 @@
         <v>439</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>411</v>
       </c>
@@ -2507,7 +2520,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>412</v>
       </c>
@@ -4423,7 +4436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/牛客面试题.xlsx
+++ b/牛客面试题.xlsx
@@ -4,28 +4,28 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="11268" windowHeight="8016" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="11268" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA" sheetId="3" r:id="rId1"/>
     <sheet name="JVM" sheetId="6" r:id="rId2"/>
     <sheet name="JUC" sheetId="8" r:id="rId3"/>
-    <sheet name="NIO" sheetId="9" r:id="rId4"/>
-    <sheet name="网络" sheetId="2" r:id="rId5"/>
-    <sheet name="MYSQL" sheetId="1" r:id="rId6"/>
-    <sheet name="设计" sheetId="10" r:id="rId7"/>
-    <sheet name="REDIS" sheetId="4" r:id="rId8"/>
-    <sheet name="SPRING" sheetId="5" r:id="rId9"/>
-    <sheet name="Mybatis" sheetId="7" r:id="rId10"/>
-    <sheet name="Flink" sheetId="11" r:id="rId11"/>
+    <sheet name="Thread" sheetId="12" r:id="rId4"/>
+    <sheet name="NIO" sheetId="9" r:id="rId5"/>
+    <sheet name="网络" sheetId="2" r:id="rId6"/>
+    <sheet name="MYSQL" sheetId="1" r:id="rId7"/>
+    <sheet name="设计" sheetId="10" r:id="rId8"/>
+    <sheet name="REDIS" sheetId="4" r:id="rId9"/>
+    <sheet name="SPRING" sheetId="5" r:id="rId10"/>
+    <sheet name="Mybatis" sheetId="7" r:id="rId11"/>
+    <sheet name="Flink" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="558">
   <si>
     <t>group by 可以建立索引么</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1619,13 +1619,457 @@
   </si>
   <si>
     <t>https://data-flair.training/blogs/comparison-apache-flink-vs-apache-spark/</t>
+  </si>
+  <si>
+    <t>有多少种实现线程的方法？典型错误答案和正确答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现Runnable接口和继承Thread类哪种方式更好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个线程两次调用start()方法会出现什么情况？为什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既然start()会调用run()方法,为什么使用start()而不是run()？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何正确停止一个线程？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何处理不可中断的阻塞(例如抢锁时ReentrantLock.lock()或Socket IO时无法响应中断,那么怎么让该线程停止)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程有哪几种状态?生命周期是什么?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何用wait()实现两个线程交替打印0-100的奇偶数?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何用wait()实现生产者模式?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么wait()必须在同步代码块中使用?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么线程通信的方法wait(),notify()和notifyAll()被定义在Object类中?而sleep()定义在Thread类中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait()方法属于Object对象,那调用Thread.wait()会怎样?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何选择使用notify()还是notifyAll()?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notifyAll之后所有的线程都会再次抢夺锁,如果线程抢夺失败会怎样?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用suspend()和resume()来阻塞线程可以么?为什么?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait()/notify()、sleep()的异同(方法属于哪个对象?线程状态如何切换?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在join()期间,线程处于那种线程状态?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yield()和sleep()的区别?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护线程和普通线程的区别?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们是否需要将线程设置为守护线程?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么程序设计不应依赖于线程优先级?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲讲Java的异常体系?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际工作中,如何全局处理异常?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么异常需要全局处理?不处理行不行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run()方法是否可以跑出异常?如果跑出异常,线程的状态会怎样?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一共有哪几类线程安全问题?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪些场景需要额外注意线程安全问题?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么多线程会带来性能问题?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是多线程上下文切换?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java代码如何一步步转化,最终被CPU执行?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单例模式的作用和适用场景?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重排序的实例:单例模式多种写法、单例和高并发的关系?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饿汉式的缺点?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒汉式的缺点?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单例各种写法的适用场景?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么要用double-check?不使用就不安全么?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么双重检查模式要用volatile?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该如何选择,用哪种单例的实现方案最好?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲一讲什么是Java内存模型?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是happens-before?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Happens-before规则有哪些?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲讲volatile关键字?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volatile和synchronized的异同?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是内存可见性问题?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主内存和本地内存的关系?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是原子操作?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java中的原子操作有哪些?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long和double的原子性?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成对象的过程是不是原子操作?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产中什么场景会发生死锁?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死锁发生必须满足哪些条件?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用工具定位死锁?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有哪些解决死锁问题的策略?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲讲景丹的哲学家就餐问题?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际开发中如何避免死锁?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是活跃性问题?活锁、饥饿和死锁有什么区别?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1,3,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-6,7,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-1,2,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-3,6,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-9,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-13,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-1,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-9,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写一个必然死锁的例子?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-11,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-12,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-16,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-18,21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1671,6 +2115,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1752,7 +2211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1772,6 +2231,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2382,6 +2844,41 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2412,11 +2909,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2623,7 +3120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
@@ -3202,6 +3699,484 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="17"/>
+    <col min="2" max="2" width="57.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>502</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3215,7 +4190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -3360,7 +4335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E97"/>
   <sheetViews>
@@ -3867,7 +4842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B52"/>
   <sheetViews>
@@ -4147,7 +5122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A53"/>
   <sheetViews>
@@ -4430,39 +5405,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/牛客面试题.xlsx
+++ b/牛客面试题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="11268" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11265" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA" sheetId="3" r:id="rId1"/>
@@ -946,10 +946,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>强引用是普遍的引用复制，只要强引用关系存在，GC就永远不会回收被应用对象。软引用描述一些还有用但非必须的对象，当快内存溢出时回收此类对象。弱引用只能生存到下一次垃圾收集为止的对象。虚引用对象在被收集时收到一个系统通知。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二阶段提交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2062,6 +2058,10 @@
   </si>
   <si>
     <t>14-18,21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强引用是普遍的引用复制，只要强引用关系存在，GC就永远不会回收被引用对象。软引用描述一些还有用但非必须的对象，当快内存溢出时回收此类对象。弱引用只能生存到下一次垃圾收集为止的对象。虚引用对象在被收集时收到一个系统通知。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2240,6 +2240,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2259,7 +2327,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2544,13 +2612,13 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="32.6640625" style="1" customWidth="1"/>
+    <col min="1" max="7" width="32.625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -2573,7 +2641,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -2596,7 +2664,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -2619,7 +2687,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -2636,7 +2704,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -2650,7 +2718,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -2664,7 +2732,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -2678,7 +2746,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
@@ -2692,7 +2760,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -2706,7 +2774,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -2720,7 +2788,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>84</v>
       </c>
@@ -2734,7 +2802,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>87</v>
       </c>
@@ -2748,7 +2816,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>91</v>
       </c>
@@ -2759,7 +2827,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>92</v>
       </c>
@@ -2770,7 +2838,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>95</v>
       </c>
@@ -2778,7 +2846,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>96</v>
       </c>
@@ -2786,7 +2854,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>100</v>
       </c>
@@ -2794,7 +2862,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
@@ -2802,7 +2870,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>119</v>
       </c>
@@ -2810,27 +2878,27 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>126</v>
       </c>
@@ -2850,25 +2918,25 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2885,22 +2953,22 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" s="13" t="s">
         <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -2917,196 +2985,196 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.5" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D3" t="s">
         <v>444</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C3" t="s">
-        <v>438</v>
-      </c>
-      <c r="D3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>405</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>428</v>
+      </c>
+      <c r="C26" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>435</v>
+      </c>
+      <c r="B30" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>411</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>429</v>
-      </c>
-      <c r="C26" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>436</v>
-      </c>
-      <c r="B30" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>440</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>442</v>
-      </c>
-      <c r="B32" t="s">
-        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -3120,24 +3188,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="11"/>
+    <col min="1" max="1" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.625" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>168</v>
       </c>
@@ -3148,7 +3216,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="7" t="s">
         <v>50</v>
@@ -3157,7 +3225,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="7" t="s">
         <v>84</v>
@@ -3166,7 +3234,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>87</v>
       </c>
@@ -3174,7 +3242,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
         <v>119</v>
       </c>
@@ -3182,7 +3250,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>44</v>
@@ -3191,17 +3259,17 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>185</v>
@@ -3210,7 +3278,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>186</v>
@@ -3219,7 +3287,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>189</v>
@@ -3228,15 +3296,15 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>188</v>
@@ -3245,7 +3313,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>190</v>
@@ -3254,7 +3322,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
         <v>191</v>
@@ -3263,7 +3331,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
         <v>204</v>
@@ -3272,7 +3340,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
         <v>207</v>
@@ -3281,11 +3349,11 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>170</v>
       </c>
@@ -3296,7 +3364,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
         <v>225</v>
@@ -3305,7 +3373,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>171</v>
       </c>
@@ -3313,13 +3381,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="7" t="s">
         <v>199</v>
@@ -3328,7 +3396,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>175</v>
       </c>
@@ -3339,7 +3407,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
         <v>192</v>
@@ -3348,7 +3416,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
         <v>228</v>
@@ -3357,7 +3425,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
         <v>193</v>
@@ -3366,7 +3434,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
         <v>200</v>
@@ -3375,7 +3443,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
         <v>201</v>
@@ -3384,36 +3452,36 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="7"/>
     </row>
-    <row r="34" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="6" t="s">
         <v>206</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>173</v>
       </c>
@@ -3424,11 +3492,11 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>172</v>
       </c>
@@ -3439,7 +3507,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="6" t="s">
         <v>203</v>
@@ -3448,7 +3516,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>167</v>
       </c>
@@ -3456,10 +3524,10 @@
         <v>205</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>174</v>
       </c>
@@ -3470,7 +3538,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="7" t="s">
         <v>120</v>
@@ -3479,7 +3547,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>240</v>
       </c>
@@ -3490,7 +3558,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="6" t="s">
         <v>194</v>
@@ -3499,19 +3567,19 @@
         <v>238</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B48" s="6"/>
     </row>
-    <row r="49" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>242</v>
       </c>
@@ -3522,35 +3590,35 @@
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B50" s="6"/>
     </row>
-    <row r="51" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B51" s="6"/>
     </row>
-    <row r="52" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="9"/>
       <c r="B52" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="9"/>
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
         <v>179</v>
       </c>
       <c r="B54" s="6"/>
     </row>
-    <row r="55" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
         <v>180</v>
       </c>
@@ -3561,16 +3629,16 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="7" t="s">
         <v>202</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="6" t="s">
         <v>246</v>
@@ -3579,11 +3647,11 @@
         <v>247</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="7"/>
     </row>
-    <row r="59" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
         <v>181</v>
       </c>
@@ -3591,7 +3659,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="7" t="s">
         <v>196</v>
@@ -3600,7 +3668,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="7" t="s">
         <v>91</v>
@@ -3609,7 +3677,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="7" t="s">
         <v>197</v>
@@ -3618,7 +3686,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
         <v>182</v>
       </c>
@@ -3626,52 +3694,52 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="9"/>
       <c r="B64" s="6"/>
     </row>
-    <row r="65" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B65" s="6"/>
     </row>
-    <row r="66" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="6"/>
     </row>
-    <row r="68" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="6"/>
     </row>
-    <row r="69" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="9"/>
       <c r="B69" s="6"/>
     </row>
-    <row r="70" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="1"/>
     </row>
-    <row r="85" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="1"/>
     </row>
   </sheetData>
@@ -3689,7 +3757,7 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3701,471 +3769,471 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="17"/>
-    <col min="2" max="2" width="57.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="15"/>
+    <col min="1" max="1" width="8.875" style="17"/>
+    <col min="2" max="2" width="57.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B2" s="15" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
         <v>504</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B3" s="15" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B4" s="15" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B5" s="15" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B6" s="15" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="15" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B8" s="15" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B10" s="15" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="17" t="s">
         <v>513</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>512</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>512</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B16" s="15" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B17" s="15" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B19" s="15" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B20" s="15" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B21" s="15" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B22" s="15" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B23" s="15" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="17" t="s">
         <v>523</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B24" s="15" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B25" s="15" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B26" s="15" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="17" t="s">
         <v>526</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B27" s="15" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B28" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B29" s="15" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B30" s="15" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B31" s="15" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B32" s="16" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="17" t="s">
         <v>532</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B33" s="15" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>533</v>
-      </c>
-      <c r="B33" s="15" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>534</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>535</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="17" t="s">
         <v>536</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>532</v>
-      </c>
-      <c r="B37" s="15" t="s">
+      <c r="B38" s="15" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B39" s="15" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="17" t="s">
         <v>538</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B40" s="15" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="17" t="s">
         <v>539</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B41" s="15" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="17" t="s">
         <v>540</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B42" s="15" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="17" t="s">
         <v>541</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B43" s="15" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B44" s="15" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B45" s="15" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B46" s="15" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="17" t="s">
         <v>545</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B47" s="15" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B48" s="15" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="17" t="s">
         <v>547</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B49" s="15" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B50" s="15" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>549</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B52" s="15" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B53" s="15" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B54" s="15" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B55" s="15" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B56" s="15" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B57" s="15" t="s">
         <v>501</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
-        <v>557</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -4183,7 +4251,7 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4198,132 +4266,132 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="56.109375" customWidth="1"/>
+    <col min="1" max="1" width="56.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -4343,24 +4411,24 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="68.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" s="13" t="s">
         <v>127</v>
       </c>
@@ -4374,434 +4442,434 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="13" t="s">
         <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="13" t="s">
         <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" s="13" t="s">
         <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="C13" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="13" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="13" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="C15" t="s">
         <v>338</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="13" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="C16" t="s">
         <v>340</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="13" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="13" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="14" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="13" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B28" s="12"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>255</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B53" s="13" t="s">
         <v>165</v>
       </c>
       <c r="C53" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B54" s="13" t="s">
         <v>164</v>
       </c>
       <c r="C54" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B55" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C55" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B56" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C56" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C56" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B57" s="13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B58" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B59" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B66" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B67" s="13" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="13" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B68" s="13" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="13" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B69" s="13" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="13" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B70" s="13" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="13" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B71" s="13" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="13" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B72" s="13" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="13" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B74" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B75" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B76" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B77" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B78" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B79" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B87" s="13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B88" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B89" s="13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B90" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B91" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B92" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B93" s="13" t="s">
         <v>129</v>
       </c>
@@ -4809,7 +4877,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
         <v>20</v>
       </c>
@@ -4817,19 +4885,19 @@
         <v>162</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -4850,269 +4918,269 @@
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="123.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
         <v>426</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -5130,274 +5198,274 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="89.109375" customWidth="1"/>
+    <col min="1" max="1" width="89.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/牛客面试题.xlsx
+++ b/牛客面试题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11265" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="11270" windowHeight="8010" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="560">
   <si>
     <t>group by 可以建立索引么</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1300,768 +1300,784 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>id生成器怎么实现的，如何实现全局递增</t>
+  </si>
+  <si>
+    <t>熔断是怎么实现的</t>
+  </si>
+  <si>
+    <t>如果用户量上涨怎么优化</t>
+  </si>
+  <si>
+    <t>负载均衡的加权轮询算法怎么实现</t>
+  </si>
+  <si>
+    <t>分库分表，不借助中间件怎么实现</t>
+  </si>
+  <si>
+    <t>设计长短地址转换</t>
+  </si>
+  <si>
+    <t>设计热榜，动态展示top K</t>
+  </si>
+  <si>
+    <t>N个线程交替打印，怎么实现</t>
+  </si>
+  <si>
+    <t>上亿主数据，有什么好的设计方案；</t>
+  </si>
+  <si>
+    <t>从系统层面考虑，分布式从哪些纬度考虑？</t>
+  </si>
+  <si>
+    <t>A系统和B系统需要交互，A系统需要更新B系统的大量数据，但是更新失败了，有什么解决方法。</t>
+  </si>
+  <si>
+    <t>设计一个系统，每天有100亿条数据，需要在后台做实时展示和查找</t>
+  </si>
+  <si>
+    <t>如果现在有一台服务器突然变得很慢，怎么去定位问题？</t>
+  </si>
+  <si>
+    <t>秒杀系统的架构设计</t>
+  </si>
+  <si>
+    <t>对于大表的常见优化手段说一下？</t>
+  </si>
+  <si>
+    <t>client调用A服务，A服务依赖于B服务，在不知道B是否高可用的情况下，怎么保证A的高可用？</t>
+  </si>
+  <si>
+    <t>假设有 10-100 万的词条。每天定时更新。要求系统高可用，更新完成时间尽量快。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">假设客户端有一个大文件与服务端同步。已知文件中某处被修改，请设计一个算法更新被修改的部分。 </t>
+  </si>
+  <si>
+    <t>设计一个定时触发的生产者消费者</t>
+  </si>
+  <si>
+    <t>给定 log 日志，每行代表用户进入的开始时间和离开时间。统计当天最高的同时在线人数。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每天 100 万微博的存储系统设计 </t>
+  </si>
+  <si>
+    <t>准备一批文本，收集用户的录音。用户获取待读文本，然后提交。要求每个文本只能被读一次，以及统计每个用户读了多少条。</t>
+  </si>
+  <si>
+    <t>假设数据库分散在全国国内，如何处理请求分布到不同地点的数据库中</t>
+  </si>
+  <si>
+    <t>假设在北京下订单，但是跑到广州还款，如果就近原则的话， 连的数据库就不一样了，怎么处理？</t>
+  </si>
+  <si>
+    <t>能不能用一个策略，某个用户的数据指定到一个库去执行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">假设客户端断开连接，服务器不停发数据不断开，这是允许的吗 </t>
+  </si>
+  <si>
+    <t>付款过程中的一致性怎么保证的？</t>
+  </si>
+  <si>
+    <t>如何设计 HTTP 长连接</t>
+  </si>
+  <si>
+    <t>并发更新同一条记录如何解决事务死锁？</t>
+  </si>
+  <si>
+    <t>支付没有通知会怎么处理？</t>
+  </si>
+  <si>
+    <t>如何实现一个分布式的栈</t>
+  </si>
+  <si>
+    <t>订单的数据/付款过程一致性如何实现的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链路追踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL 如何平滑扩展/平滑迁库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsafe 方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100W 的数据，需要定时更新，失败需要重试，需要尽快执行完成。现在机器数量不固定，如何用最少的代码实现</t>
+  </si>
+  <si>
+    <t>一个任务在平时只需要 5 个线程就可以处理好，忙的时候需要 100 个线程才能处理完成， 如何设计才能合理利用资源？</t>
+  </si>
+  <si>
+    <t>有一个 HTTP 请求，现在返回值和原来不一致，影响了业务，如何排查？</t>
+  </si>
+  <si>
+    <t>一致性hash 算法的原理？如果有数据倾斜怎么解决？带有虚拟节点的一致性 hash</t>
+  </si>
+  <si>
+    <t>中台券的设计</t>
+  </si>
+  <si>
+    <t>如何削峰</t>
+  </si>
+  <si>
+    <t>如何监控券超发</t>
+  </si>
+  <si>
+    <t>大并发场景下的最终一致性解决方案</t>
+  </si>
+  <si>
+    <t>同时给10万个人发工资，怎么样设计并发方案，能确保在1分钟内全部发完。打个比方会提出类似的场景。</t>
+  </si>
+  <si>
+    <t>有n个客户接入，如何固定等概率分配10个机器人客服中的三个机器人，不能使用额外的内存空间。</t>
+  </si>
+  <si>
+    <t>MySQL索引的设计方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flink的反压机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flink与storm、Spark Streaming对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flink的Checkpoint原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flink部署方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flink的Checkpoint与savepoint之间区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flink状态编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flink pipeline间算子并行度设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flink消费kafka分区时与任务并行度间关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费kafka数据使用flink-client还是flink-connector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spark与flink的容错机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flink几种时间语义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flink watermark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">100亿数据全排序，怎么排？ </t>
+  </si>
+  <si>
+    <t>Flink消费kafka数据时，如果kafka充分区，Fiink会不会受到影响</t>
+  </si>
+  <si>
+    <t>Flink挂掉之后重新启动会做什么</t>
+  </si>
+  <si>
+    <t>flink任务提交过程</t>
+  </si>
+  <si>
+    <t>flink底层window的实现</t>
+  </si>
+  <si>
+    <t>flink有个未合并的开发列表，建议我跟进一下合并到自己的本地试试。</t>
+  </si>
+  <si>
+    <t>flink的timestamp、窗口计算和状态管理以及一致性语义实现原理</t>
+  </si>
+  <si>
+    <t>dau的计算，我说使用kafka+flink做窗口运算，然后使用bitmap或者布隆过滤器去重，然后问我布隆过滤器的原理，我说不知道，但是阐述了基本的特性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个线上服务器cpu过载怎么排查</t>
+  </si>
+  <si>
+    <t>Flink的窗口了解哪些，都有什么区别，有哪几种时间？如何定义？watermark需要实现哪个实现类，在何处定义？</t>
+  </si>
+  <si>
+    <t>Flink的CEP了解吗？Checkpoint底层如何实现的？savepoint和checkpoint有什么区别？有哪些实现类可以用来保存中间计算结果？分别有什么区别？</t>
+  </si>
+  <si>
+    <t>Flink有没有遇到过OOM？如何排查？</t>
+  </si>
+  <si>
+    <t>flink的任务调度过程？如何处理乱序数据？水印怎么定义怎么实现？最终迟到的数据要怎么处理？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100万条数据，内存很小只有1.5MB，要排序怎么办？能使用哪些排序方法？用哪种好？ </t>
+  </si>
+  <si>
+    <t>如何查询IP地址是否在国内网段</t>
+  </si>
+  <si>
+    <t>事件发生事件event time；进入Flink事件ingestion time；每个算子处理时间processing time；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API分层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL-Table API-DataStream API（streams、window）-ProcessFunction（events、state、time）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datadriven      实时风控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">datapipeline    实时数仓    阿里实时构建索引（淘宝商品搜索）   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analytic        实时报表实时大屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态容错：阶段性的状态快照及对应事件位置日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>状态是计算过程中的数据信息，在容错恢复和Checkpoint中有重要作用，流计算的本质是增量处理，因此需要不断查询保持状态；另外，为确保精确一次语义，需要数据能够写入到状态中；而持久化存储能保证在分布式系统失败或宕机情况下坐到精准一次，这是状态的另一个价值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flink具备统一的有界无界数据处理能力、相对storm将状态语义完全抽象到框架中，支持本地状态读取，避免大量网络IO、引入event time支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint是增量做，每次时间短、数据量小，自动触发，无需用户感知。Checkpoint在作业故障时自动调用无需用户指定；savepoint全量做，每次时间长、数据量大，用户主动触发。一般用于程序班恩更新、BUG修复、AB测试等场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Window基于时间，Count Window基于数据。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用window实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tumbling window（窗口间元素无重复），sliding window（窗口间元素可能重复），global window。自定义数据分发策略集成实现WindowAssigner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flink如何实现精准一次的 exactly once</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.quora.com/What-are-the-differences-between-Apache-Spark-and-Apache-Flink</t>
+  </si>
+  <si>
+    <t>https://data-flair.training/blogs/comparison-apache-flink-vs-apache-spark/</t>
+  </si>
+  <si>
+    <t>有多少种实现线程的方法？典型错误答案和正确答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现Runnable接口和继承Thread类哪种方式更好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个线程两次调用start()方法会出现什么情况？为什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既然start()会调用run()方法,为什么使用start()而不是run()？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何正确停止一个线程？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何处理不可中断的阻塞(例如抢锁时ReentrantLock.lock()或Socket IO时无法响应中断,那么怎么让该线程停止)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程有哪几种状态?生命周期是什么?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何用wait()实现两个线程交替打印0-100的奇偶数?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何用wait()实现生产者模式?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么wait()必须在同步代码块中使用?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么线程通信的方法wait(),notify()和notifyAll()被定义在Object类中?而sleep()定义在Thread类中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait()方法属于Object对象,那调用Thread.wait()会怎样?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何选择使用notify()还是notifyAll()?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notifyAll之后所有的线程都会再次抢夺锁,如果线程抢夺失败会怎样?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用suspend()和resume()来阻塞线程可以么?为什么?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait()/notify()、sleep()的异同(方法属于哪个对象?线程状态如何切换?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在join()期间,线程处于那种线程状态?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yield()和sleep()的区别?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护线程和普通线程的区别?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们是否需要将线程设置为守护线程?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么程序设计不应依赖于线程优先级?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲讲Java的异常体系?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际工作中,如何全局处理异常?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么异常需要全局处理?不处理行不行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run()方法是否可以跑出异常?如果跑出异常,线程的状态会怎样?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一共有哪几类线程安全问题?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪些场景需要额外注意线程安全问题?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么多线程会带来性能问题?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是多线程上下文切换?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java代码如何一步步转化,最终被CPU执行?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单例模式的作用和适用场景?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重排序的实例:单例模式多种写法、单例和高并发的关系?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饿汉式的缺点?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒汉式的缺点?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单例各种写法的适用场景?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么要用double-check?不使用就不安全么?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么双重检查模式要用volatile?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该如何选择,用哪种单例的实现方案最好?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲一讲什么是Java内存模型?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是happens-before?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Happens-before规则有哪些?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲讲volatile关键字?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volatile和synchronized的异同?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是内存可见性问题?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主内存和本地内存的关系?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是原子操作?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java中的原子操作有哪些?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long和double的原子性?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成对象的过程是不是原子操作?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产中什么场景会发生死锁?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死锁发生必须满足哪些条件?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何使用工具定位死锁?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有哪些解决死锁问题的策略?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲讲景丹的哲学家就餐问题?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际开发中如何避免死锁?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是活跃性问题?活锁、饥饿和死锁有什么区别?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1,3,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-6,7,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-1,2,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-3,6,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-9,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-13,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-1,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-9,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写一个必然死锁的例子?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-11,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-12,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-16,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-18,21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强引用是普遍的引用复制，只要强引用关系存在，GC就永远不会回收被引用对象。软引用描述一些还有用但非必须的对象，当快内存溢出时回收此类对象。弱引用只能生存到下一次垃圾收集为止的对象。虚引用对象在被收集时收到一个系统通知。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>服务发现是怎么实现的</t>
-  </si>
-  <si>
-    <t>id生成器怎么实现的，如何实现全局递增</t>
-  </si>
-  <si>
-    <t>熔断是怎么实现的</t>
-  </si>
-  <si>
-    <t>如果用户量上涨怎么优化</t>
-  </si>
-  <si>
-    <t>负载均衡的加权轮询算法怎么实现</t>
-  </si>
-  <si>
-    <t>分库分表，不借助中间件怎么实现</t>
-  </si>
-  <si>
-    <t>设计长短地址转换</t>
-  </si>
-  <si>
-    <t>设计热榜，动态展示top K</t>
-  </si>
-  <si>
-    <t>N个线程交替打印，怎么实现</t>
-  </si>
-  <si>
-    <t>上亿主数据，有什么好的设计方案；</t>
-  </si>
-  <si>
-    <t>从系统层面考虑，分布式从哪些纬度考虑？</t>
-  </si>
-  <si>
-    <t>A系统和B系统需要交互，A系统需要更新B系统的大量数据，但是更新失败了，有什么解决方法。</t>
-  </si>
-  <si>
-    <t>设计一个系统，每天有100亿条数据，需要在后台做实时展示和查找</t>
-  </si>
-  <si>
-    <t>如果现在有一台服务器突然变得很慢，怎么去定位问题？</t>
-  </si>
-  <si>
-    <t>秒杀系统的架构设计</t>
-  </si>
-  <si>
-    <t>对于大表的常见优化手段说一下？</t>
-  </si>
-  <si>
-    <t>client调用A服务，A服务依赖于B服务，在不知道B是否高可用的情况下，怎么保证A的高可用？</t>
-  </si>
-  <si>
-    <t>假设有 10-100 万的词条。每天定时更新。要求系统高可用，更新完成时间尽量快。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">假设客户端有一个大文件与服务端同步。已知文件中某处被修改，请设计一个算法更新被修改的部分。 </t>
-  </si>
-  <si>
-    <t>设计一个定时触发的生产者消费者</t>
-  </si>
-  <si>
-    <t>给定 log 日志，每行代表用户进入的开始时间和离开时间。统计当天最高的同时在线人数。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每天 100 万微博的存储系统设计 </t>
-  </si>
-  <si>
-    <t>准备一批文本，收集用户的录音。用户获取待读文本，然后提交。要求每个文本只能被读一次，以及统计每个用户读了多少条。</t>
-  </si>
-  <si>
-    <t>假设数据库分散在全国国内，如何处理请求分布到不同地点的数据库中</t>
-  </si>
-  <si>
-    <t>假设在北京下订单，但是跑到广州还款，如果就近原则的话， 连的数据库就不一样了，怎么处理？</t>
-  </si>
-  <si>
-    <t>能不能用一个策略，某个用户的数据指定到一个库去执行</t>
-  </si>
-  <si>
-    <t xml:space="preserve">假设客户端断开连接，服务器不停发数据不断开，这是允许的吗 </t>
-  </si>
-  <si>
-    <t>付款过程中的一致性怎么保证的？</t>
-  </si>
-  <si>
-    <t>如何设计 HTTP 长连接</t>
-  </si>
-  <si>
-    <t>并发更新同一条记录如何解决事务死锁？</t>
-  </si>
-  <si>
-    <t>支付没有通知会怎么处理？</t>
-  </si>
-  <si>
-    <t>如何实现一个分布式的栈</t>
-  </si>
-  <si>
-    <t>订单的数据/付款过程一致性如何实现的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链路追踪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySQL 如何平滑扩展/平滑迁库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Other</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsafe 方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100W 的数据，需要定时更新，失败需要重试，需要尽快执行完成。现在机器数量不固定，如何用最少的代码实现</t>
-  </si>
-  <si>
-    <t>一个任务在平时只需要 5 个线程就可以处理好，忙的时候需要 100 个线程才能处理完成， 如何设计才能合理利用资源？</t>
-  </si>
-  <si>
-    <t>有一个 HTTP 请求，现在返回值和原来不一致，影响了业务，如何排查？</t>
-  </si>
-  <si>
-    <t>一致性hash 算法的原理？如果有数据倾斜怎么解决？带有虚拟节点的一致性 hash</t>
-  </si>
-  <si>
-    <t>中台券的设计</t>
-  </si>
-  <si>
-    <t>如何削峰</t>
-  </si>
-  <si>
-    <t>如何监控券超发</t>
-  </si>
-  <si>
-    <t>大并发场景下的最终一致性解决方案</t>
-  </si>
-  <si>
-    <t>同时给10万个人发工资，怎么样设计并发方案，能确保在1分钟内全部发完。打个比方会提出类似的场景。</t>
-  </si>
-  <si>
-    <t>有n个客户接入，如何固定等概率分配10个机器人客服中的三个机器人，不能使用额外的内存空间。</t>
-  </si>
-  <si>
-    <t>MySQL索引的设计方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flink的反压机制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flink与storm、Spark Streaming对比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flink的Checkpoint原理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flink部署方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flink的Checkpoint与savepoint之间区别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flink状态编程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flink pipeline间算子并行度设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flink消费kafka分区时与任务并行度间关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费kafka数据使用flink-client还是flink-connector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spark与flink的容错机制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flink几种时间语义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flink watermark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">100亿数据全排序，怎么排？ </t>
-  </si>
-  <si>
-    <t>Flink消费kafka数据时，如果kafka充分区，Fiink会不会受到影响</t>
-  </si>
-  <si>
-    <t>Flink挂掉之后重新启动会做什么</t>
-  </si>
-  <si>
-    <t>flink任务提交过程</t>
-  </si>
-  <si>
-    <t>flink底层window的实现</t>
-  </si>
-  <si>
-    <t>flink有个未合并的开发列表，建议我跟进一下合并到自己的本地试试。</t>
-  </si>
-  <si>
-    <t>flink的timestamp、窗口计算和状态管理以及一致性语义实现原理</t>
-  </si>
-  <si>
-    <t>dau的计算，我说使用kafka+flink做窗口运算，然后使用bitmap或者布隆过滤器去重，然后问我布隆过滤器的原理，我说不知道，但是阐述了基本的特性。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个线上服务器cpu过载怎么排查</t>
-  </si>
-  <si>
-    <t>Flink的窗口了解哪些，都有什么区别，有哪几种时间？如何定义？watermark需要实现哪个实现类，在何处定义？</t>
-  </si>
-  <si>
-    <t>Flink的CEP了解吗？Checkpoint底层如何实现的？savepoint和checkpoint有什么区别？有哪些实现类可以用来保存中间计算结果？分别有什么区别？</t>
-  </si>
-  <si>
-    <t>Flink有没有遇到过OOM？如何排查？</t>
-  </si>
-  <si>
-    <t>flink的任务调度过程？如何处理乱序数据？水印怎么定义怎么实现？最终迟到的数据要怎么处理？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100万条数据，内存很小只有1.5MB，要排序怎么办？能使用哪些排序方法？用哪种好？ </t>
-  </si>
-  <si>
-    <t>如何查询IP地址是否在国内网段</t>
-  </si>
-  <si>
-    <t>事件发生事件event time；进入Flink事件ingestion time；每个算子处理时间processing time；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>API分层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL-Table API-DataStream API（streams、window）-ProcessFunction（events、state、time）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datadriven      实时风控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">datapipeline    实时数仓    阿里实时构建索引（淘宝商品搜索）   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>analytic        实时报表实时大屏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态容错：阶段性的状态快照及对应事件位置日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>概念</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>状态是计算过程中的数据信息，在容错恢复和Checkpoint中有重要作用，流计算的本质是增量处理，因此需要不断查询保持状态；另外，为确保精确一次语义，需要数据能够写入到状态中；而持久化存储能保证在分布式系统失败或宕机情况下坐到精准一次，这是状态的另一个价值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flink具备统一的有界无界数据处理能力、相对storm将状态语义完全抽象到框架中，支持本地状态读取，避免大量网络IO、引入event time支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkpoint是增量做，每次时间短、数据量小，自动触发，无需用户感知。Checkpoint在作业故障时自动调用无需用户指定；savepoint全量做，每次时间长、数据量大，用户主动触发。一般用于程序班恩更新、BUG修复、AB测试等场景。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>window</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Window基于时间，Count Window基于数据。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用window实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tumbling window（窗口间元素无重复），sliding window（窗口间元素可能重复），global window。自定义数据分发策略集成实现WindowAssigner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flink如何实现精准一次的 exactly once</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.quora.com/What-are-the-differences-between-Apache-Spark-and-Apache-Flink</t>
-  </si>
-  <si>
-    <t>https://data-flair.training/blogs/comparison-apache-flink-vs-apache-spark/</t>
-  </si>
-  <si>
-    <t>有多少种实现线程的方法？典型错误答案和正确答案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现Runnable接口和继承Thread类哪种方式更好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个线程两次调用start()方法会出现什么情况？为什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>既然start()会调用run()方法,为什么使用start()而不是run()？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何正确停止一个线程？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何处理不可中断的阻塞(例如抢锁时ReentrantLock.lock()或Socket IO时无法响应中断,那么怎么让该线程停止)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程有哪几种状态?生命周期是什么?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何用wait()实现两个线程交替打印0-100的奇偶数?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何用wait()实现生产者模式?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为什么wait()必须在同步代码块中使用?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为什么线程通信的方法wait(),notify()和notifyAll()被定义在Object类中?而sleep()定义在Thread类中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wait()方法属于Object对象,那调用Thread.wait()会怎样?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何选择使用notify()还是notifyAll()?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notifyAll之后所有的线程都会再次抢夺锁,如果线程抢夺失败会怎样?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用suspend()和resume()来阻塞线程可以么?为什么?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wait()/notify()、sleep()的异同(方法属于哪个对象?线程状态如何切换?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在join()期间,线程处于那种线程状态?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yield()和sleep()的区别?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护线程和普通线程的区别?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们是否需要将线程设置为守护线程?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为什么程序设计不应依赖于线程优先级?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讲讲Java的异常体系?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际工作中,如何全局处理异常?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为什么异常需要全局处理?不处理行不行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>run()方法是否可以跑出异常?如果跑出异常,线程的状态会怎样?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一共有哪几类线程安全问题?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哪些场景需要额外注意线程安全问题?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为什么多线程会带来性能问题?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么是多线程上下文切换?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java代码如何一步步转化,最终被CPU执行?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单例模式的作用和适用场景?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重排序的实例:单例模式多种写法、单例和高并发的关系?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饿汉式的缺点?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>懒汉式的缺点?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单例各种写法的适用场景?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为什么要用double-check?不使用就不安全么?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为什么双重检查模式要用volatile?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应该如何选择,用哪种单例的实现方案最好?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讲一讲什么是Java内存模型?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么是happens-before?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Happens-before规则有哪些?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讲讲volatile关键字?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volatile和synchronized的异同?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么是内存可见性问题?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主内存和本地内存的关系?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么是原子操作?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java中的原子操作有哪些?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long和double的原子性?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成对象的过程是不是原子操作?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产中什么场景会发生死锁?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死锁发生必须满足哪些条件?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何使用工具定位死锁?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有哪些解决死锁问题的策略?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讲讲景丹的哲学家就餐问题?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际开发中如何避免死锁?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么是活跃性问题?活锁、饥饿和死锁有什么区别?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-1,3,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-2,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-6,7,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-1,2,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-3,6,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13-9,13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13-13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13-13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13-13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13-13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-13,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13-1,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-9,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>写一个必然死锁的例子?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14-6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14-9,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14-11,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14-12,14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14-16,17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14-18,21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强引用是普遍的引用复制，只要强引用关系存在，GC就永远不会回收被引用对象。软引用描述一些还有用但非必须的对象，当快内存溢出时回收此类对象。弱引用只能生存到下一次垃圾收集为止的对象。虚引用对象在被收集时收到一个系统通知。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nginx.com/blog/service-discovery-in-a-microservices-architecture/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">服务发现是什么？
+服务发现可以自动定位一个网络，不需要大量配置工作。且提供的服务可动态变更，静态配置服务无法动态变更。服务发现允许网络互联的设备或服务在无手动干预的情况下连接。
+有两类的服务发现：服务端服务发现、客户端服务发现。服务端服务发现允许客户端应用通过路由器或平衡中介发现服务，服务端/中介负责查找过程。客户端服务发现允许客户端应用从服务注册表中查询服务，客户端处理查找过程。
+服务发现有三个角色：服务提供者、服务消费者、服务中介。
+服务提供者：简答的为提供API服务的HTTP服务器，使用某个IP端口作为服务地址。
+服务消费者：访问服务提供者服务的进程。
+服务中介：提供对服务的管理，是联系提供者和消费者的桥梁。提供者先将服务地址注册到中介。消费者从中介处获取服务地址并访问。服务中介可视为一个字典，key为服务名称，value为服务地址。在提供者节点挂掉时能及时取消注册，在新提供者加入时能及时告知消费者。可用Redis等数据库作为服务中介。
+一个HTTP服务器既可以对外提供服务，也可作为消费者访问其他提供者服务。复杂的服务有多个服务依赖。
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2240,74 +2256,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2327,7 +2275,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2612,13 +2560,13 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="32.625" style="1" customWidth="1"/>
+    <col min="1" max="7" width="32.6328125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -2641,7 +2589,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -2664,7 +2612,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -2687,7 +2635,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -2704,7 +2652,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -2718,7 +2666,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -2732,7 +2680,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -2746,7 +2694,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="56" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
@@ -2760,7 +2708,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -2774,7 +2722,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -2788,7 +2736,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="42" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>84</v>
       </c>
@@ -2802,7 +2750,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>87</v>
       </c>
@@ -2816,7 +2764,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="28" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>91</v>
       </c>
@@ -2827,7 +2775,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="28" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>92</v>
       </c>
@@ -2838,7 +2786,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="28" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>95</v>
       </c>
@@ -2846,7 +2794,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="28" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>96</v>
       </c>
@@ -2854,7 +2802,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="28" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>100</v>
       </c>
@@ -2862,7 +2810,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
@@ -2870,7 +2818,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="28" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>119</v>
       </c>
@@ -2878,27 +2826,27 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" ht="42" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>126</v>
       </c>
@@ -2918,12 +2866,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>107</v>
       </c>
@@ -2931,7 +2879,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -2953,17 +2901,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>118</v>
       </c>
@@ -2981,200 +2929,200 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.5" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.453125" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D3" t="s">
         <v>443</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>409</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C3" t="s">
-        <v>437</v>
-      </c>
-      <c r="D3" t="s">
-        <v>444</v>
-      </c>
-      <c r="E3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>404</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>427</v>
+      </c>
+      <c r="C26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>434</v>
+      </c>
+      <c r="B30" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>410</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>428</v>
-      </c>
-      <c r="C26" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>435</v>
-      </c>
-      <c r="B30" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>439</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>441</v>
-      </c>
-      <c r="B32" t="s">
-        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -3188,24 +3136,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+    <sheetView topLeftCell="B19" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.625" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="11"/>
+    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.6328125" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>168</v>
       </c>
@@ -3216,7 +3164,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="7" t="s">
         <v>50</v>
@@ -3225,7 +3173,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="7" t="s">
         <v>84</v>
@@ -3234,7 +3182,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>87</v>
       </c>
@@ -3242,7 +3190,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>119</v>
       </c>
@@ -3250,7 +3198,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>44</v>
@@ -3259,17 +3207,17 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>185</v>
@@ -3278,7 +3226,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>186</v>
@@ -3287,7 +3235,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>189</v>
@@ -3296,15 +3244,15 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>188</v>
@@ -3313,7 +3261,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>190</v>
@@ -3322,7 +3270,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
         <v>191</v>
@@ -3331,7 +3279,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
         <v>204</v>
@@ -3340,7 +3288,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
         <v>207</v>
@@ -3349,11 +3297,11 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>170</v>
       </c>
@@ -3364,7 +3312,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
         <v>225</v>
@@ -3373,7 +3321,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>171</v>
       </c>
@@ -3381,13 +3329,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="7" t="s">
         <v>199</v>
@@ -3396,7 +3344,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>175</v>
       </c>
@@ -3407,7 +3355,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
         <v>192</v>
@@ -3416,7 +3364,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
         <v>228</v>
@@ -3425,7 +3373,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
         <v>193</v>
@@ -3434,7 +3382,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
         <v>200</v>
@@ -3443,7 +3391,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
         <v>201</v>
@@ -3452,36 +3400,36 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="7"/>
     </row>
-    <row r="34" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="6" t="s">
         <v>206</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>173</v>
       </c>
@@ -3492,11 +3440,11 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>172</v>
       </c>
@@ -3507,7 +3455,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="6" t="s">
         <v>203</v>
@@ -3516,7 +3464,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>167</v>
       </c>
@@ -3527,7 +3475,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>174</v>
       </c>
@@ -3538,7 +3486,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="7" t="s">
         <v>120</v>
@@ -3547,7 +3495,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>240</v>
       </c>
@@ -3558,7 +3506,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="6" t="s">
         <v>194</v>
@@ -3567,19 +3515,19 @@
         <v>238</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B48" s="6"/>
     </row>
-    <row r="49" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>242</v>
       </c>
@@ -3590,35 +3538,35 @@
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B50" s="6"/>
     </row>
-    <row r="51" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B51" s="6"/>
     </row>
-    <row r="52" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>179</v>
       </c>
       <c r="B54" s="6"/>
     </row>
-    <row r="55" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>180</v>
       </c>
@@ -3629,7 +3577,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="7" t="s">
         <v>202</v>
@@ -3638,7 +3586,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="6" t="s">
         <v>246</v>
@@ -3647,11 +3595,11 @@
         <v>247</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="7"/>
     </row>
-    <row r="59" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>181</v>
       </c>
@@ -3659,7 +3607,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="7" t="s">
         <v>196</v>
@@ -3668,7 +3616,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="7" t="s">
         <v>91</v>
@@ -3677,7 +3625,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="7" t="s">
         <v>197</v>
@@ -3686,7 +3634,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>182</v>
       </c>
@@ -3694,52 +3642,52 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="6"/>
     </row>
-    <row r="65" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B65" s="6"/>
     </row>
-    <row r="66" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="6"/>
     </row>
-    <row r="68" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="6"/>
     </row>
-    <row r="69" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="6"/>
     </row>
-    <row r="70" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
     </row>
-    <row r="85" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
     </row>
   </sheetData>
@@ -3757,7 +3705,7 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3773,467 +3721,467 @@
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="17"/>
-    <col min="2" max="2" width="57.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="15"/>
+    <col min="1" max="1" width="8.90625" style="17"/>
+    <col min="2" max="2" width="57.7265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>502</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B2" s="15" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B3" s="15" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>504</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B4" s="15" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>505</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B5" s="15" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B6" s="15" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="17" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="15" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B8" s="15" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="17" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B10" s="15" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>513</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B16" s="15" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B17" s="15" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="17" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B19" s="15" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B20" s="15" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="17" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B21" s="15" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="17" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B22" s="15" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="17" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B23" s="15" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="17" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B24" s="15" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="17" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>523</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B25" s="15" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="17" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B26" s="15" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="17" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B27" s="15" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="17" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>526</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B28" s="15" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="17" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B29" s="15" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="17" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B30" s="15" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="17" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B31" s="15" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="17" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B32" s="16" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="17" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B33" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="17" t="s">
-        <v>532</v>
-      </c>
-      <c r="B33" s="15" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="17" t="s">
-        <v>533</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="17" t="s">
-        <v>534</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="17" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="17" t="s">
-        <v>531</v>
-      </c>
-      <c r="B37" s="15" t="s">
+      <c r="B38" s="15" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="17" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
         <v>536</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B39" s="15" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="17" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B40" s="15" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="17" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
         <v>538</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B41" s="15" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="17" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
         <v>539</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B42" s="15" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="17" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
         <v>540</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B43" s="15" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="17" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
         <v>541</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B44" s="15" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="17" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B45" s="15" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="17" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B46" s="15" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="17" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B47" s="15" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="17" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
         <v>545</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B48" s="15" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="17" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B49" s="15" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="17" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
         <v>547</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B50" s="15" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="17" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B52" s="15" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="17" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B53" s="15" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="17" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B54" s="15" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="17" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B55" s="15" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="17" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B56" s="15" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="17" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B57" s="15" t="s">
         <v>500</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -4251,7 +4199,7 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4266,132 +4214,132 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.125" customWidth="1"/>
+    <col min="1" max="1" width="56.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -4411,24 +4359,24 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="68.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>305</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>127</v>
       </c>
@@ -4442,7 +4390,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>160</v>
       </c>
@@ -4450,7 +4398,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>5</v>
       </c>
@@ -4458,7 +4406,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
@@ -4466,7 +4414,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
@@ -4474,7 +4422,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>110</v>
       </c>
@@ -4482,17 +4430,17 @@
         <v>330</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>125</v>
       </c>
@@ -4500,7 +4448,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>303</v>
       </c>
@@ -4508,7 +4456,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>333</v>
       </c>
@@ -4516,12 +4464,12 @@
         <v>335</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>337</v>
       </c>
@@ -4529,7 +4477,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>339</v>
       </c>
@@ -4537,53 +4485,53 @@
         <v>340</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>254</v>
       </c>
@@ -4591,78 +4539,78 @@
         <v>344</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" s="13" t="s">
         <v>165</v>
       </c>
@@ -4670,7 +4618,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" s="13" t="s">
         <v>164</v>
       </c>
@@ -4678,7 +4626,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" s="13" t="s">
         <v>4</v>
       </c>
@@ -4686,7 +4634,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="13" t="s">
         <v>349</v>
       </c>
@@ -4694,182 +4642,182 @@
         <v>348</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" s="13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" s="13" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" s="13" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B71" s="13" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" s="13" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B74" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B75" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B76" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B77" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B78" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B79" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B87" s="13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B88" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B89" s="13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B90" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B91" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B92" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B93" s="13" t="s">
         <v>129</v>
       </c>
@@ -4877,7 +4825,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>20</v>
       </c>
@@ -4885,17 +4833,17 @@
         <v>162</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>252</v>
       </c>
@@ -4912,275 +4860,282 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B52"/>
+  <dimension ref="B1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="123.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>425</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
-        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -5198,272 +5153,272 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.125" customWidth="1"/>
+    <col min="1" max="1" width="89.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>302</v>
       </c>

--- a/牛客面试题.xlsx
+++ b/牛客面试题.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitproject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11790" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11790" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA" sheetId="3" r:id="rId1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="549">
   <si>
     <t>jvm相关</t>
   </si>
@@ -1675,18 +1680,18 @@
   <si>
     <t>tumbling window（窗口间元素无重复），sliding window（窗口间元素可能重复），global window。自定义数据分发策略集成实现WindowAssigner</t>
   </si>
+  <si>
+    <t>Flink 支持 JobMaster 的 HA 吗？原理是怎样的？</t>
+  </si>
+  <si>
+    <t>Flink同一个作业重复启动多次，Checkpoint相互之间会有什么影响？</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1738,352 +1743,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2150,251 +1824,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2439,61 +1871,17 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2780,25 +2168,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="32.6333333333333" style="27" customWidth="1"/>
+    <col min="1" max="7" width="32.6328125" style="27" customWidth="1"/>
     <col min="8" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2821,7 +2209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="33" spans="1:7">
+    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2844,7 +2232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="33" spans="1:7">
+    <row r="3" spans="1:7" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -2867,7 +2255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="33" spans="1:7">
+    <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -2886,7 +2274,7 @@
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
     </row>
-    <row r="5" ht="33" spans="1:7">
+    <row r="5" spans="1:7" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -2903,7 +2291,7 @@
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -2920,7 +2308,7 @@
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
-    <row r="7" ht="33" spans="1:7">
+    <row r="7" spans="1:7" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -2937,7 +2325,7 @@
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
-    <row r="8" ht="66" spans="1:7">
+    <row r="8" spans="1:7" ht="66" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -2954,7 +2342,7 @@
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
     </row>
-    <row r="9" ht="33" spans="1:7">
+    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
@@ -2971,7 +2359,7 @@
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
     </row>
-    <row r="10" ht="33" spans="1:7">
+    <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
@@ -2988,7 +2376,7 @@
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
     </row>
-    <row r="11" ht="49.5" spans="1:7">
+    <row r="11" spans="1:7" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>50</v>
       </c>
@@ -3005,7 +2393,7 @@
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
+    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>54</v>
       </c>
@@ -3022,7 +2410,7 @@
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
     </row>
-    <row r="13" ht="33" spans="1:7">
+    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
@@ -3037,7 +2425,7 @@
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
     </row>
-    <row r="14" ht="33" spans="1:7">
+    <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>61</v>
       </c>
@@ -3052,7 +2440,7 @@
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
     </row>
-    <row r="15" ht="33" spans="1:7">
+    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>64</v>
       </c>
@@ -3065,7 +2453,7 @@
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
     </row>
-    <row r="16" ht="33" spans="1:7">
+    <row r="16" spans="1:7" ht="33" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>66</v>
       </c>
@@ -3078,7 +2466,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
     </row>
-    <row r="17" ht="33" spans="1:7">
+    <row r="17" spans="1:7" ht="33" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>68</v>
       </c>
@@ -3091,7 +2479,7 @@
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>70</v>
       </c>
@@ -3104,7 +2492,7 @@
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" ht="16.5" spans="1:7">
+    <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>72</v>
       </c>
@@ -3117,7 +2505,7 @@
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>74</v>
       </c>
@@ -3128,7 +2516,7 @@
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
     </row>
-    <row r="21" ht="16.5" spans="1:7">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>75</v>
       </c>
@@ -3139,7 +2527,7 @@
       <c r="F21" s="26"/>
       <c r="G21" s="26"/>
     </row>
-    <row r="22" ht="49.5" spans="1:7">
+    <row r="22" spans="1:7" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>76</v>
       </c>
@@ -3150,7 +2538,7 @@
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
     </row>
-    <row r="23" ht="16.5" spans="1:7">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
@@ -3161,7 +2549,7 @@
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>78</v>
       </c>
@@ -3173,29 +2561,28 @@
       <c r="G24" s="26"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17.9083333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>499</v>
       </c>
@@ -3203,7 +2590,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>501</v>
       </c>
@@ -3212,33 +2599,32 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
         <v>504</v>
       </c>
@@ -3247,29 +2633,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.0916666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="109.45" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="109.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>506</v>
       </c>
@@ -3277,12 +2662,12 @@
         <v>507</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>509</v>
       </c>
@@ -3296,22 +2681,22 @@
         <v>512</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>516</v>
       </c>
@@ -3319,42 +2704,42 @@
         <v>517</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="15" ht="13.15" customHeight="1" spans="2:3">
+    <row r="15" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>525</v>
       </c>
@@ -3362,52 +2747,52 @@
         <v>526</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B21" s="2" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B23" s="2" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B26" s="2" t="s">
         <v>536</v>
       </c>
@@ -3415,22 +2800,22 @@
         <v>537</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B28" s="2" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B29" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>541</v>
       </c>
@@ -3438,7 +2823,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>543</v>
       </c>
@@ -3446,7 +2831,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>545</v>
       </c>
@@ -3454,37 +2839,46 @@
         <v>546</v>
       </c>
     </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B33" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B34" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.9083333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="99.6333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.725" style="11"/>
+    <col min="1" max="1" width="31.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="99.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="11"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:2">
+    <row r="1" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="13"/>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
+    <row r="2" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
         <v>80</v>
       </c>
@@ -3495,7 +2889,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:3">
+    <row r="3" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="17"/>
       <c r="B3" s="15" t="s">
         <v>46</v>
@@ -3504,7 +2898,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="17"/>
       <c r="B4" s="15" t="s">
         <v>50</v>
@@ -3513,7 +2907,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:3">
+    <row r="5" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="15" t="s">
         <v>54</v>
       </c>
@@ -3521,7 +2915,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:3">
+    <row r="6" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="15" t="s">
         <v>72</v>
       </c>
@@ -3529,7 +2923,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:3">
+    <row r="7" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="17"/>
       <c r="B7" s="15" t="s">
         <v>14</v>
@@ -3538,17 +2932,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:2">
+    <row r="8" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="17"/>
       <c r="B8" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:2">
+    <row r="9" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
     </row>
-    <row r="10" customHeight="1" spans="1:3">
+    <row r="10" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="17"/>
       <c r="B10" s="15" t="s">
         <v>77</v>
@@ -3557,7 +2951,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:3">
+    <row r="11" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="17"/>
       <c r="B11" s="15" t="s">
         <v>88</v>
@@ -3566,7 +2960,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:3">
+    <row r="12" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="17"/>
       <c r="B12" s="15" t="s">
         <v>90</v>
@@ -3575,15 +2969,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:2">
+    <row r="13" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
     </row>
-    <row r="14" customHeight="1" spans="1:2">
+    <row r="14" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
     </row>
-    <row r="15" customHeight="1" spans="1:3">
+    <row r="15" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="17"/>
       <c r="B15" s="15" t="s">
         <v>92</v>
@@ -3592,7 +2986,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:3">
+    <row r="16" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="17"/>
       <c r="B16" s="15" t="s">
         <v>94</v>
@@ -3601,7 +2995,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:3">
+    <row r="17" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="17"/>
       <c r="B17" s="15" t="s">
         <v>96</v>
@@ -3610,7 +3004,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:3">
+    <row r="18" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="17"/>
       <c r="B18" s="15" t="s">
         <v>98</v>
@@ -3619,7 +3013,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:3">
+    <row r="19" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="17"/>
       <c r="B19" s="15" t="s">
         <v>100</v>
@@ -3628,11 +3022,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:2">
+    <row r="20" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
     </row>
-    <row r="21" customHeight="1" spans="1:3">
+    <row r="21" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
         <v>102</v>
       </c>
@@ -3643,7 +3037,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:3">
+    <row r="22" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
         <v>105</v>
@@ -3652,7 +3046,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:2">
+    <row r="23" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>107</v>
       </c>
@@ -3660,13 +3054,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:2">
+    <row r="24" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="21"/>
       <c r="B24" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:3">
+    <row r="25" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="21"/>
       <c r="B25" s="15" t="s">
         <v>109</v>
@@ -3675,7 +3069,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:3">
+    <row r="26" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="14" t="s">
         <v>111</v>
       </c>
@@ -3686,7 +3080,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:3">
+    <row r="27" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="17"/>
       <c r="B27" s="15" t="s">
         <v>113</v>
@@ -3695,7 +3089,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:3">
+    <row r="28" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="17"/>
       <c r="B28" s="15" t="s">
         <v>115</v>
@@ -3704,7 +3098,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:3">
+    <row r="29" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="17"/>
       <c r="B29" s="15" t="s">
         <v>117</v>
@@ -3713,7 +3107,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:3">
+    <row r="30" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="17"/>
       <c r="B30" s="15" t="s">
         <v>119</v>
@@ -3722,7 +3116,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:3">
+    <row r="31" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="17"/>
       <c r="B31" s="15" t="s">
         <v>121</v>
@@ -3731,15 +3125,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:2">
+    <row r="32" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
     </row>
-    <row r="33" customHeight="1" spans="1:2">
+    <row r="33" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="17"/>
       <c r="B33" s="18"/>
     </row>
-    <row r="34" customHeight="1" spans="1:3">
+    <row r="34" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="17"/>
       <c r="B34" s="20" t="s">
         <v>123</v>
@@ -3748,19 +3142,19 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:2">
+    <row r="35" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
       <c r="B35" s="18"/>
     </row>
-    <row r="36" customHeight="1" spans="1:2">
+    <row r="36" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
     </row>
-    <row r="37" customHeight="1" spans="1:2">
+    <row r="37" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
     </row>
-    <row r="38" customHeight="1" spans="1:3">
+    <row r="38" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="14" t="s">
         <v>125</v>
       </c>
@@ -3771,11 +3165,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:2">
+    <row r="39" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
     </row>
-    <row r="40" customHeight="1" spans="1:3">
+    <row r="40" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="14" t="s">
         <v>127</v>
       </c>
@@ -3786,7 +3180,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:3">
+    <row r="41" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="17"/>
       <c r="B41" s="20" t="s">
         <v>130</v>
@@ -3795,7 +3189,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:3">
+    <row r="42" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="14" t="s">
         <v>132</v>
       </c>
@@ -3806,7 +3200,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:3">
+    <row r="43" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="14" t="s">
         <v>135</v>
       </c>
@@ -3817,7 +3211,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:3">
+    <row r="44" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="17"/>
       <c r="B44" s="15" t="s">
         <v>74</v>
@@ -3826,7 +3220,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:3">
+    <row r="45" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="14" t="s">
         <v>138</v>
       </c>
@@ -3837,7 +3231,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:3">
+    <row r="46" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="17"/>
       <c r="B46" s="20" t="s">
         <v>140</v>
@@ -3846,19 +3240,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:2">
+    <row r="47" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="14" t="s">
         <v>142</v>
       </c>
       <c r="B47" s="13"/>
     </row>
-    <row r="48" customHeight="1" spans="1:2">
+    <row r="48" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="14" t="s">
         <v>143</v>
       </c>
       <c r="B48" s="13"/>
     </row>
-    <row r="49" customHeight="1" spans="1:3">
+    <row r="49" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="22" t="s">
         <v>144</v>
       </c>
@@ -3869,35 +3263,35 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:2">
+    <row r="50" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="12" t="s">
         <v>146</v>
       </c>
       <c r="B50" s="13"/>
     </row>
-    <row r="51" customHeight="1" spans="1:2">
+    <row r="51" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="23" t="s">
         <v>147</v>
       </c>
       <c r="B51" s="13"/>
     </row>
-    <row r="52" customHeight="1" spans="1:2">
+    <row r="52" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="24"/>
       <c r="B52" s="20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:2">
+    <row r="53" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="24"/>
       <c r="B53" s="13"/>
     </row>
-    <row r="54" customHeight="1" spans="1:2">
+    <row r="54" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="12" t="s">
         <v>149</v>
       </c>
       <c r="B54" s="13"/>
     </row>
-    <row r="55" customHeight="1" spans="1:3">
+    <row r="55" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="23" t="s">
         <v>150</v>
       </c>
@@ -3908,7 +3302,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:3">
+    <row r="56" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="25"/>
       <c r="B56" s="15" t="s">
         <v>152</v>
@@ -3917,7 +3311,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:3">
+    <row r="57" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="25"/>
       <c r="B57" s="20" t="s">
         <v>154</v>
@@ -3926,11 +3320,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:2">
+    <row r="58" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="25"/>
       <c r="B58" s="18"/>
     </row>
-    <row r="59" customHeight="1" spans="1:2">
+    <row r="59" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="23" t="s">
         <v>156</v>
       </c>
@@ -3938,7 +3332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:3">
+    <row r="60" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="25"/>
       <c r="B60" s="15" t="s">
         <v>157</v>
@@ -3947,7 +3341,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:3">
+    <row r="61" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="25"/>
       <c r="B61" s="15" t="s">
         <v>58</v>
@@ -3956,7 +3350,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:3">
+    <row r="62" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="25"/>
       <c r="B62" s="15" t="s">
         <v>160</v>
@@ -3965,7 +3359,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:2">
+    <row r="63" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="23" t="s">
         <v>162</v>
       </c>
@@ -3973,35 +3367,35 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:2">
+    <row r="64" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="24"/>
       <c r="B64" s="13"/>
     </row>
-    <row r="65" customHeight="1" spans="1:2">
+    <row r="65" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="12" t="s">
         <v>163</v>
       </c>
       <c r="B65" s="13"/>
     </row>
-    <row r="66" customHeight="1" spans="1:2">
+    <row r="66" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="25"/>
       <c r="B66" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:2">
+    <row r="67" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="25"/>
       <c r="B67" s="13"/>
     </row>
-    <row r="68" customHeight="1" spans="1:2">
+    <row r="68" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="25"/>
       <c r="B68" s="13"/>
     </row>
-    <row r="69" customHeight="1" spans="1:2">
+    <row r="69" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="24"/>
       <c r="B69" s="13"/>
     </row>
-    <row r="70" customHeight="1" spans="1:4">
+    <row r="70" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="12" t="s">
         <v>164</v>
       </c>
@@ -4012,59 +3406,57 @@
         <v>166</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="2:2">
+    <row r="80" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="26"/>
     </row>
-    <row r="81" customHeight="1" spans="2:2">
+    <row r="81" spans="2:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="26"/>
     </row>
-    <row r="85" customHeight="1" spans="2:2">
+    <row r="85" spans="2:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="26"/>
     </row>
-    <row r="86" customHeight="1" spans="2:2">
+    <row r="86" spans="2:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="26"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90833333333333" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.90833333333333" style="8"/>
-    <col min="2" max="2" width="57.725" style="9" customWidth="1"/>
-    <col min="3" max="16384" width="8.90833333333333" style="9"/>
+    <col min="1" max="1" width="8.90625" style="8"/>
+    <col min="2" max="2" width="57.7265625" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:2">
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>167</v>
       </c>
@@ -4072,7 +3464,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:2">
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>169</v>
       </c>
@@ -4080,7 +3472,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:2">
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>171</v>
       </c>
@@ -4088,7 +3480,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:2">
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>173</v>
       </c>
@@ -4096,7 +3488,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:2">
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>175</v>
       </c>
@@ -4104,7 +3496,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:2">
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>177</v>
       </c>
@@ -4112,7 +3504,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:2">
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>179</v>
       </c>
@@ -4120,7 +3512,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:2">
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>181</v>
       </c>
@@ -4128,7 +3520,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:2">
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>183</v>
       </c>
@@ -4136,7 +3528,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:2">
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
         <v>185</v>
       </c>
@@ -4144,7 +3536,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:2">
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
         <v>185</v>
       </c>
@@ -4152,7 +3544,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:2">
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
         <v>185</v>
       </c>
@@ -4160,7 +3552,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:2">
+    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
         <v>189</v>
       </c>
@@ -4168,7 +3560,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:2">
+    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
         <v>185</v>
       </c>
@@ -4176,7 +3568,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:2">
+    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
         <v>185</v>
       </c>
@@ -4184,7 +3576,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:2">
+    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
         <v>193</v>
       </c>
@@ -4192,7 +3584,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:2">
+    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="10" t="s">
         <v>195</v>
       </c>
@@ -4200,7 +3592,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:2">
+    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="s">
         <v>197</v>
       </c>
@@ -4208,7 +3600,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:2">
+    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
         <v>199</v>
       </c>
@@ -4216,7 +3608,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:2">
+    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
         <v>199</v>
       </c>
@@ -4224,7 +3616,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:2">
+    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
         <v>202</v>
       </c>
@@ -4232,7 +3624,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:2">
+    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="s">
         <v>204</v>
       </c>
@@ -4240,7 +3632,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:2">
+    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
         <v>206</v>
       </c>
@@ -4248,7 +3640,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:2">
+    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
         <v>206</v>
       </c>
@@ -4256,7 +3648,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:2">
+    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="10" t="s">
         <v>209</v>
       </c>
@@ -4264,7 +3656,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:2">
+    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="10" t="s">
         <v>211</v>
       </c>
@@ -4272,7 +3664,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:2">
+    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="s">
         <v>213</v>
       </c>
@@ -4280,7 +3672,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:2">
+    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="10" t="s">
         <v>215</v>
       </c>
@@ -4288,7 +3680,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:2">
+    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="10" t="s">
         <v>215</v>
       </c>
@@ -4296,7 +3688,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:2">
+    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="10" t="s">
         <v>218</v>
       </c>
@@ -4304,7 +3696,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:2">
+    <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="10" t="s">
         <v>220</v>
       </c>
@@ -4312,7 +3704,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:2">
+    <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A32" s="10" t="s">
         <v>222</v>
       </c>
@@ -4320,7 +3712,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:2">
+    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A33" s="10" t="s">
         <v>224</v>
       </c>
@@ -4328,7 +3720,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:2">
+    <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A34" s="10" t="s">
         <v>224</v>
       </c>
@@ -4336,7 +3728,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:2">
+    <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A35" s="10" t="s">
         <v>224</v>
       </c>
@@ -4344,7 +3736,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:2">
+    <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A36" s="10" t="s">
         <v>222</v>
       </c>
@@ -4352,7 +3744,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:2">
+    <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A37" s="10" t="s">
         <v>222</v>
       </c>
@@ -4360,7 +3752,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:2">
+    <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A38" s="10" t="s">
         <v>224</v>
       </c>
@@ -4368,7 +3760,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:2">
+    <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A39" s="10" t="s">
         <v>231</v>
       </c>
@@ -4376,7 +3768,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:2">
+    <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A40" s="10" t="s">
         <v>233</v>
       </c>
@@ -4384,7 +3776,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:2">
+    <row r="41" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A41" s="10" t="s">
         <v>235</v>
       </c>
@@ -4392,7 +3784,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:2">
+    <row r="42" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A42" s="10" t="s">
         <v>237</v>
       </c>
@@ -4400,7 +3792,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:2">
+    <row r="43" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A43" s="10" t="s">
         <v>239</v>
       </c>
@@ -4408,7 +3800,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:2">
+    <row r="44" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A44" s="10" t="s">
         <v>241</v>
       </c>
@@ -4416,7 +3808,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:2">
+    <row r="45" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A45" s="10" t="s">
         <v>243</v>
       </c>
@@ -4424,7 +3816,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:2">
+    <row r="46" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A46" s="10" t="s">
         <v>245</v>
       </c>
@@ -4432,7 +3824,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:2">
+    <row r="47" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A47" s="10" t="s">
         <v>245</v>
       </c>
@@ -4440,7 +3832,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:2">
+    <row r="48" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A48" s="10" t="s">
         <v>248</v>
       </c>
@@ -4448,7 +3840,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:2">
+    <row r="49" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A49" s="10" t="s">
         <v>222</v>
       </c>
@@ -4456,7 +3848,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:2">
+    <row r="50" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A50" s="10" t="s">
         <v>251</v>
       </c>
@@ -4464,7 +3856,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:2">
+    <row r="51" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A51" s="10" t="s">
         <v>253</v>
       </c>
@@ -4472,7 +3864,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:2">
+    <row r="52" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A52" s="10" t="s">
         <v>255</v>
       </c>
@@ -4480,7 +3872,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="53" ht="16.5" spans="1:2">
+    <row r="53" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A53" s="10" t="s">
         <v>257</v>
       </c>
@@ -4488,7 +3880,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:2">
+    <row r="54" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A54" s="10" t="s">
         <v>259</v>
       </c>
@@ -4496,7 +3888,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:2">
+    <row r="55" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A55" s="10" t="s">
         <v>261</v>
       </c>
@@ -4504,7 +3896,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="1:2">
+    <row r="56" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A56" s="10" t="s">
         <v>263</v>
       </c>
@@ -4512,7 +3904,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="1:2">
+    <row r="57" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A57" s="10" t="s">
         <v>265</v>
       </c>
@@ -4521,202 +3913,199 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A1:A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.0916666666667" customWidth="1"/>
+    <col min="1" max="1" width="56.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:1">
+    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:1">
+    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:1">
+    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:1">
+    <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:1">
+    <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:1">
+    <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:1">
+    <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:1">
+    <row r="8" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:1">
+    <row r="9" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:1">
+    <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:1">
+    <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:1">
+    <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:1">
+    <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:1">
+    <row r="14" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:1">
+    <row r="15" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:1">
+    <row r="16" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:1">
+    <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:1">
+    <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:1">
+    <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:1">
+    <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:1">
+    <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:1">
+    <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:1">
+    <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:1">
+    <row r="24" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:1">
+    <row r="25" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>291</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
-    <col min="2" max="2" width="68.9083333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="68.90625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>292</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B3" s="4" t="s">
         <v>294</v>
       </c>
@@ -4730,7 +4119,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
         <v>298</v>
       </c>
@@ -4738,7 +4127,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
         <v>300</v>
       </c>
@@ -4746,7 +4135,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
         <v>302</v>
       </c>
@@ -4754,7 +4143,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>304</v>
       </c>
@@ -4762,7 +4151,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>306</v>
       </c>
@@ -4770,17 +4159,17 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>310</v>
       </c>
@@ -4788,7 +4177,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
         <v>312</v>
       </c>
@@ -4796,7 +4185,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>314</v>
       </c>
@@ -4804,12 +4193,12 @@
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
         <v>317</v>
       </c>
@@ -4817,7 +4206,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
         <v>319</v>
       </c>
@@ -4825,53 +4214,53 @@
         <v>320</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" s="4" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B23" s="4" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B24" s="4" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>329</v>
       </c>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>330</v>
       </c>
@@ -4879,78 +4268,78 @@
         <v>331</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B28" s="7"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B42" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B53" s="4" t="s">
         <v>345</v>
       </c>
@@ -4958,7 +4347,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B54" s="4" t="s">
         <v>347</v>
       </c>
@@ -4966,7 +4355,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B55" s="4" t="s">
         <v>349</v>
       </c>
@@ -4974,7 +4363,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B56" s="4" t="s">
         <v>351</v>
       </c>
@@ -4982,182 +4371,182 @@
         <v>352</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B57" s="4" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B58" s="4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B59" s="4" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B60" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B61" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B62" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B63" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B64" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B65" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B66" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B67" s="4" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B68" s="4" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B69" s="4" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B70" s="4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B71" s="4" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B72" s="4" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B74" s="4" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B75" s="4" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B76" s="4" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B77" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B78" s="4" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B79" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B80" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B81" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B82" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B83" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B84" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="5" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B87" s="4" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B88" s="4" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B89" s="4" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B90" s="4" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B91" s="4" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B92" s="4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="2:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B93" s="4" t="s">
         <v>388</v>
       </c>
@@ -5165,7 +4554,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="94" spans="2:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B94" s="2" t="s">
         <v>390</v>
       </c>
@@ -5173,49 +4562,48 @@
         <v>389</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B95" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B96" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B97" s="2" t="s">
         <v>393</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B70" r:id="rId1" display="海量数据的索引有什么影响"/>
+    <hyperlink ref="B70" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D52"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B35" sqref="B35:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="123.633333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.725" style="1" customWidth="1"/>
+    <col min="2" max="2" width="123.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7265625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="1" spans="2:4">
+    <row r="1" spans="2:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>394</v>
       </c>
@@ -5226,551 +4614,550 @@
         <v>396</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B29" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B36" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B37" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B39" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B40" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B41" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B42" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B43" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B44" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B45" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B46" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B48" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B50" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B51" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B52" s="2" t="s">
         <v>445</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="89.0916666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="89.08984375" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>498</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/牛客面试题.xlsx
+++ b/牛客面试题.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11790" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6730" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="555">
   <si>
     <t>jvm相关</t>
   </si>
@@ -191,9 +191,6 @@
     <t>string ，stringbuilder，stringbuffer区别，string内部结构</t>
   </si>
   <si>
-    <t>java.util.concurrent(简称JUC)包</t>
-  </si>
-  <si>
     <t>java的静态成员变量和静态常量存在哪</t>
   </si>
   <si>
@@ -224,9 +221,6 @@
     <t>bio nio</t>
   </si>
   <si>
-    <t>分代回收算法</t>
-  </si>
-  <si>
     <t>介绍下JAVA中乐观锁，悲观锁的区别。</t>
   </si>
   <si>
@@ -240,9 +234,6 @@
   </si>
   <si>
     <t>假如有三个线程，我想让他们按序循环不停的执行，怎么做</t>
-  </si>
-  <si>
-    <t>虚拟机调优参数</t>
   </si>
   <si>
     <t>分布式锁实现</t>
@@ -1686,12 +1677,48 @@
   <si>
     <t>Flink同一个作业重复启动多次，Checkpoint相互之间会有什么影响？</t>
   </si>
+  <si>
+    <t>实现Runnable接口方式更好。从代码架构角度看，线程的创建与运行机制应与具体任务解耦。通过Runnable中run方法实现任务逻辑，Thread负责线程创建与任务执行；使用继承每创建一个任务就要新建一个线程，附带线程创建、销毁的额外开销。而Runnable与线程池方式结合可减少线程创建、销毁带来的开销；Java不支持多继承，在继承Thread类后便不能继承其他类。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>start是新建一个线程，在新线程中执行run方法内容。直接调用run方法是在当前线程中执行run方法。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>start方法在线程状态不为NEW时抛出IllegalThreadStateException，故运行中或已结束的线程都不能再次启动。正常情况下将当前线程加入线程组，后调用native方法start0启动线程；Start方法被synchronized修饰，线程安全；Main线程和system线程组不通过start方法执行；线程池对Thread做了包装，不会重复调用start方法。线程池本身执行一个Runnable.run，在其中不断检查是否有新的Runnable任务被加入。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>应使用interrupt中断来请求停止线程，而非强制停止线程，这样更安全；停止线程要求请求方、被请求方、子方法提供方相互配合：1.被请求方每次循环中或适时检查中断信号，在可能抛出InterruptException处响应中断。2.请求方发出中断信号。3.子方法提供方优先在方法层抛出InterruptException，或在检测到中断信号时再次设置中断状态。错误方法：1.stop/suspend已经废弃；2.volatile的boolean无法处理长时间阻塞情况。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>从不同的角度看有不同的答案。典型的答案是两种，分别是继承Thread类和实现Runnable接口。但继承Thread类或实现Runnuable重写Run方法本质是一样的，Thread类也实现了Runnable接口。只是执行时继承Thread类是执行重写的run方法，实现Runnable是在Thread中调用传入Runnable的run方法。我们只能通过新建Thread类这一种方式来创建线程，但运行方法可以通过重写Thread类run方法或实现Runnable的run方法完成。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果线程由于调用了wait，sleep或join导致的阻塞，可通过抛出InterruptedException唤醒线程。但是对于不能响应中断的阻塞，并没有一个通用的唤醒方案。但可以通过其他特定的方法来响应中断，如ReentrantLock.lockInterruptibly()、关闭套接字立刻返回等。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程有NEW、RUNNABLE、TERMINATED、BLOCKED、WAITING、TIMED_WAITING六个状态。线程在调用start方法后转到RUNNABLE状态，终结后转入TERMINATED状态。RUNNABLE状态在进入synchronized修饰代码时转入BLOCKED状态，在获得monitor锁后由BLOCKED转回RUNNABLE状态。RUNNABLE在遇到Object.wati、Thread.join、LockSupport.park方法时进入WAITING状态，在带参数的wait、join、park及Thread.sleep时进入TIMED_WAITING状态，在Object.notify、Object.notifyAll、LockSupport.unpark时返回RUNNABLE状态。发生异常时会直接转入TERMINED状态</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用wait/notify。线程1打印完后唤醒线程2，在让出锁后休眠。线程二亦如此直至任务结束。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果队列满，生产者进入休眠，在消费者消费消息后唤醒生产者。如果队列空，消费者进入休眠，在生产者产生消息后唤醒消费者。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1747,6 +1774,13 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="华文新魏"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1828,7 +1862,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1870,6 +1904,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1930,7 +1965,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1965,7 +2000,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2176,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2210,9 +2245,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
@@ -2233,9 +2266,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="49.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
@@ -2292,9 +2323,7 @@
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
@@ -2343,9 +2372,7 @@
       <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>43</v>
       </c>
@@ -2386,25 +2413,23 @@
       <c r="C11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
@@ -2412,13 +2437,13 @@
     </row>
     <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -2427,13 +2452,13 @@
     </row>
     <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -2441,11 +2466,9 @@
       <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
@@ -2453,12 +2476,10 @@
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
     </row>
-    <row r="16" spans="1:7" ht="33" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>66</v>
-      </c>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
@@ -2467,11 +2488,9 @@
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" ht="33" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -2480,11 +2499,9 @@
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -2493,11 +2510,9 @@
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -2506,9 +2521,7 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="A20" s="3"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -2517,9 +2530,7 @@
       <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -2529,7 +2540,7 @@
     </row>
     <row r="22" spans="1:7" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -2539,9 +2550,7 @@
       <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="A23" s="3"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
@@ -2550,9 +2559,7 @@
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="A24" s="3"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
@@ -2572,7 +2579,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -2584,18 +2591,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -2621,15 +2628,15 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -2642,7 +2649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+    <sheetView topLeftCell="B17" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -2656,197 +2663,197 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B21" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B23" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B26" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B28" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B29" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -2860,7 +2867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
@@ -2874,19 +2881,19 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2895,7 +2902,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2904,23 +2911,23 @@
         <v>50</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2929,13 +2936,13 @@
         <v>14</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="17"/>
       <c r="B8" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2945,28 +2952,28 @@
     <row r="10" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="17"/>
       <c r="B10" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="17"/>
       <c r="B11" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="17"/>
       <c r="B12" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2980,46 +2987,46 @@
     <row r="15" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="17"/>
       <c r="B15" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="17"/>
       <c r="B16" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="17"/>
       <c r="B17" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="17"/>
       <c r="B18" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="17"/>
       <c r="B19" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3028,27 +3035,27 @@
     </row>
     <row r="21" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>30</v>
@@ -3057,72 +3064,72 @@
     <row r="24" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="21"/>
       <c r="B24" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="21"/>
       <c r="B25" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="17"/>
       <c r="B27" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="17"/>
       <c r="B28" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="17"/>
       <c r="B29" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="17"/>
       <c r="B30" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="17"/>
       <c r="B31" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3136,10 +3143,10 @@
     <row r="34" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="17"/>
       <c r="B34" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3156,13 +3163,13 @@
     </row>
     <row r="38" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3171,114 +3178,114 @@
     </row>
     <row r="40" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="17"/>
       <c r="B41" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="17"/>
       <c r="B44" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="17"/>
       <c r="B46" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B47" s="13"/>
     </row>
     <row r="48" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B48" s="13"/>
     </row>
     <row r="49" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B50" s="13"/>
     </row>
     <row r="51" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B51" s="13"/>
     </row>
     <row r="52" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="24"/>
       <c r="B52" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3287,37 +3294,37 @@
     </row>
     <row r="54" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B54" s="13"/>
     </row>
     <row r="55" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="25"/>
       <c r="B56" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="25"/>
       <c r="B57" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3326,7 +3333,7 @@
     </row>
     <row r="59" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>21</v>
@@ -3335,33 +3342,33 @@
     <row r="60" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="25"/>
       <c r="B60" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="25"/>
       <c r="B61" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="25"/>
       <c r="B62" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>26</v>
@@ -3373,7 +3380,7 @@
     </row>
     <row r="65" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B65" s="13"/>
     </row>
@@ -3397,13 +3404,13 @@
     </row>
     <row r="70" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3443,479 +3450,507 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.90625" style="8"/>
     <col min="2" max="2" width="57.7265625" style="9" customWidth="1"/>
-    <col min="3" max="16384" width="8.90625" style="9"/>
+    <col min="3" max="3" width="8.90625" style="29"/>
+    <col min="4" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C2" s="29" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="10" t="s">
+      <c r="B3" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C3" s="29" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="10" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C4" s="29" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C5" s="29" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="10" t="s">
+      <c r="B6" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C6" s="29" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="10" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C7" s="29" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="10" t="s">
+      <c r="B8" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C8" s="29" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="10" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="10" t="s">
+      <c r="B9" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C9" s="29" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="10" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="10" t="s">
+      <c r="B10" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="10" t="s">
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="10" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="10" t="s">
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="4" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="10" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A32" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A33" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A34" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A35" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A36" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A37" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A38" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A39" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A40" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A41" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A42" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A43" s="10" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A44" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A45" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A46" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A47" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A48" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A49" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A50" s="10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A51" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A52" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A53" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A54" s="10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A55" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A56" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A57" s="10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3949,127 +3984,127 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -4096,176 +4131,176 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B3" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B23" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B24" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -4273,32 +4308,32 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -4306,275 +4341,275 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B42" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B53" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B54" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B55" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B56" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B57" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B58" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B59" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B60" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B61" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B62" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B63" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B64" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B65" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B66" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B67" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B68" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B69" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B70" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B71" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B72" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B74" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B75" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B76" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B77" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B78" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B79" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B80" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B81" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B82" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B83" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B84" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B87" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B88" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B89" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B90" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B91" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B92" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B93" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B94" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B95" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B96" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B97" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -4591,7 +4626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35:B36"/>
     </sheetView>
   </sheetViews>
@@ -4605,268 +4640,268 @@
   <sheetData>
     <row r="1" spans="2:4" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B29" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B36" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B37" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B39" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B40" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B41" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B42" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B43" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B44" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B45" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B46" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B48" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B50" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B51" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B52" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -4881,7 +4916,7 @@
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -4892,267 +4927,267 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/牛客面试题.xlsx
+++ b/牛客面试题.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6735" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6740" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="571">
   <si>
     <t>java类加载过程</t>
   </si>
@@ -1319,13 +1319,7 @@
     <t>为什么单线程还那么快？（非阻塞多路IO复用）</t>
   </si>
   <si>
-    <t>AOP</t>
-  </si>
-  <si>
     <t>讲一下Spring AOP</t>
-  </si>
-  <si>
-    <t>IOC</t>
   </si>
   <si>
     <t>Spring动态代理用了几个？用AOP实现过功能吗</t>
@@ -1860,6 +1854,30 @@
   </si>
   <si>
     <t>重做日志用来保障持久性有两部分，内存中的redo buffer和redo日志文件。Redo日志是针对于物理页的操作。Undo日志用来帮助事务回滚及MVCC功能，是逻辑上的数据，存放在共享表空间的undo段上。Undo日志也会产生redo log，也需要redo log保障持久性。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean作用域</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库拆分（分库分表）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>热点数据处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库锁实现（SQL或Java实现），根据表ID数量加一</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三种依赖注入方式</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2376,29 +2394,29 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" style="30" customWidth="1"/>
     <col min="2" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>555</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C3" s="30" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="D3" s="30" t="s">
         <v>557</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>558</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -2410,33 +2428,38 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B1" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>432</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -2453,24 +2476,24 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B2" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>433</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -2487,216 +2510,216 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="109.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="109.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="24" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" s="25" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D3" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="25" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="25" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B13" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B16" s="25" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B17" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B18" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B19" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="C20" s="24"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B21" s="25" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B22" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="C4" s="24"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="25" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="25" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B25" s="2" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="C20" s="24"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="25" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="25" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="C25" s="24" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B26" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C25" s="24" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B27" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B28" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B32" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B31" s="2" t="s">
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B33" s="1" t="s">
         <v>460</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -2714,21 +2737,21 @@
       <selection activeCell="C62" sqref="B1:C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="99.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="8"/>
+    <col min="1" max="1" width="31.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="99.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="8"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>20</v>
       </c>
@@ -2739,7 +2762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="14"/>
       <c r="B3" s="12" t="s">
         <v>8</v>
@@ -2748,16 +2771,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="14"/>
       <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
@@ -2765,7 +2788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
@@ -2773,7 +2796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="14"/>
       <c r="B7" s="12" t="s">
         <v>1</v>
@@ -2782,17 +2805,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="14"/>
       <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
     </row>
-    <row r="10" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="14"/>
       <c r="B10" s="12" t="s">
         <v>17</v>
@@ -2801,7 +2824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="14"/>
       <c r="B11" s="12" t="s">
         <v>27</v>
@@ -2810,7 +2833,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="14"/>
       <c r="B12" s="12" t="s">
         <v>29</v>
@@ -2819,15 +2842,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
     </row>
-    <row r="14" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
     </row>
-    <row r="15" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="14"/>
       <c r="B15" s="12" t="s">
         <v>31</v>
@@ -2836,7 +2859,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="14"/>
       <c r="B16" s="12" t="s">
         <v>33</v>
@@ -2845,7 +2868,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
       <c r="B17" s="12" t="s">
         <v>35</v>
@@ -2854,7 +2877,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="14"/>
       <c r="B18" s="12" t="s">
         <v>37</v>
@@ -2863,7 +2886,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="14"/>
       <c r="B19" s="12" t="s">
         <v>39</v>
@@ -2872,11 +2895,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
     </row>
-    <row r="21" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
         <v>41</v>
       </c>
@@ -2887,7 +2910,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="16"/>
       <c r="B22" s="17" t="s">
         <v>44</v>
@@ -2896,7 +2919,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
         <v>46</v>
       </c>
@@ -2904,13 +2927,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="18"/>
       <c r="B24" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="18"/>
       <c r="B25" s="12" t="s">
         <v>48</v>
@@ -2919,7 +2942,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="11" t="s">
         <v>50</v>
       </c>
@@ -2930,7 +2953,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="14"/>
       <c r="B27" s="12" t="s">
         <v>52</v>
@@ -2939,7 +2962,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
       <c r="B28" s="12" t="s">
         <v>54</v>
@@ -2948,7 +2971,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
       <c r="B29" s="12" t="s">
         <v>56</v>
@@ -2957,7 +2980,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="14"/>
       <c r="B30" s="12" t="s">
         <v>58</v>
@@ -2966,7 +2989,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="14"/>
       <c r="B31" s="12" t="s">
         <v>60</v>
@@ -2975,15 +2998,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
     </row>
-    <row r="33" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
     </row>
-    <row r="34" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="14"/>
       <c r="B34" s="17" t="s">
         <v>62</v>
@@ -2992,19 +3015,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
     </row>
-    <row r="36" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
     </row>
-    <row r="37" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="14"/>
       <c r="B37" s="15"/>
     </row>
-    <row r="38" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="11" t="s">
         <v>64</v>
       </c>
@@ -3015,11 +3038,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="14"/>
       <c r="B39" s="15"/>
     </row>
-    <row r="40" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="11" t="s">
         <v>66</v>
       </c>
@@ -3030,7 +3053,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="14"/>
       <c r="B41" s="17" t="s">
         <v>69</v>
@@ -3039,7 +3062,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="11" t="s">
         <v>71</v>
       </c>
@@ -3050,7 +3073,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="11" t="s">
         <v>74</v>
       </c>
@@ -3061,7 +3084,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="14"/>
       <c r="B44" s="12" t="s">
         <v>15</v>
@@ -3070,7 +3093,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="11" t="s">
         <v>77</v>
       </c>
@@ -3081,7 +3104,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="14"/>
       <c r="B46" s="17" t="s">
         <v>79</v>
@@ -3090,19 +3113,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="11" t="s">
         <v>81</v>
       </c>
       <c r="B47" s="10"/>
     </row>
-    <row r="48" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B48" s="10"/>
     </row>
-    <row r="49" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="19" t="s">
         <v>83</v>
       </c>
@@ -3113,35 +3136,35 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="10"/>
     </row>
-    <row r="51" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="20" t="s">
         <v>86</v>
       </c>
       <c r="B51" s="10"/>
     </row>
-    <row r="52" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="21"/>
       <c r="B52" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="21"/>
       <c r="B53" s="10"/>
     </row>
-    <row r="54" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B54" s="10"/>
     </row>
-    <row r="55" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="20" t="s">
         <v>89</v>
       </c>
@@ -3152,7 +3175,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="22"/>
       <c r="B56" s="12" t="s">
         <v>91</v>
@@ -3161,7 +3184,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="22"/>
       <c r="B57" s="17" t="s">
         <v>93</v>
@@ -3170,11 +3193,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="22"/>
       <c r="B58" s="15"/>
     </row>
-    <row r="59" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="20" t="s">
         <v>95</v>
       </c>
@@ -3182,7 +3205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="22"/>
       <c r="B60" s="12" t="s">
         <v>96</v>
@@ -3191,7 +3214,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="22"/>
       <c r="B61" s="12" t="s">
         <v>11</v>
@@ -3200,7 +3223,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="22"/>
       <c r="B62" s="12" t="s">
         <v>99</v>
@@ -3209,7 +3232,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="20" t="s">
         <v>101</v>
       </c>
@@ -3217,35 +3240,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="21"/>
       <c r="B64" s="10"/>
     </row>
-    <row r="65" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="9" t="s">
         <v>102</v>
       </c>
       <c r="B65" s="10"/>
     </row>
-    <row r="66" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="22"/>
       <c r="B66" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="22"/>
       <c r="B67" s="10"/>
     </row>
-    <row r="68" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="22"/>
       <c r="B68" s="10"/>
     </row>
-    <row r="69" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="21"/>
       <c r="B69" s="10"/>
     </row>
-    <row r="70" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="9" t="s">
         <v>103</v>
       </c>
@@ -3253,19 +3276,19 @@
         <v>104</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="23"/>
     </row>
-    <row r="81" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="23"/>
     </row>
-    <row r="85" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="23"/>
     </row>
-    <row r="86" spans="2:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="23"/>
     </row>
   </sheetData>
@@ -3286,7 +3309,7 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3302,15 +3325,15 @@
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="27"/>
-    <col min="2" max="2" width="57.75" style="25" customWidth="1"/>
-    <col min="3" max="3" width="30.75" style="25" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="25"/>
+    <col min="1" max="1" width="8.90625" style="27"/>
+    <col min="2" max="2" width="57.7265625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" style="25" customWidth="1"/>
+    <col min="4" max="16384" width="8.90625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="27" t="s">
         <v>105</v>
       </c>
@@ -3318,10 +3341,10 @@
         <v>106</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="27" t="s">
         <v>107</v>
       </c>
@@ -3329,10 +3352,10 @@
         <v>108</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -3340,10 +3363,10 @@
         <v>110</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="27" t="s">
         <v>111</v>
       </c>
@@ -3351,10 +3374,10 @@
         <v>112</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="27" t="s">
         <v>113</v>
       </c>
@@ -3362,10 +3385,10 @@
         <v>114</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="27" t="s">
         <v>115</v>
       </c>
@@ -3373,10 +3396,10 @@
         <v>116</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="27" t="s">
         <v>117</v>
       </c>
@@ -3384,10 +3407,10 @@
         <v>118</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="27" t="s">
         <v>119</v>
       </c>
@@ -3395,10 +3418,10 @@
         <v>120</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="27" t="s">
         <v>121</v>
       </c>
@@ -3406,21 +3429,21 @@
         <v>122</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="27" t="s">
         <v>123</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="27" t="s">
         <v>123</v>
       </c>
@@ -3428,10 +3451,10 @@
         <v>124</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="27" t="s">
         <v>123</v>
       </c>
@@ -3439,10 +3462,10 @@
         <v>125</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="27" t="s">
         <v>126</v>
       </c>
@@ -3450,10 +3473,10 @@
         <v>127</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="27" t="s">
         <v>123</v>
       </c>
@@ -3461,10 +3484,10 @@
         <v>128</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="27" t="s">
         <v>123</v>
       </c>
@@ -3472,10 +3495,10 @@
         <v>129</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="27" t="s">
         <v>130</v>
       </c>
@@ -3483,10 +3506,10 @@
         <v>131</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="27" t="s">
         <v>132</v>
       </c>
@@ -3494,10 +3517,10 @@
         <v>133</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="27" t="s">
         <v>134</v>
       </c>
@@ -3505,10 +3528,10 @@
         <v>135</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="27" t="s">
         <v>136</v>
       </c>
@@ -3516,10 +3539,10 @@
         <v>137</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="27" t="s">
         <v>136</v>
       </c>
@@ -3527,10 +3550,10 @@
         <v>138</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="27" t="s">
         <v>139</v>
       </c>
@@ -3538,10 +3561,10 @@
         <v>140</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="27" t="s">
         <v>141</v>
       </c>
@@ -3549,10 +3572,10 @@
         <v>142</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="27" t="s">
         <v>143</v>
       </c>
@@ -3560,7 +3583,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="27" t="s">
         <v>143</v>
       </c>
@@ -3568,21 +3591,21 @@
         <v>145</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="27" t="s">
         <v>146</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="27" t="s">
         <v>147</v>
       </c>
@@ -3590,10 +3613,10 @@
         <v>148</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="27" t="s">
         <v>149</v>
       </c>
@@ -3601,10 +3624,10 @@
         <v>150</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="27" t="s">
         <v>151</v>
       </c>
@@ -3612,21 +3635,21 @@
         <v>152</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="27" t="s">
         <v>151</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="27" t="s">
         <v>153</v>
       </c>
@@ -3634,10 +3657,10 @@
         <v>154</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="27" t="s">
         <v>155</v>
       </c>
@@ -3645,10 +3668,10 @@
         <v>156</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="27" t="s">
         <v>157</v>
       </c>
@@ -3656,10 +3679,10 @@
         <v>158</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="27" t="s">
         <v>159</v>
       </c>
@@ -3667,10 +3690,10 @@
         <v>160</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="27" t="s">
         <v>159</v>
       </c>
@@ -3678,10 +3701,10 @@
         <v>161</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="27" t="s">
         <v>159</v>
       </c>
@@ -3689,10 +3712,10 @@
         <v>162</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="27" t="s">
         <v>157</v>
       </c>
@@ -3700,7 +3723,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="27" t="s">
         <v>157</v>
       </c>
@@ -3708,7 +3731,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="27" t="s">
         <v>159</v>
       </c>
@@ -3716,7 +3739,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="27" t="s">
         <v>166</v>
       </c>
@@ -3724,22 +3747,22 @@
         <v>167</v>
       </c>
       <c r="C39" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="F39" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="D39" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="F39" s="25" t="s">
+      <c r="L39" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="L39" s="25" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="27" t="s">
         <v>168</v>
       </c>
@@ -3747,10 +3770,10 @@
         <v>169</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="27" t="s">
         <v>170</v>
       </c>
@@ -3758,7 +3781,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="27" t="s">
         <v>172</v>
       </c>
@@ -3766,10 +3789,10 @@
         <v>173</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="27" t="s">
         <v>174</v>
       </c>
@@ -3777,10 +3800,10 @@
         <v>175</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="27" t="s">
         <v>176</v>
       </c>
@@ -3788,10 +3811,10 @@
         <v>177</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="27" t="s">
         <v>178</v>
       </c>
@@ -3799,10 +3822,10 @@
         <v>179</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="27" t="s">
         <v>180</v>
       </c>
@@ -3810,10 +3833,10 @@
         <v>181</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="27" t="s">
         <v>180</v>
       </c>
@@ -3821,10 +3844,10 @@
         <v>182</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="27" t="s">
         <v>183</v>
       </c>
@@ -3832,7 +3855,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="27" t="s">
         <v>157</v>
       </c>
@@ -3840,10 +3863,10 @@
         <v>185</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="27" t="s">
         <v>186</v>
       </c>
@@ -3851,7 +3874,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="27" t="s">
         <v>188</v>
       </c>
@@ -3859,7 +3882,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="27" t="s">
         <v>190</v>
       </c>
@@ -3867,10 +3890,10 @@
         <v>191</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="27" t="s">
         <v>192</v>
       </c>
@@ -3878,10 +3901,10 @@
         <v>193</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="27" t="s">
         <v>194</v>
       </c>
@@ -3889,18 +3912,18 @@
         <v>195</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="27" t="s">
         <v>196</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="27" t="s">
         <v>197</v>
       </c>
@@ -3908,7 +3931,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="27" t="s">
         <v>199</v>
       </c>
@@ -3931,7 +3954,7 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3946,132 +3969,132 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.125" customWidth="1"/>
+    <col min="1" max="1" width="56.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>225</v>
       </c>
@@ -4085,31 +4108,31 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
-    <col min="2" max="2" width="68.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="68.90625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>226</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B3" s="4" t="s">
         <v>228</v>
       </c>
@@ -4123,15 +4146,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
         <v>232</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
         <v>233</v>
       </c>
@@ -4139,7 +4162,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
         <v>235</v>
       </c>
@@ -4147,7 +4170,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>237</v>
       </c>
@@ -4155,7 +4178,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>239</v>
       </c>
@@ -4163,17 +4186,17 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>243</v>
       </c>
@@ -4181,7 +4204,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
         <v>245</v>
       </c>
@@ -4189,7 +4212,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>247</v>
       </c>
@@ -4197,12 +4220,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
         <v>250</v>
       </c>
@@ -4210,7 +4233,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
         <v>252</v>
       </c>
@@ -4218,53 +4241,53 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B23" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B24" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>262</v>
       </c>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>263</v>
       </c>
@@ -4272,93 +4295,93 @@
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B28" s="7"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>266</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>267</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>269</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>270</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B42" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B53" s="4" t="s">
         <v>278</v>
       </c>
@@ -4366,7 +4389,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B54" s="4" t="s">
         <v>280</v>
       </c>
@@ -4374,7 +4397,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B55" s="4" t="s">
         <v>282</v>
       </c>
@@ -4382,7 +4405,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B56" s="4" t="s">
         <v>284</v>
       </c>
@@ -4390,217 +4413,217 @@
         <v>285</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B57" s="4" t="s">
         <v>286</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B58" s="4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B59" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B60" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B61" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B62" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B63" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B64" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B65" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B66" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B67" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B68" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B69" s="4" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B70" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B71" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B72" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B74" s="25" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B75" s="4" t="s">
         <v>303</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B76" s="4" t="s">
         <v>304</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B77" s="4" t="s">
         <v>305</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B78" s="4" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B79" s="4" t="s">
         <v>307</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B80" s="2" t="s">
         <v>308</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B81" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B82" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B83" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B84" s="25" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C84" s="25" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="C85" s="25" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="25" t="s">
-        <v>551</v>
-      </c>
-      <c r="C85" s="25" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="5" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B88" s="4" t="s">
         <v>313</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B89" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B90" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B91" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B92" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B93" s="4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B94" s="4" t="s">
         <v>319</v>
       </c>
@@ -4608,7 +4631,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B95" s="2" t="s">
         <v>321</v>
       </c>
@@ -4616,27 +4639,40 @@
         <v>320</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B96" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B97" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B98" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B99" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>565</v>
+        <v>563</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B102" s="1" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -4657,286 +4693,286 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="123.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="123.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7265625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>325</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B29" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B36" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B37" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B39" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B40" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B41" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B42" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B43" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B44" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B45" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B46" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B48" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B49" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B50" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B51" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B52" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -4948,281 +4984,286 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A53"/>
+  <dimension ref="A1:A54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="89.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="89.08984375" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>428</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>

--- a/牛客面试题.xlsx
+++ b/牛客面试题.xlsx
@@ -9,28 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6740" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6740" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA" sheetId="3" r:id="rId1"/>
     <sheet name="JVM" sheetId="6" r:id="rId2"/>
-    <sheet name="JUC" sheetId="8" r:id="rId3"/>
-    <sheet name="Thread" sheetId="12" r:id="rId4"/>
-    <sheet name="NIO" sheetId="9" r:id="rId5"/>
-    <sheet name="网络" sheetId="2" r:id="rId6"/>
-    <sheet name="MYSQL" sheetId="1" r:id="rId7"/>
-    <sheet name="设计" sheetId="10" r:id="rId8"/>
-    <sheet name="REDIS" sheetId="4" r:id="rId9"/>
-    <sheet name="SPRING" sheetId="5" r:id="rId10"/>
-    <sheet name="Mybatis" sheetId="7" r:id="rId11"/>
-    <sheet name="Flink" sheetId="11" r:id="rId12"/>
+    <sheet name="Thread" sheetId="12" r:id="rId3"/>
+    <sheet name="NIO" sheetId="9" r:id="rId4"/>
+    <sheet name="网络" sheetId="2" r:id="rId5"/>
+    <sheet name="MYSQL" sheetId="1" r:id="rId6"/>
+    <sheet name="设计" sheetId="10" r:id="rId7"/>
+    <sheet name="REDIS" sheetId="4" r:id="rId8"/>
+    <sheet name="SPRING" sheetId="5" r:id="rId9"/>
+    <sheet name="Mybatis" sheetId="7" r:id="rId10"/>
+    <sheet name="Flink" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="645">
   <si>
     <t>java类加载过程</t>
   </si>
@@ -669,9 +668,6 @@
   </si>
   <si>
     <t>HTTP2.0的特性，与1.1的区别什么的</t>
-  </si>
-  <si>
-    <t>http与https</t>
   </si>
   <si>
     <t>HTTP状态码</t>
@@ -1869,23 +1865,317 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>热点数据处理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>数据库锁实现（SQL或Java实现），根据表ID数量加一</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>三种依赖注入方式</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean的生命周期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreeMap</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">多态实现 </t>
+  </si>
+  <si>
+    <t>生产者消费者手写</t>
+  </si>
+  <si>
+    <t>JVM启动过程</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.JVM的装入和环境配置；2.装载JVM；3.初始化JVM，获取本地调用接口；4.运行Java程序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/25713880</t>
+  </si>
+  <si>
+    <t>什么是IoC和DI？并且简要说明一下DI是如何实现的？</t>
+  </si>
+  <si>
+    <t>springIOC原理是什么？如果你要实现IOC需要怎么做？</t>
+  </si>
+  <si>
+    <t>Spring中自动装配</t>
+  </si>
+  <si>
+    <t>Spring支持的事务管理类型有哪些？以及你在项目中会使用哪种方式？</t>
+  </si>
+  <si>
+    <t>AOP中的连接点（Joinpoint）、切点（Pointcut）、增强（Advice）、引介（Introduction）、织入（Weaving）、切面（Aspect）这些概念？</t>
+  </si>
+  <si>
+    <t>AOP的原理是什么？</t>
+  </si>
+  <si>
+    <t>aop的应用场景有哪些？</t>
+  </si>
+  <si>
+    <t>Aop实现的几种方式</t>
+  </si>
+  <si>
+    <t>什么是Mybatis?</t>
+  </si>
+  <si>
+    <t>Mybatis的优缺点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mybatis与Hibernate有哪些不同？</t>
+  </si>
+  <si>
+    <t>实体类中的属性名和表中的字段名不一样如何处理？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>模糊查询like语句</t>
+  </si>
+  <si>
+    <t>XML文件和DAO接口对应，DAO接口的工作原理？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么说Mybatis是半自动ORM映射工具？</t>
+  </si>
+  <si>
+    <t>MyBatis实现一对一有几种方式？</t>
+  </si>
+  <si>
+    <t>使用MyBatis的mapper接口调用时有哪些要求？</t>
+  </si>
+  <si>
+    <t>mybatis的延迟加载</t>
+  </si>
+  <si>
+    <t>Mybatis的一级缓存和二级缓存？</t>
+  </si>
+  <si>
+    <t>Mybatis动态SQL</t>
+  </si>
+  <si>
+    <t>TCP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP如何保障传输可靠性</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http与https，HTTPS如何加密</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>static关键字</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口和抽象类</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashMap</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发集合</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConcurrentHashMap</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>String在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JVM中如何存放</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象设置为null会不会立即回收？如何回收？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存溢出与内存泄漏，哪些场景产生</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈溢出和堆溢出区别</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C回收流程</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP四次挥手，断开连接时如何保证数据正确性</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是数据库事务，事务用来做什么</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么需要事务间隔离，什么场景需要事务隔离</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用事务做并发控制</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库的乐观锁和悲观锁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>读写分离</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地缓存和Redis缓存的优缺点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>热点数据处理（缓存热点）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存的作用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cookie 和 session 的区别</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>get和post请求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>转发和重定向之间的区别</t>
+  </si>
+  <si>
+    <t>解决session共享问题</t>
+  </si>
+  <si>
+    <t>阻塞队列</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程池</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">spring事务写在哪一部分，为什么不写在DAO,Controller层 </t>
+  </si>
+  <si>
+    <t>String如何判断相等</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合层次结构，各种集合容器简单介绍</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql主键和其他索引的区别</t>
+  </si>
+  <si>
+    <t>put流程</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>放入对象要求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>各参数意义</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何调优</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mybatis的使用 批量插入和分页</t>
+  </si>
+  <si>
+    <t>java如何做缓存(本地缓存)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>blockingqueue实现原理</t>
+  </si>
+  <si>
+    <t>java中的乐观锁与悲观锁</t>
+  </si>
+  <si>
+    <t>equals与hashcode的区别，存入集合时的判断过程</t>
+  </si>
+  <si>
+    <t>1.7与1.8区别</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashSet</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>与HashMap区别</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用HashMap实现HashSet</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring管理的bean有哪些模式，spring默认的是什么模式</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1945,14 +2235,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1969,7 +2251,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1977,71 +2259,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2052,41 +2274,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2388,35 +2594,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D3"/>
+  <dimension ref="A2:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" style="30" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="30"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="2" max="2" width="12.08984375" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="C2" s="30" t="s">
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3" s="13" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="D3" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="E3" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>557</v>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="13" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="13" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="13" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="13" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="13" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="13" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="13" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="13" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="13" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B18" s="13" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B20" s="13" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B21" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B22" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B24" s="13" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B25" s="13" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B27" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="13" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B30" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -2428,52 +2754,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="B1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B1" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -2485,15 +2769,80 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>433</v>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -2502,7 +2851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -2514,212 +2863,212 @@
   <cols>
     <col min="1" max="1" width="16.08984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="109.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38" style="24" customWidth="1"/>
+    <col min="3" max="3" width="38" style="8" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>477</v>
+        <v>433</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B2" s="25" t="s">
-        <v>487</v>
+      <c r="B2" s="9" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>438</v>
-      </c>
     </row>
     <row r="4" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="C4" s="24"/>
+      <c r="B4" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>475</v>
+        <v>468</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>479</v>
+        <v>438</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B11" s="25" t="s">
-        <v>481</v>
+      <c r="B11" s="9" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>472</v>
+      <c r="B14" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>474</v>
+        <v>444</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B16" s="25" t="s">
-        <v>486</v>
+      <c r="B16" s="9" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B17" s="25" t="s">
-        <v>482</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>484</v>
+      <c r="B17" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B19" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>473</v>
+      <c r="B19" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="25" t="s">
-        <v>483</v>
-      </c>
-      <c r="C20" s="24"/>
+      <c r="B20" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B21" s="25" t="s">
-        <v>480</v>
+      <c r="B21" s="9" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B22" s="25" t="s">
-        <v>478</v>
+      <c r="B22" s="9" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B25" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>448</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B26" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B28" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -2731,1212 +3080,521 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C62" sqref="B1:C62"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="99.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="8"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="31.90625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="42.26953125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="16"/>
+    <col min="4" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="14"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="14"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="16" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="17"/>
+    </row>
+    <row r="10" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="17"/>
+    </row>
+    <row r="14" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="17"/>
+    </row>
+    <row r="15" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="17"/>
+    </row>
+    <row r="21" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="14"/>
+      <c r="B24" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="14"/>
+      <c r="B25" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="17"/>
+    </row>
+    <row r="33" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="17"/>
+    </row>
+    <row r="34" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="17"/>
+    </row>
+    <row r="36" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="17"/>
+    </row>
+    <row r="37" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="17"/>
+    </row>
+    <row r="38" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="17"/>
+    </row>
+    <row r="40" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="17"/>
+    </row>
+    <row r="59" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L70" s="18" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="14"/>
-      <c r="B7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-    </row>
-    <row r="10" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="14"/>
-      <c r="B10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="14"/>
-      <c r="B11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="14"/>
-      <c r="B12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-    </row>
-    <row r="14" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-    </row>
-    <row r="15" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="14"/>
-      <c r="B15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="14"/>
-      <c r="B16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="14"/>
-      <c r="B17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="14"/>
-      <c r="B18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="14"/>
-      <c r="B19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-    </row>
-    <row r="21" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="18"/>
-      <c r="B24" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="18"/>
-      <c r="B25" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="14"/>
-      <c r="B27" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="14"/>
-      <c r="B28" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="14"/>
-      <c r="B29" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="14"/>
-      <c r="B30" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="14"/>
-      <c r="B31" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-    </row>
-    <row r="33" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-    </row>
-    <row r="34" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="14"/>
-      <c r="B34" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-    </row>
-    <row r="36" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-    </row>
-    <row r="37" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-    </row>
-    <row r="38" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-    </row>
-    <row r="40" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="14"/>
-      <c r="B41" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="14"/>
-      <c r="B44" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="14"/>
-      <c r="B46" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" s="10"/>
-    </row>
-    <row r="48" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="10"/>
-    </row>
-    <row r="49" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="10"/>
-    </row>
-    <row r="51" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="10"/>
-    </row>
-    <row r="52" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="21"/>
-      <c r="B52" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="21"/>
-      <c r="B53" s="10"/>
-    </row>
-    <row r="54" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="10"/>
-    </row>
-    <row r="55" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="22"/>
-      <c r="B56" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="22"/>
-      <c r="B57" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="22"/>
-      <c r="B58" s="15"/>
-    </row>
-    <row r="59" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="22"/>
-      <c r="B60" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="22"/>
-      <c r="B61" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="22"/>
-      <c r="B62" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="21"/>
-      <c r="B64" s="10"/>
-    </row>
-    <row r="65" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B65" s="10"/>
-    </row>
-    <row r="66" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="22"/>
-      <c r="B66" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="22"/>
-      <c r="B67" s="10"/>
-    </row>
-    <row r="68" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="22"/>
-      <c r="B68" s="10"/>
-    </row>
-    <row r="69" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="21"/>
-      <c r="B69" s="10"/>
-    </row>
-    <row r="70" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D70" s="29" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="23"/>
-    </row>
-    <row r="81" spans="2:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="23"/>
-    </row>
-    <row r="85" spans="2:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="23"/>
-    </row>
-    <row r="86" spans="2:2" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="23"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D70" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L57"/>
-  <sheetViews>
-    <sheetView topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="8.90625" style="27"/>
-    <col min="2" max="2" width="57.7265625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" style="25" customWidth="1"/>
-    <col min="4" max="16384" width="8.90625" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>561</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A33" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A34" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A35" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A36" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A37" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A38" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A39" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>515</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>516</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>517</v>
-      </c>
-      <c r="L39" s="25" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A40" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A41" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A42" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A43" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A44" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A45" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A46" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A47" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A48" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>200</v>
+    <row r="71" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="L71" s="15" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="19" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="19" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="19" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="19" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="19" t="s">
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -3946,7 +3604,636 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L57"/>
+  <sheetViews>
+    <sheetView topLeftCell="B47" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" style="11"/>
+    <col min="2" max="2" width="57.7265625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="8.90625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A33" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A34" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A35" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A36" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A37" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A38" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A39" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A40" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A41" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A42" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A43" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A44" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A45" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A46" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A47" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A48" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3961,157 +4248,198 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="56.08984375" customWidth="1"/>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="2" width="56.08984375" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8" s="9" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B9" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B10" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" s="9" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B12" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B15" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B16" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B17" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B18" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B19" s="9" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B20" s="9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B21" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B22" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B23" s="9" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B24" s="9" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B25" s="9" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B26" s="9" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B31" s="9" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B32" s="9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B33" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B34" s="9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B35" s="9" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -4123,176 +4451,176 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B23" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B24" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -4300,47 +4628,47 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -4348,331 +4676,361 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B42" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B53" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B54" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B55" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B56" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B57" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B58" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B59" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B60" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B61" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B62" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B63" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B64" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B65" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B66" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B67" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B68" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B69" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B70" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B71" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B72" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B74" s="25" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B75" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>540</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B75" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B76" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>546</v>
+        <v>302</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B77" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>547</v>
+        <v>303</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B78" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B79" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>539</v>
+        <v>305</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B80" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>548</v>
+      <c r="B80" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B81" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B82" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B83" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B84" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B85" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="5" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B84" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="25" t="s">
-        <v>549</v>
-      </c>
-      <c r="C85" s="25" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B88" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C88" s="25" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B89" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B90" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B91" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B92" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B93" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B94" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B95" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B95" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B96" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B97" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B98" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B99" s="25" t="s">
+      <c r="B99" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B100" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="C100" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="C99" s="25" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="1" t="s">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B101" s="1" t="s">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B103" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B102" s="1" t="s">
-        <v>569</v>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B104" s="9" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B105" s="9" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B106" s="9" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B107" s="9" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B108" s="9" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -4685,7 +5043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D53"/>
   <sheetViews>
@@ -4703,276 +5061,578 @@
   <sheetData>
     <row r="1" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B29" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B36" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B37" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B39" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B40" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B41" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B42" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B43" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B44" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B45" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B46" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B48" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B49" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B50" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B51" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B52" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="89.08984375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B1" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B8" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B9" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B11" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B12" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B13" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B14" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B15" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B16" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B21" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B23" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B24" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B25" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B26" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B27" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B28" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B29" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B30" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B31" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B32" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B33" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B34" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B35" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B36" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B37" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B38" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B39" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B40" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B41" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B42" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B43" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B44" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B45" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B46" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B47" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B48" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B49" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B50" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B51" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B52" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B53" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B54" s="9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B55" s="9" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B56" s="9" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -4984,291 +5644,98 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="89.08984375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B1" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A30" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A31" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A32" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A40" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A44" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A45" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A46" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A47" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A48" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
         <v>568</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>